--- a/data/hotels_by_city/Dallas/Dallas_shard_228.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_228.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="721">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Jennifer M</t>
+  </si>
+  <si>
     <t>05/29/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>If your main concern is cost this may be a decent option. But if you want a quality experience this is not for you. First, I had to wait 15 minutes at front desk to check in. I do not consider this the fault of the front desk person as he was helping another guest but a management issue as he was obviously understaffed. He was very friendly and once he was back checking in didn't take that long. The pool was dirty looking so i wouldn't use it. The room was hot and the overall feel of the hallway was like the Bates Motel. The hotel seemed overall clean so no complaints about that. Again the issues with the hotel are all management and owners/corporation. The need for update is HUGE. Everything feels like it is stuck in the 1980s. The kitchenette was fine but there were no dishes nor was there even an in-room coffee maker. The lack of coffee/tea station even a cheap 1 cup system is ridiculous in this day and age. I have stayed at rough hotel/motels that had this amenity. Now as to the "breakfast," it was a small mini muffin, coffee and granola bars. Im assuming that they do not put much out even with that limited choice as they were down to two muffins when I went down at 730 am. The front desk staff was friendly so as far as employees...If your main concern is cost this may be a decent option. But if you want a quality experience this is not for you. First, I had to wait 15 minutes at front desk to check in. I do not consider this the fault of the front desk person as he was helping another guest but a management issue as he was obviously understaffed. He was very friendly and once he was back checking in didn't take that long. The pool was dirty looking so i wouldn't use it. The room was hot and the overall feel of the hallway was like the Bates Motel. The hotel seemed overall clean so no complaints about that. Again the issues with the hotel are all management and owners/corporation. The need for update is HUGE. Everything feels like it is stuck in the 1980s. The kitchenette was fine but there were no dishes nor was there even an in-room coffee maker. The lack of coffee/tea station even a cheap 1 cup system is ridiculous in this day and age. I have stayed at rough hotel/motels that had this amenity. Now as to the "breakfast," it was a small mini muffin, coffee and granola bars. Im assuming that they do not put much out even with that limited choice as they were down to two muffins when I went down at 730 am. The front desk staff was friendly so as far as employees go I had no issues there but the I will never stay at another Stay America if this is the example of the type of properties they own particularly as it should be a fairly profitable area with the closeness to UT Dallas, Galleria and downtown Dallas area.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r541193893-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>I want to thank the whole staff at extended stay America in Richardson Texas.Special thanks to Antonio,mirrend,kristal,.They have provided exceptional service to me the peaceful and quietness,  politeness rooms are very clean .The maintenance man and housekeepers are very excellent at keeping everything in perfect condition.More</t>
   </si>
   <si>
+    <t>preets445</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r563281520-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -249,6 +258,9 @@
     <t>This is a nice place to stay. All things were in proper order and internet was working too. It is very convenient to reach out to this place too. The staff is friendly. I recommend this hotel for everyone.More</t>
   </si>
   <si>
+    <t>wandac684</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r559912614-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -273,6 +285,9 @@
     <t>The room was clean.  Bed was very comfortable.  Check in staff was great.  Only negative is there was no one there at check out to provide a receipt.  The location is great.  Price was great.  Highly recommended this location.More</t>
   </si>
   <si>
+    <t>R1042PTgaryd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r553490564-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -300,6 +315,9 @@
     <t>NO shampoo in shower Phone not working-plug pulled out and broken Fleas in bed from previous occupants or pets No coffee maker in room No dishes in kitchen Dirty room overall and had to request another Requested king bed but booked into room with 2 full size bedsMore</t>
   </si>
   <si>
+    <t>susaneK2155NW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r551672754-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -327,6 +345,9 @@
     <t>The staff was very friendly from checking in to checking out. It was very easy to check in. I would definitely stay in the hotel again. Very accommodating, it was like a studio apt. I felt at home and was happy with all the room I had to move around. The kitchen area was very nice and the bathroom area was away from the sleeping area.More</t>
   </si>
   <si>
+    <t>MarianneMiller</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r551241131-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -336,6 +357,9 @@
     <t>January 3, 2018</t>
   </si>
   <si>
+    <t>WILLIAM G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r550200034-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -363,6 +387,9 @@
     <t>We recently stayed five nights in Richardson, TX Extended Stay.  We have stayed there many times.  It used to be a very nice place to stay with fully equipped kitchen.  Now you have to request what you want.  My first request was 1 dishrag, 1 dish towel, 1 toaster, 1 paring knife (all rec'd) and 2 cups, 2 bowls and silverware (NOT rec'd).  They supplied 2 dinner plates, 2 glasses and 1 butter knife.  My second request (you have to pick this stuff up at the front desk) 2 cups, 2 tsp. (rec'd) and 2 tablespoons (not rec'd)Time to take a shower and there were no wash cloths.   I was surprised when I was told they would be at the front desk when I wanted to pick them up.  I believed they should have been delivered since wash cloths should have been in the room when we checked in.  I was told "WE DO NOT HAVE ROOM SERVICE".  I do not believe supplying the first wash cloths (the towels were there) was room service, only the replacements.  THIS WAS A VERY DEGRADING EXPERIENCE.p.s.:  remember to pack your own tablespoonsMore</t>
   </si>
   <si>
+    <t>lamarcuss2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r548766606-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -387,6 +414,9 @@
     <t>Needs Hotel Rescue NOW!! It's use to be one of the nicer EXTENDED STAY AMERICA but now is horrid. I was checked in to a dirty room with odor then into a room with no ac. If they cared about the hotel as much as they did about knocking on doors at 11 it might have a chance. More</t>
   </si>
   <si>
+    <t>Charles A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r546397242-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -411,6 +441,9 @@
     <t>Despite the  friendliness of the front desk reception,  The rooms are filthy.  Obvious lack of managerial intervention.  I stayed with my pet that was very entertained by picking all the debris from under the beds.  More</t>
   </si>
   <si>
+    <t>jerry k</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r541213861-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -426,6 +459,9 @@
     <t>If you want to feel like your home away from home then you chose the right place to go. Antonio the GM at the Richardson, TX location by far knows how to make you feel welcome the second you walk in. You can tell how well he is liked and respected by his staff.  Our room is comfortable and spacious.  Do not agree with negative remarks of other reviewers. With my wifes ill health and travel with a service dog we have not heard one "no" or "i don't know" from this property.  Keep up the good work. More</t>
   </si>
   <si>
+    <t>Barry M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r531505065-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -453,6 +489,9 @@
     <t>I arrived on a Saturday afternoon and was given a room near the entrance to hotel reception. I could not believe the state of the room. The bathroom was filthy. There was algae growing under all of the  handles over the bath tub. The soap holder had left over soap from previous guests. The basin had left over soap and the drain was so rusted you couldn't see the silver of the original drain fixture. The kitchen - The fridge, wall next to the stove and the counter had  the remnants of left over food on all of them. The microwave also had left over food under the plate and on the wall of the microwave. The toilet blocked  up and when I went to the reception to get someone to come sort out the toilet and my other issues. I explained how dirty the room was and the issue with the toilet. I was offered a plunger to clean the toilet myself. I asked for someone else to look into it. They stated the 1st time they could look at any of my issues was Monday morning. Lets just say, I left 1st thing Monday morning.More</t>
   </si>
   <si>
+    <t>Jose J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r510732347-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -480,6 +519,9 @@
     <t>Very clean, and family friendly hotel. In a very nice location, the pool was very relaxing. Friendly and knowledgeable staff. Would happily stay here again. I recommend  this location. Close to uptown Dallas, plenty to do in this area.More</t>
   </si>
   <si>
+    <t>13bedbugz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r508767789-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -504,6 +546,9 @@
     <t>As most of you know I stay at Extended Stay America a lot all over the place I love the one on Frankford well I decided to actually visit the one in Richardson.. when I arrived at the hotel it was $20 higher than it had been quoted and they said they only had one room left yet there was many listed online. When they notice that my service dog who travels with me everywhere was a pit bull they became even harder to deal with I was sitting in the lobby waiting for my husband to get there with the other bit of the money and my dog was playing with some visiting people. The manager and her dog walked out in the hall my dog ran to them not aggressively the ran to them. The manager then proceeded to scream at me to get out of her hotel and off of her property I told her I just got out of the hospital I had PTSD and I needed her to call me a cab. She proceeded to scream and threaten me with cops and animal control and everything else. I had 4 bags my dog two days out of the hospital and miles to walk. I was hurting so bad that I stopped periodically to cry and sit on the ground. Hooch is a big part of my travel. Because if a hotel will treat an animal...As most of you know I stay at Extended Stay America a lot all over the place I love the one on Frankford well I decided to actually visit the one in Richardson.. when I arrived at the hotel it was $20 higher than it had been quoted and they said they only had one room left yet there was many listed online. When they notice that my service dog who travels with me everywhere was a pit bull they became even harder to deal with I was sitting in the lobby waiting for my husband to get there with the other bit of the money and my dog was playing with some visiting people. The manager and her dog walked out in the hall my dog ran to them not aggressively the ran to them. The manager then proceeded to scream at me to get out of her hotel and off of her property I told her I just got out of the hospital I had PTSD and I needed her to call me a cab. She proceeded to scream and threaten me with cops and animal control and everything else. I had 4 bags my dog two days out of the hospital and miles to walk. I was hurting so bad that I stopped periodically to cry and sit on the ground. Hooch is a big part of my travel. Because if a hotel will treat an animal bad they will treat their guest bad.  The experience set my healing back aweek. Animal Control came up to me about a block down the road. The Animal control officer realized that he had adopted Hooch out to me. And Hooch had been certified through them. He told me that she had said that I sicked my dog on her I would never endanger my dog. I had met the general manager earlier on this summer at the Frankford location and he sincerely seem to care about his stores so I tried to contact him immediately and never heard back from him so I felt that it was important that I post this review so you would be aware that this woman does not like pit bull dogs even if they are sweet as can be I don't think she even likes her own.More</t>
   </si>
   <si>
+    <t>811garrettk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r508914339-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -528,6 +573,9 @@
     <t>Overall the value for my stay was very good. The hotel was very clean. I would have given a better rating but there was a terrible smell in the room that appeared to have been from a residual cooking odor. I did not report it because it was a hassle being that I was only staying one night but someone should have noticed the smell and not put the room back in service until it could be taken care of. Staff was very friendly. There is no place to print boarding passes or other business documents so I would not recommend this to a business traveler.More</t>
   </si>
   <si>
+    <t>jeff1070</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r508740425-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -543,6 +591,9 @@
     <t>When my A/C went out at my house I needed a place to stay seeing that it was July in Texas! Glad I chose this place. Nice, clean room with kitchen!  Friendly staff greets you when you arrive and they even called my room about 15 mins in to make sure everything was to my satisfaction in my room! More</t>
   </si>
   <si>
+    <t>767kshitijv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r507979329-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -567,6 +618,9 @@
     <t>Please dont book this hotel. Its not worth the tariff. Receptionist will keep you waiting for 10-15 mins for checkin. Cockroaches in room.  Always runs out of breakfast. not at all value for money.  Better search for other hotels.More</t>
   </si>
   <si>
+    <t>Dj B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r507602037-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -591,6 +645,9 @@
     <t>Fantastic area, affordable, clean, safe, and great managers. So much around to do and not that far from dt dallas. Well maintained and great vibes.Definitely will continue to use extended stay America and recommend to anyone.More</t>
   </si>
   <si>
+    <t>ericsclinkscale</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r506931766-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -615,6 +672,9 @@
     <t>Everything was great the management was great and they did everything to help with any problems I had. It was pretty clean and I would reccomend this hotel to anybody whether it's family or business. I appreciate itMore</t>
   </si>
   <si>
+    <t>323dustyg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r506798241-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -636,6 +696,9 @@
     <t>Great stay never stayed at a extended Stay type place before so it was a fun experience. Everything was clean and easily accessible plus here were a few restaurants within walking distance. Wouldn't mind staying again.More</t>
   </si>
   <si>
+    <t>J3467GSsarahf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r502503213-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -663,6 +726,9 @@
     <t>This hotel is not very nice or clean. The room had ants all over the kitchen, the laundromat does not work, and the breakfast is minimal. The staff is not very nice. Terri is the best employee they have. She was very nice. The management was not nice at all. The pool is nice. More</t>
   </si>
   <si>
+    <t>Chantelle J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r501644971-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -687,6 +753,9 @@
     <t>Very clean facility. The only thing is that there were no clean dishes in rooms, you have to ask for them if u want them. No ice ma hine in building so there should have been an ice tray in your freezer...and there was not!! I ran just so happened to talk with another patron whom seen me searching. She had an ice tray in her room..it just wasnt filled...so bring your own ice...lol..More</t>
   </si>
   <si>
+    <t>O9878ZFjanv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r498441881-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -711,6 +780,9 @@
     <t>Clerk tried to double charge me at check in and then argue with me about it. AC was not working in room. Absolutely no (none) grab-n-go breakfast as advertised, unless you count coffee and expired oatmeal "breakfast". Overall decrepit rundown look.More</t>
   </si>
   <si>
+    <t>Karent P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r496026931-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -735,6 +807,9 @@
     <t>To start off the room did not have any trashcans, and it smelled humid in the room.The linen did not smell clean, and there was roach traps everywhere in the room.The continental Breakfast consisted of coffee and muffins, which in my understanding that is not a continental breakfast. When I actually decided to get Breakfast they barely had any coffee,no sugar,  and there was no muffins.I stayed two days, and we didn't get our room cleaned, or get any new towels. Since we didn't get the room cleaned,I had to ask why and they told me that they only do cleaning service if you stay 7 nights and they only do it once a week.This would explain why they have roaches. During our stay we found dead roaches in the roach traps, which is really gross.I had never had such a bad experience. I will never stay here again.More</t>
   </si>
   <si>
+    <t>sandravO7089DE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r494260047-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -759,12 +834,18 @@
     <t>Was there 2 weeks they nrver had breakfast all they Was coffee and tea got lucky once with hot cocoa and a donut room service never got it after 6 days i called ask why i hadnt got my sheets change they said theyed do it that day got back from work and still nothing after 9 day asked again i was so un satisfied. More</t>
   </si>
   <si>
+    <t>jz222</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r494102195-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
     <t>494102195</t>
   </si>
   <si>
+    <t>584oscarh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r492911853-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -789,6 +870,9 @@
     <t>the place is at a very good location, many places around to go to lunch and dinner.  Service poor to at average, perhaps is the comparison with the service of other south locations.  The bed is not the best to rest.More</t>
   </si>
   <si>
+    <t>Erica O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r479623219-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -816,6 +900,9 @@
     <t>Horrible!!! Do not stay there!!!! Stayed 2 nights because we had a water leak under our house. We arrived and our room was so filthy! I called the front desk and told her that our room was dirty she said that she would have them clean it the next day. When we go to the room there was about if hair on the beds in the shower, scum build up in the bath tub, towels had stains,remote never worked, we would have to turn off the tv so the volume would go down. The ac/heater unit was held together with duck tape. The website said it had breakfast... if you consider a packaged  muffin and coffee breakfast WOW! We left early the next morning and didn't return until 9pm to a STILL dirty room! Housekeeping never touched our room. So disappointedMore</t>
   </si>
   <si>
+    <t>Wayland E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r458745934-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -834,6 +921,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>Alex B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r441161675-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -852,6 +942,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>Kathleen J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r439828453-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -876,6 +969,9 @@
     <t>What distinguishes this property from other ESAs is a large and attractive lobby, several mini-room areas with tables, sofa, chair, fake fireplace, etc. so that you have a space besides your room to relax in.  Unlike some Extended Stays we've been to, the towels were in the bathroom as they should be, and the front desk staff was outstanding [it was Thanksgiving and an employee had not showed up so the manager of several hotels was filling in.] Also, the bar of soap worked [at other Extended Stays it doesn't lather and feels like a small piece of plastic, which I've dug into and scraped with fingernails to try to get something soapy going on, and given up and used our own.]  The room had a lounge chair, and plenty of outlets on the bar/desk area for multiple electronic items. However, there was only an outlet on one side of the bed, which makes it difficult for folks with CPAP machines.  We have grown accustomed to having to make very specific requests for kitchen items -- individually ask for fork, knife, cup, spoon, glass, etc., instead of just being given a set of items on request, so we were glad that at least we got a small box of items [still only one plate for two of us] rather than piecemeal.  Usually you can get whatever kitchen items if you ask at the front desk, except for a corkscrew.  Breakfast...What distinguishes this property from other ESAs is a large and attractive lobby, several mini-room areas with tables, sofa, chair, fake fireplace, etc. so that you have a space besides your room to relax in.  Unlike some Extended Stays we've been to, the towels were in the bathroom as they should be, and the front desk staff was outstanding [it was Thanksgiving and an employee had not showed up so the manager of several hotels was filling in.] Also, the bar of soap worked [at other Extended Stays it doesn't lather and feels like a small piece of plastic, which I've dug into and scraped with fingernails to try to get something soapy going on, and given up and used our own.]  The room had a lounge chair, and plenty of outlets on the bar/desk area for multiple electronic items. However, there was only an outlet on one side of the bed, which makes it difficult for folks with CPAP machines.  We have grown accustomed to having to make very specific requests for kitchen items -- individually ask for fork, knife, cup, spoon, glass, etc., instead of just being given a set of items on request, so we were glad that at least we got a small box of items [still only one plate for two of us] rather than piecemeal.  Usually you can get whatever kitchen items if you ask at the front desk, except for a corkscrew.  Breakfast is minimal at Extended Stays, but if you really want a breakfast with protein, you can cook in your room, at least.  But in the end, for the bargain price we got with an express deal, it was highly satisfactory and pleasing.  [No elevator or cart, so if you're older and heavy like we are, ask for a downstairs room.]  The swimming pool looked appealing and attractive, although we didn't use it because the weather is cool.More</t>
   </si>
   <si>
+    <t>MysticYears</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r399334082-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -903,6 +999,9 @@
     <t>The two issues that gave this such a poor review: 1) their "breakfast included" consisted of pre-packaged small muffins, these tiny bland breakfast bars or instant oatmeal in packages.  All kid sized. Surely, you say there would be juice, milk, toast.... nope. We ended up going out for breakfast. 2) the rooms are designed with no AC outlet near the bed. We had a room with 2 queen beds and there were no outlets near either bed. Across on the other side of the room, several options but nothing to plug you phone into next to the bed for an alarm or convenience. Oh, and the alarm clock that they do have in the room...  is on the wall opposite from the beds!!! What is this placing thinking !More</t>
   </si>
   <si>
+    <t>donderio</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r371173750-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -930,6 +1029,9 @@
     <t>After seeing some of the reviews on here and experiencing most likely the best customer service i've seen in a long time i decided to leave a review in their defense. I don't know if there have been improvements made since those but we were treated like royalty. The rooms were clean w/ all new equipment. Amy the receptionist was so nice and accomodating (i don't care how much she gets paid, pay her MORE!!) You can't pay enough for quality people in this industry. After a small wait, because the guy in front of me liked to talk, she quickly changed form from talkative listening mode to the quickest reservation i had seen ;) After a long day of TRAFFIC i just wanted to get to my room and relax. When i told her i had purchased some salmon and wine, she quickly gathered the necessary cooking utensils, plates etc. and was at my room before i even got there. Like i said, i was quite impressed since you don't get this type of service and luxury for this price anywhere!! Thanks Amy!!More</t>
   </si>
   <si>
+    <t>Jenabcd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r352221715-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -957,6 +1059,9 @@
     <t>Got to our room.  The bathroom light didn't work,  which happens, and they fixed it.  It's  called Extended Stay.  Not a plate, fork, cup, coffee machine (what hotel doesn't offer coffee machine or cups?), no ice machine, nothing!  My husband did ask for some sort of coffee machine and cup,  and received one.  They said it's normally an extra option. Huh? Anyway, it has the frig, microwave, sink and cupboard, but nothing to go with it. It felt very old, and a bit dingy. The tv's are modern,  but VERY small.  I do not recommend. More</t>
   </si>
   <si>
+    <t>Gaurav G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r349539967-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -984,6 +1089,9 @@
     <t>I recently visited the hotel and stayed around 4 days, check in was average, the lady at front desk was filling for the night shift, has less idea of the property, but still managed to do what I required. cleanliness was good, things are their own places. Free WIFI, morning go to breakfast (apples, oranges, oat bars, coffee, muffins etc) I briefly described the breakfast menu because lot of people choosing it for complimentary should know it is just that and not heavy omelette, or egg kind of breakfast. Room condition was good, but has very thin walls, you can easily listen people coughing or watching TV the next door. You may need to ask for extra utensils to cook (it has burners), towels were okay, refrigerator was old but worked. I asked for moisturizers and shampoos and they were out of them ( little displeased there).I had to go to walgreens to get some travel     amenities. Wendy is the adjacent food point, and few others restaurants with in 5 miles.I liked Adam (I guess the manager) he was soft spoken and has greetings for folks coming in and out.I wish you all the best for your stay.More</t>
   </si>
   <si>
+    <t>rob s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r347424694-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1002,6 +1110,9 @@
     <t>found blood in the bathtub, black mold in the tub caulking, black mold on the air vents, yellow stains on the pillowcases, disgusting tile and caulk on the bathroom floors, stains on the electrical outlets, non-functional phones, shattered safety locks on the front door providing no security, heavy cigarette smoke coming into the room through the ventilation, absolutely filthy windows, stove and carpets,  no maid service.  Management denies the problems saying the rooms have been updated and I just got a non-updated room.  Check some of the other reviews identifying syringes in the parking lot and complaints very similar to these.  Management justifies all of them.  Avoid this hotel at all costs.More</t>
   </si>
   <si>
+    <t>Samantha  H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r340033052-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1029,6 +1140,9 @@
     <t>The room was nice only bad thing was when we arrived the toilet looked like it hadn't been cleaned in a year. And somehow got more clean the longer we used it. We also had the do not disturb sign on the door and housekeeping and maintenance still tried to barge their way in. For no apparent reason.  We had never called the front desk and asked for maintenance. Cockroaches everywhere.  No oven. More</t>
   </si>
   <si>
+    <t>Janet O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r331489505-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1054,6 +1168,9 @@
   </si>
   <si>
     <t>Although recently renovated this hotel already was showing huge signs of wear and tear.  The desk person was pleasant and the room okay as far as rooms go, although a towel had a large blood streak across it.  But the bed was comfortable enough.  Words of warning...no ice available AT ALL, no elevators, and no utensils-glasses-etc in room (you have to ask for a "kit"), keep in mind that this is an extended stay and people do "live" here.  When we arrived the hotel smelled of cooking fish, as it turned out our room was right next door to the chef whose door was propped open with his garbage bags.  Luckily the window opened some.More</t>
+  </si>
+  <si>
+    <t>Ahmed Y</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r302187612-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
@@ -1085,6 +1202,9 @@
 1. Customer service: I have never expected that the customer service can be as bad as this. Note that I'm not taking about hospitality, it is another level that we are very far away from. I'm taking about the level of making your simple requests. They deal with you as if you are begging from them, even the very simple request.  For example, one time one agent called "Jennifer" refused to change the towels for me because her shift will be done in 1 hour, and I had to wait for 2 hours to get the towels from the next shift, even though my baby really needed a new towel quickly. She didn't even understand my situation, and once I talked with her in a serious way, She just kept saying I will call the police for you. I talked with her manager, but...Simply, this is the worst place I have ever been to. I stayed there for 2.5 months with the extended stay plus program. The problem with this problem is that you reserve for &gt; 2 months. So, once you have the check-in, you will have to stay the whole period because you pay in monthly installments. This is the reason why I had to stay there despite all the problems below: (Note: I think I tried ~ 20-30 places, so when I say that this is really the worst, I think I'm not unfair about that)1. Customer service: I have never expected that the customer service can be as bad as this. Note that I'm not taking about hospitality, it is another level that we are very far away from. I'm taking about the level of making your simple requests. They deal with you as if you are begging from them, even the very simple request.  For example, one time one agent called "Jennifer" refused to change the towels for me because her shift will be done in 1 hour, and I had to wait for 2 hours to get the towels from the next shift, even though my baby really needed a new towel quickly. She didn't even understand my situation, and once I talked with her in a serious way, She just kept saying I will call the police for you. I talked with her manager, but I knew later on that he didn't do anything, and she continued to deal with me the very bad way.2. Is it clean? I went to several places before ranging from Sheraton to a one-star motel. No one is like this terrible experience. In this place, ants are everywhere, rooms are very smelly, and towels are not clear (some of them are yellow while they were originally white). For the ants, no solution, I told them several times about this, wait for several days for someone to respond to this, so that finally he uses an inefficient treatment, that just keeps the ants away for 1-2 days, and they are back, and so on. Imagine that you stays in this place for 2.5 months and they are not able to solve this problem. I even tried to change the room, and the problem remains the same. They finally told me that you will likely find the same problem in all the rooms. So, they know the problem but can't fix it, very weird!3. No intention for improvement: Called the managers several times complaining about the service and the ants. He answers politely with promises, but with no real actions. I finally gave up even complaining and decided to spend this time by one way or another. In conclusion, I sincerely advise everyone not to repeat this...More</t>
   </si>
   <si>
+    <t>BrightEyes1221</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r281358140-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1112,6 +1232,9 @@
     <t>Very clean and close to highway. Pleasant stay i booked this room for frowns asks they enjoyed the breakfast and amenities. It was a great rate and includes fridge asks microwave. I will definitely stay againMore</t>
   </si>
   <si>
+    <t>John W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r252677067-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1139,6 +1262,9 @@
     <t>the good part... newly renovated rooms, fresh paint, new carpets. they advertise pet friendly, but outside there is little grass, and NO trash cans to put poop-bags in. The prices for pets is OUTRAGEOUS... $25 per pet per day. I walked the dog around the perimeter... saw a screw lying on the pavement on one side (like flat tires???) and a box cutter razor on the other. When we checked in we were directed to an entry door that was closed (for reno). the 'kitchen' sink was hooked up backwards hot/right cold/left. Very clumsy check in... Reserved two rooms, had to check in each one separately (might be because they tried extra hard to get the first one ready upon arrival... which we very much appreciated) Breakfast bar is sparce, no salt, no pepper, no decaf. First day toilet stopped up, took two calls to get it fixed. Pot party down the hall made traversing the hall ... interesting. Smelled like good stuff... ? But I was not amused.... Can't control stupid young guests, but hey, walk the hall, right? Also, had to plead for extra washcloths ("I'm only supposed to give you exchanges for what you turn in").  Staff tried hard, but were apparently hamstrung by bad system. Nice kitchenette in room, but if you want dishes etc, you have to ask. Internet is free, but if you want decent speed, you have to pay extra... in general, it...the good part... newly renovated rooms, fresh paint, new carpets. they advertise pet friendly, but outside there is little grass, and NO trash cans to put poop-bags in. The prices for pets is OUTRAGEOUS... $25 per pet per day. I walked the dog around the perimeter... saw a screw lying on the pavement on one side (like flat tires???) and a box cutter razor on the other. When we checked in we were directed to an entry door that was closed (for reno). the 'kitchen' sink was hooked up backwards hot/right cold/left. Very clumsy check in... Reserved two rooms, had to check in each one separately (might be because they tried extra hard to get the first one ready upon arrival... which we very much appreciated) Breakfast bar is sparce, no salt, no pepper, no decaf. First day toilet stopped up, took two calls to get it fixed. Pot party down the hall made traversing the hall ... interesting. Smelled like good stuff... ? But I was not amused.... Can't control stupid young guests, but hey, walk the hall, right? Also, had to plead for extra washcloths ("I'm only supposed to give you exchanges for what you turn in").  Staff tried hard, but were apparently hamstrung by bad system. Nice kitchenette in room, but if you want dishes etc, you have to ask. Internet is free, but if you want decent speed, you have to pay extra... in general, it was like an inn owned by an airline whose CEO is a congressman.More</t>
   </si>
   <si>
+    <t>ExplorersOfLife</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r242139010-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1166,6 +1292,9 @@
     <t>Pros:Good location in Richardson, TXCons:1) Very old rooms3) Requested for a wheelchair accessible room and even called couple of days and confirmed, but when we reached we were told that the room was sold out for the past year or so and could not accommodate us. 3) Very rude staffWe cancelled our stay and moved to another facilityMore</t>
   </si>
   <si>
+    <t>Sharon M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r234200651-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1187,6 +1316,9 @@
     <t>After booking blindly on Hotwire, I had the name and went to Tripadvisor for reviews.  Reviewed poorly with supporting photos. I contacted Extended Stay America, 901 Campbell and told them I saw the reviews and would be reviewing them and I hoped to have a positive experience.  First room had 1 bed so I switched therefore I was in 2 rooms, both were fine.  No odor and cold a/c.  Some things were dated but not much.  New bedspreads and quality pillows on a basic, but comfortable bed.  New shower curtain, clean restrooms, nice showerhead with pulsating options.  Plenty of hot water. Flat screen tv with cable.  Free wifi.  Room carpet was dated but my socks didn't pick up dirt.  Scenic view out sliding glass door.  Ali at front desk was professional and likeable.  Laundry facilities and meeting area available.  Quality flooring and decor in the front area, grounds were beautiful.  Nice cars filled the parking lot.  Wendy's fast food next door - open till 1 am.  My experience was wonderful and I would recommend Extended Stay America, Richardson.More</t>
   </si>
   <si>
+    <t>RippedOff42</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r234110391-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1208,6 +1340,9 @@
     <t>If you read all the reviews on this place you will find this is my third review. I want to start with the good. Our room was clean. Bed was comfortable. TV w/remote worked well. The Heat/AC unit worked well, shower worked well with plenty of hot water. What went wrong. NO ELEVATOR. my wife and I and some friends we had staying there had to carrie our stuff up steps to the second level, for someone with a bad knee or bad back, that's not a good thing. As we were planning on taking advantage of the Kitchen area. We had nothing, Plates, silverware, coffee pot or coffe cups or drinking glasses. When my wife contacted the front desk, His reply was I will have some ready in about fifteen minutes. COME AND GET THEM.  "REALLY"  AND THEN BRING BACK THE CONTAINER THEY GAVE YOU TO CARRY THEM UP AND DOWN THE STAIRS AGAIN.  Come on Adam (Manager) you guys can do better than that. It's the OU/TEXAS weekend. should have been better staffed and make sure each room has everthing needed as advertised on your website. Overall it worked well for us and our trip, close to the Train stations that took us to the Game, My friend left several items in their room, let's if the staff reports to the managment and what becomes of that, Yet to be determine!!!! The big question is will we stay...If you read all the reviews on this place you will find this is my third review. I want to start with the good. Our room was clean. Bed was comfortable. TV w/remote worked well. The Heat/AC unit worked well, shower worked well with plenty of hot water. What went wrong. NO ELEVATOR. my wife and I and some friends we had staying there had to carrie our stuff up steps to the second level, for someone with a bad knee or bad back, that's not a good thing. As we were planning on taking advantage of the Kitchen area. We had nothing, Plates, silverware, coffee pot or coffe cups or drinking glasses. When my wife contacted the front desk, His reply was I will have some ready in about fifteen minutes. COME AND GET THEM.  "REALLY"  AND THEN BRING BACK THE CONTAINER THEY GAVE YOU TO CARRY THEM UP AND DOWN THE STAIRS AGAIN.  Come on Adam (Manager) you guys can do better than that. It's the OU/TEXAS weekend. should have been better staffed and make sure each room has everthing needed as advertised on your website. Overall it worked well for us and our trip, close to the Train stations that took us to the Game, My friend left several items in their room, let's if the staff reports to the managment and what becomes of that, Yet to be determine!!!! The big question is will we stay here again. Maybe, as I feel it is my duty to report on the Bad as well as the Good. Know this, It's not a bad place, with a little work it could be a very good place to spend the weekend.More</t>
   </si>
   <si>
+    <t>Jkompa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r230190518-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1229,6 +1364,9 @@
     <t>Spent 5 weeks at this hotel after relocating from Tennessee while waiting to move into our new home in Plano.  After checking in, I spent about 4 hours cleaning the entire room with disinfectant because it was so gross.  The dirt and grime build up on the walls, light switches, counters, and door frames was awful.  Mold in the shower and around the tub.  Remnants of food and grease splatter around the cook top and on the back splash.  I was so ticked off.  The kitchen sink began leaking the 2nd day of our stay causing water to leak into the cabinet underneath.  It took them 3 weeks to finally replace the faucet.  The hallways and lobby smell like sewer gas.  It was disgusting.  I decided to stay the entire 5 weeks despite these problems because I spent so much time cleaned the frigging room myself and I was worried that if I went somewhere else I might have to do the same thing there.  Very disappointed.More</t>
   </si>
   <si>
+    <t>anya75482</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r219903145-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1247,6 +1385,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>Sandeep K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r217840283-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1262,6 +1403,9 @@
     <t>I checked in on July 22nd after a hectic flight and work around 9:45 PM and the person in reception gave me a key of the room. I was holding 3 bags with me. I checked in my room and wanted to take shower. To my surprise I found there was no shower head. Again the staff member came he moved me in to other room. I don't have words to explain about this.,...I strongly recommend "NO" to this property</t>
   </si>
   <si>
+    <t>J S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r210187350-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1280,6 +1424,9 @@
     <t>I checked in on November 7th 2012 and aat the time of writing this June 13 2014 i'm still there. I get my room cleaned every monday, It's always great (Thanks Juanita).  The people there treat me like family. The breakfast is pretty unimaginative Instant oatmeal, muffins, coffee, tea, apple, orange and breakfast bars.  When I first got there they had bagels and cream cheese, which I miss.  However I can take the shuttle most any day to work. And there's lots of good dining nearby.  I've never had a problem with any staff member, occasionally I'll get ants or a palmetto bug in my room and the outside door slams horribly when it's windy, the fire alarms are really annoying when they go off, laundry is overpriced but convenient.  Ice machine is always on the fritz and the tiny gym is pretty lame.  I'd prefer if the pool were open more often but there's a bunch of regulations in richardson preventing it from being open after it rains. And pool season is only from memorial day to labor day, kinda lame when summer in texas lasts until november.  Oh well I'm not displeased generally.More</t>
   </si>
   <si>
+    <t>Candice G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r209005462-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1293,6 +1440,9 @@
   </si>
   <si>
     <t>The staff is not friendly and the hotel rooms are less than satisfactory. I was placed in a room that had been smoked in without the agent even confirming that is what I wanted.  The carpet was stained heavily and there is no business center. Again I say, don't just don't.</t>
+  </si>
+  <si>
+    <t>PantherCityGirl</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r208266851-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
@@ -1324,6 +1474,9 @@
 Now for my king room:  overpoweringly strong food smell that lasted all night (window was open when I arrived, as someone was trying to air out the room), smoke detector was disconnected, circuit breaker in bathroom tripped every time anything was plugged in, leaving the toilet area and sink area in complete darkness, carpet appeared dirty, and had gummy spots, sink appeared dirty, hairs on bathroom floor....Was provided with 2 double rooms here when staying in town for a high school event;  one for teenagers and one for me.  The bad:  Common area:  lobby was fine, but the first floor halls smell terrible; like cigarette smoke and fish, and the area near the exit door we used had a trash can that smelled of rotten garbage. Teen room, first floor double:  Smoke detectors were both disconnected and/or stuffed with paper towels.  Carpet appeared dirty with black gummy substance in spots.  .  The room had a musty odor.  Obvious grimy spots on walls.  Sink did not appear to be clean.  Went back to front desk, told by clerk that no other doubles were available, and had to argue with unenthusiastic desk clerk that it was not acceptable to put anyone in a room with non functioning smoke detectors.  I came up with the solution to give the  kids my room, which appeared better, and give me a room with a king bed.  There was no apology from the front desk. Now for my king room:  overpoweringly strong food smell that lasted all night (window was open when I arrived, as someone was trying to air out the room), smoke detector was disconnected, circuit breaker in bathroom tripped every time anything was plugged in, leaving the toilet area and sink area in complete darkness, carpet appeared dirty, and had gummy spots, sink appeared dirty, hairs on bathroom floor.  The white bathtub was grey on the bottom and appeared unclean, with much hair, drain area was dirty, bathtub walls did not appear clean;  I ended up using the shower in the kids' room.  Walls had what appeared to be old food on them in the kitchen area.  The sheets were stained under the pillows and had hair on them in the area under the pillows.  There was a small roach like bug in the kitchen after the bathroom light breaker was tripped, so I left a light on all night hoping more wouldn't show up.  Wallpaper was peeling in bathroom.    Fingerprints all over both doors.  I asked for another room and was told there were none available, again no apology.  The front desk person at check in:  unenthusiastic, unhelpful, never apologized or even pretended to be  concerned.  The only thing she did for me was to tell me where to go to get another towel when we were short one.  The good:  the mattress and pillows appeared in good shape, the a/c worked, there were towels, tp, new bar soap, and kleenex.  Fridge and microwave appeared clean.   It was relatively quiet in the hallways and I did not hear much...More</t>
   </si>
   <si>
+    <t>courtneymarie16578</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r205341916-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1337,6 +1490,9 @@
   </si>
   <si>
     <t xml:space="preserve">My fiance and I stayed here for 3 nights. Overall the experience was pleasant. The rooms were very accommodating and comfortable and the location is very convenient. I would definitely stay here again. Also, be sure to check online for a promo code. I got $50 off my stay. </t>
+  </si>
+  <si>
+    <t>JetGypsy_11</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r203667810-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
@@ -1366,6 +1522,9 @@
 When I opened the door to my fresh, "clean," room...I have stayed at some of the best in the world and some of the worst and this is a new low for me.From 600 thread count sheets over goose down feather beads to foam on concrete and fresh cut flowers to dusty and moldy plastic flowers I have had the privilege to experience it all but when I am trying to save a few bucks for my company I expect at least CLEAN and safe. This place isn't clean by a long shot. When I checked in, I was denied the Texas Instruments Cooperate I was entitled to as a TI Contractor and Vendor so I was getting a little upset when I checked in but found my travel  chi.  Then a guy that had checked in ahead of me came back and complained that his room was filthy and made the "friendly" guy at the count go with him to take a look.   I got to wait an extra ten minutes while Friendly Guy and the disgruntled customer went to look at the dirty room.  After they came back the disgruntled guy was assigned a double bed room for he and his wife because they had no more "clean" kings left.  After I got to watch that transaction for another five minutes, I got the key to my prepaid, non-refundable, king accommodation and was on my way.When I opened the door to my fresh, "clean," room the first thing that hit me was the smell of axel grease but since I had been on the road for 13 hours I figured it was something I brought in from my day's travel.  Well, much to my surprise, there where four large, greasy, black hand prints on the walls of the room which made the smell make more sense.  The room was furnished with an arm chair with a crusty white film of who knows what, that freaked me out and then I noticed some of the same residue on the carpet bellow the chair.  Someone spilled some kind of creamy white goo on the chair and floor that the housekeepers thought should be left in place along with the handprints, maybe to lend authenticity, for future guests to add to their experience. After watching how the previous customer was treated by Friendly Guy at the front desk was treated, I figured it was best to suck it up and deal with it.  Hell, I can take any thing for 4 nights!Much to my surprise, I was sharing the room with bed bugs.  I have read and seen on TV reports of the increase in bed bug infestations but having not had an issue in over 500 nights in hotels in the last 15 years.  This was a new treat in deed!!!  I would have taken pictures if I had not been so disgusted.   When I got home this evening, I took my...More</t>
   </si>
   <si>
+    <t>bablock</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r202648686-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1384,6 +1543,9 @@
     <t>After a 14 hour drive from Bloomington IL to this hotel, I was very exhausted.  I was traveling alone for job interviews and basketball games. The way I booked the room was in 2 different reservations because I added time to my stay. I get there, and the guy was giving me a bit of attitude about that. I was in no mood for that. So he gave me a room, I get in, theres stains all over the bedsheets... go back to the front, and ask for another room... he initially offered to just send for clean sheets... i then explained the 14+ hour drive. He had no problems giving me a new room, and was friendly after that. My new room was WONDERFUL! It was huge, mostly clean (old but decent) and the bed was comfy! The next day, the day staff,Ms Miriam was awesome! She gave me information on the downtown dallas train system, so I was able to enjoy a day in downtown. Next, Ms Amy was extra helpful giving me information about all the great places to go and all thethings to do!  and she was right about everything! Because of Ms Miriam and Ms Amy, I was able to see and do so much more than I could have imagined as they knew so much about the area! Im so glad after the first 25 minutes, my stay was great! I hated to leave...After a 14 hour drive from Bloomington IL to this hotel, I was very exhausted.  I was traveling alone for job interviews and basketball games. The way I booked the room was in 2 different reservations because I added time to my stay. I get there, and the guy was giving me a bit of attitude about that. I was in no mood for that. So he gave me a room, I get in, theres stains all over the bedsheets... go back to the front, and ask for another room... he initially offered to just send for clean sheets... i then explained the 14+ hour drive. He had no problems giving me a new room, and was friendly after that. My new room was WONDERFUL! It was huge, mostly clean (old but decent) and the bed was comfy! The next day, the day staff,Ms Miriam was awesome! She gave me information on the downtown dallas train system, so I was able to enjoy a day in downtown. Next, Ms Amy was extra helpful giving me information about all the great places to go and all thethings to do!  and she was right about everything! Because of Ms Miriam and Ms Amy, I was able to see and do so much more than I could have imagined as they knew so much about the area! Im so glad after the first 25 minutes, my stay was great! I hated to leave and complete the rest of my trip. I would happily stay here again. More</t>
   </si>
   <si>
+    <t>missladyjay9174</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r199772045-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1399,6 +1561,9 @@
     <t>Stayed at the extended stay Richardson on campbell because if the location. It is very convenient for me. Stayed 2nights, couldn't sleep kept feeling itchy and I felt a bump on my elbow, turned on the lights and find BED BUGS! YESSS SAY IT AIN'T SO! I was terrified truly, have bumps and itchy patches on my arm, side, knee, and leg. Don't stay here these creatures can travel and trust me you don't want to bring these disgusting creatures home with you. Im still freaking out..</t>
   </si>
   <si>
+    <t>Thom J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r197280152-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1426,6 +1591,9 @@
     <t>I needed 1 1/2 months of lodging while I was looking for an apartment after moving to Dallas. I wanted to balance quality and price. I did online research and settled on the Extended Stay chain. I chose to pay more for the Campbell Rd location though I could have stayed at other locations for less.  The reviews on the others appeared miserable.  When I arrived, the hotel's appearance was better than the photos.  The amenities were acceptable and comfortable. I often saw the cleaning staff and the common areas were always clean. There were a few nights where there were noise issues, but the staff took care of them when I called.  If I stayed only those nights, my review would not be positive. But since I stayed 1 1/2 months, I know those incidents are rare.  I saw some furniture/mattresses that were being discarded which leads me to conclude they update furniture when necessary.  I didn't feel rushed to find an apartment as I would have felt comfortable extending my stay.  If you plan on staying for more than 30 days, it's definitely worth the money!More</t>
   </si>
   <si>
+    <t>ChrisB12182013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r188133973-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1447,6 +1615,9 @@
     <t>I have stayed at Best Western a few times, La Quinta Inn a few times, Staybridge Suites 1 time and now here. This is by far the worst hotel I've ever seen. Bed was uncomfortable and felt like a huge piece of cardboard was under your body when you sat on it. There's no dishwasher or way to wash dishes by hand either, just a dish holder after rinsing them off after using them. Breakfast would be better if there was actually juice not just coffee and hot water. Needs more variety of foods for an on-the-go breakfast. When turning on the light switch for the bathroom and for the sink/mirror area just outside of the bathroom sometimes would automatically shut off both presenting an electrical issue. Also noticed the stove top light built into the microwave above it didn't work at all. Also noticed a rather large crack on the counter top directly next to the stove top, which would worry me about even using the stove at fear of a fire or something else going wrong. The 32" TV input didn't work very well at all, and would only keep saying "No Aux Input Available" each time you press input. Telephone in room didn't even have clear reception to the front desk, and front desk employees were rude when asked for help. Maid's didn't clean rooms in the mornings promptly, is almost 10 AM now and not even...I have stayed at Best Western a few times, La Quinta Inn a few times, Staybridge Suites 1 time and now here. This is by far the worst hotel I've ever seen. Bed was uncomfortable and felt like a huge piece of cardboard was under your body when you sat on it. There's no dishwasher or way to wash dishes by hand either, just a dish holder after rinsing them off after using them. Breakfast would be better if there was actually juice not just coffee and hot water. Needs more variety of foods for an on-the-go breakfast. When turning on the light switch for the bathroom and for the sink/mirror area just outside of the bathroom sometimes would automatically shut off both presenting an electrical issue. Also noticed the stove top light built into the microwave above it didn't work at all. Also noticed a rather large crack on the counter top directly next to the stove top, which would worry me about even using the stove at fear of a fire or something else going wrong. The 32" TV input didn't work very well at all, and would only keep saying "No Aux Input Available" each time you press input. Telephone in room didn't even have clear reception to the front desk, and front desk employees were rude when asked for help. Maid's didn't clean rooms in the mornings promptly, is almost 10 AM now and not even had it cleaned. Bathtub handle is broken to turn on the water. Towel holder for the sink outside of the bathroom was about to fall off the wall as it wasn't anchored properly. Very few dishes to use, only 2 utensils for forks, spoons, knives, 1 big spoon, 1 spatula, 1 cooking spoon, 2 bowls, 2 small plates, 2 large plates, 2 glasses, 2 pans. Going down the halls saw dirty carpet which didn't look like it had been cleaned in a while as well as dirty walls and old glue on wall corners showing poor keep up within the hotel itself. There is a toaster and coffee maker, but most about this hotel is not worth it.More</t>
   </si>
   <si>
+    <t>lizzzy03</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r185972815-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1501,6 +1672,9 @@
     <t>Last year I wrote a review, (Know what your getting). after my review was posted I got an e-mail from the manager, asking me to give them a second chance. I contacted Adam and was given a good rate for my OU/Texas weekend. Our room was real nice, King size bed, Plenty of Hot Water, Real good AC, with a nice TV w/remote. We did not cook in the room, but it was outfitted with everything needed to do so. I have read some of the negative reviews listed below, So I set out to find the issues listed. Another couple traveling with us was staying in another part of the property. all was well with them. From our room I could see a rain gutter damaged that would allow rain to fall on the patio of that room, that might cause water damage to the room below. Did not inspect that room. The only complaint about our room was the patio door was hard to slide. I'll take that every time as my only issue. Close to the DART rail system. Nice resturants in the area. the property was clean and well kept, The pool area looked really nice. Will stay there again next year. good luck, hoped this helped.More</t>
   </si>
   <si>
+    <t>Mark P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r156087772-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1528,6 +1702,9 @@
     <t>The housekeeping was poor; used soap was left in the shower and my bed had long black hair in it.  My hair is a half-inch of gray! The maintenance is sad with the hall door not locking, the glass door not sliding, and even the smoke detector disconnected.  When the room next door had a leak discovered at 9pm by the property staff, it flooded my room until I stopped the leak at 5am.  I lost a night of sleep and a day of work and the hotel manager didn't even comment.The staff signed for a package for me and never bothered to tell me it had arrived.  I found out more than 24 hours later when my wife told me that the hotel had signed for my medication.The 'free internet' runs at less that 80k.  Yes, 80K.  No large emails, no remote desktop or vpn access, not even Netflix.  This is nearly dial-up speed so I (and others from the wireless scan) have to use our cell-phone data share to work.More</t>
   </si>
   <si>
+    <t>MICHAEL P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r154370936-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1552,6 +1729,9 @@
     <t>The staff was pleasant but the room was uninhabitable.  One night after we had been there for about three weeks, it rained rather heavily and the next morning we noticed that the carpet in front of the patio door was wet.  Upon further inspection, we noticed substantial wood rot that created a hole in the subfloor and a lot of black mold.  We hadn't noticed the hole before because a large chair was positioned in front of the patio door.  We checked out that morning and notified the staff. Myself, my wife, and our two kids (5 and 2) all had cold symptoms while staying there and we originally thought we were passing around a cold.  But no, it was the black mold.  Staying here made is sick for three weeks.  These photos have been passed along to the state health department so I hope someone comes to inspect this place and shut it down. According to management, they are referring this to their risk management department but I still have not been contacted yet.  Don't waste your money on this place.  It has cost me both time and money as well as the health of my family.  I will be suing if risk management does not cough  up a reasonable solution.More</t>
   </si>
   <si>
+    <t>juan G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r151107192-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1579,6 +1759,9 @@
     <t>awesome weekend we had.we love the service with the manager and his staff, awesome people, the room was clean, dont forget the coffee n bagels to start your day. the price was good too. we know for sure we are coming back to stay here.More</t>
   </si>
   <si>
+    <t>Erika D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r151028586-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1603,6 +1786,9 @@
     <t>all the staff at this location are so prossional and friendly  the rooms very clean my favorite hotel me and my family got about 10 rooms for our family Reunion we love it so much our next reunion will be at this one locationMore</t>
   </si>
   <si>
+    <t>Ravindra K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r146800362-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1630,6 +1816,9 @@
     <t>This hotel looks traditional, not good service, they just have bagels, coffee and apples in breakfast. No Dinner, shuttle service is only three times in morning. Only weekly service. The staff is very rude and bad, they don't have good speaking sense, not supportive and friendly. They don't extend stay for people staying over a month or so and ask to vacate room with very short notice. Highly unsatisfied about staff's behavior.More</t>
   </si>
   <si>
+    <t>Marco A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r145195938-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1681,6 +1870,9 @@
     <t>OU/Texas weekend, Booked at an Homestead just off Coit Rd, recieved a call the hours before leaveing for Dallas, they had overbooked and was moving us to Richardson. The Richardson property was nice, rooms were (Ok to Good). Hot water, firm beds, AC worked good, TV with remote was good. The kitchen area was just OK, The overbooking caused my wife and I to have to sleep in seperate beds. Shoot, we just got married in May the Honeymoon is still on. The Price was VERY RIGHT and yes we are larger than average people, the regular size bed was perfect for one, not two!!!!!!!!   would I stay at the property again. YES, but we will be making sure I Know what Iam getting.More</t>
   </si>
   <si>
+    <t>GuyTraveler324</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r141634696-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1706,6 +1898,9 @@
   </si>
   <si>
     <t>I got this place on Priceline.  Free internet is a plus.  The free "breakfast"  is a few bagels, apples and oranges. Not great. It's nice to stay here on one hand because you are out of the crazy Dallas traffic.  It is set way off Campbell road, however.  I drove past it the first time because it's so far off the road.  Overall, it's okay especially if you get a discounted rate.More</t>
+  </si>
+  <si>
+    <t>nprescot</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r140393267-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
@@ -1765,6 +1960,9 @@
     <t>We needed a place to stay on the spur of the moment. Our air had gone out at home and we needed a place close to home.  It was nice and clean, and very reasonable!More</t>
   </si>
   <si>
+    <t>Ashleykayyy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r132061092-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1783,6 +1981,9 @@
     <t>I was hesitant at first because I selected a 2-3 star hotel and i got it at a GREAT rate! But when I arrived I was pleasantly suprised to find that it was actually very spacious and nice. Had everything you could possibly need right there with you or in a very convenient trip up the road. I will defitinly be visiting this location again.More</t>
   </si>
   <si>
+    <t>Chase P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r131074502-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1804,6 +2005,9 @@
     <t>I booked this hotel on Priceline for a very cheap price, and the check-in/out were very painless.  The rooms were decent enough (clean, no frills), which was to be expected.  Don't expect a five-star hotel, but for a low-price, one night stay, it was perfect.More</t>
   </si>
   <si>
+    <t>Maria P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r124433321-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1828,6 +2032,9 @@
     <t>this is the worse Hotel ever, the people that works in the front desk are very rude and unhelpful, with exception of a Hispanic lady, the rest of them are very unprofessional, is like walking into a bad neighborhood, the rooms are old but OK, carpet is old, the mini kitchen is clean and good, but, really the services is very,very, very bad.More</t>
   </si>
   <si>
+    <t>nixforfun</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r121781942-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1846,6 +2053,9 @@
     <t>April 2011</t>
   </si>
   <si>
+    <t>ainge1983</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r120909429-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1861,6 +2071,9 @@
     <t xml:space="preserve">Decent suite with mini kitchen, stove and pots and pans. Not real fancy but great price. Decent neighborhood, close to garland ISD special events center. </t>
   </si>
   <si>
+    <t>cameroneit</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r113071311-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1882,6 +2095,9 @@
     <t>I was supposed to stay her for 21 nights for work.  I made it through 6 before I couldn't take it anymore.  On day 2 I found 2 bugs, day 3 one giant 1.5" long bug, and day 5 I found 3 more dead bugs.  This place is just gross.  I took off my shoes and walked through the place...the carpet is disgusting.  It is in dire need of a steam clean at a minimum.  The kitchenette is a joke, located in a walkway between the bathroom and the bed room areas.   When  I asked the front desk to spray my room for bugs, they didn't seem surprised at all.  Then when I asked them to not spray my clothes in the dresser they seemed to think that was a big request.  I told them not to bother spraying since I was leaving anyway.  Again, they didn't seem surprised.  The bed also was very very hard and you could feel the springs.  As I was packing up my car, another person was leaving early too due to the smell and cleanliness.I would never stay here again.  The only positive was the pool.  There are plenty of other places to stay and the extra money you pay for the other places is so worth it.More</t>
   </si>
   <si>
+    <t>theresajrs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r107133301-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1900,6 +2116,9 @@
     <t>March 2011</t>
   </si>
   <si>
+    <t>s3consulting</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r80836408-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1915,6 +2134,9 @@
     <t>September 2010</t>
   </si>
   <si>
+    <t>SeaWorld-Visitor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r50386601-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1933,6 +2155,9 @@
     <t>November 2009</t>
   </si>
   <si>
+    <t>empireofdirt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r26419242-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1952,6 +2177,9 @@
   </si>
   <si>
     <t>The people who interact with guests here are cheerful and helpful -- first rate.  They are the only good thing about this hotel.First -- the door to the outside that was nearest my room would only open with a double-push (push, then wait, then push again) to disengage the electronic lock.  In a fire people would die trying to get out a door like this.  It's illegal and dangerous.Second -- the truck next to mine was broken into (smashed window) the night I was there.  Thank goodness it wasn't mine -- but it could have been.Third -- room was filthy.  Animal crackers under the bed and ground into the rug, speckles of some grease on every horizontal surface, shower head growing algae, etc.  Lightbulbs out that hadn't been replaced.  Just poor upkeep.  And you wouldn't guess it from the reception area of the hotel, which is recently renovated and upscale.Fourth -- I usually love these places because of the kitchenette.  You know, a great place to mix up some mac n' cheese, right?  Well, the people next door to me decided to make fried chicken for dinner!  Ugh, the smell!  The whole wing of the hotel smelled like grease and fried chicken (which I don't happen to like...  ) still the next morning.More</t>
+  </si>
+  <si>
+    <t>LISA C</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r14224174-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
@@ -2477,43 +2705,47 @@
       <c r="A2" t="n">
         <v>33342</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>1363</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -2535,56 +2767,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>33342</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2596,56 +2832,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>33342</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>136166</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -2667,56 +2907,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>33342</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>136167</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -2738,56 +2982,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>33342</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>136168</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
@@ -2809,56 +3057,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="X6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="Y6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>33342</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>136169</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7" t="s">
+        <v>104</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>95</v>
       </c>
-      <c r="J7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L7" t="s">
-        <v>98</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>90</v>
-      </c>
       <c r="O7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -2880,41 +3132,45 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="X7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="Y7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>33342</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>136170</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -2930,51 +3186,52 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
-      <c r="Y8" t="s"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>33342</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>136171</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="L9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -2992,56 +3249,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="X9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="Y9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>33342</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>136172</v>
+      </c>
+      <c r="C10" t="s">
+        <v>123</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="L10" t="s">
+        <v>128</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
         <v>119</v>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
-        <v>111</v>
-      </c>
       <c r="O10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -3063,56 +3324,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="X10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="Y10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>33342</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>10198</v>
+      </c>
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="J11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="K11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="L11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -3134,56 +3399,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="X11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="Y11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>33342</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>136173</v>
+      </c>
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="J12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="L12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3195,56 +3464,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>33342</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>12996</v>
+      </c>
+      <c r="C13" t="s">
+        <v>147</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="J13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="L13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="O13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3262,56 +3535,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="X13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="Y13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>33342</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>136174</v>
+      </c>
+      <c r="C14" t="s">
+        <v>157</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="J14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="K14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3323,56 +3600,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="X14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="Y14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>33342</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>119689</v>
+      </c>
+      <c r="C15" t="s">
+        <v>167</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="J15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="K15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="O15" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3384,56 +3665,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="X15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="Y15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>33342</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>136175</v>
+      </c>
+      <c r="C16" t="s">
+        <v>176</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="J16" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="K16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -3455,56 +3740,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="X16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="Y16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>33342</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>136176</v>
+      </c>
+      <c r="C17" t="s">
+        <v>185</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
+        <v>186</v>
+      </c>
+      <c r="G17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" t="s">
+        <v>187</v>
+      </c>
+      <c r="J17" t="s">
         <v>170</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
-        <v>171</v>
-      </c>
-      <c r="J17" t="s">
-        <v>156</v>
-      </c>
       <c r="K17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="O17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -3526,56 +3815,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="X17" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="Y17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>33342</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>136177</v>
+      </c>
+      <c r="C18" t="s">
+        <v>191</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="J18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="K18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="O18" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -3597,56 +3890,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="X18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="Y18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>33342</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>136178</v>
+      </c>
+      <c r="C19" t="s">
+        <v>200</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="J19" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="K19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="O19" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3658,56 +3955,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="X19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="Y19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>33342</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>136179</v>
+      </c>
+      <c r="C20" t="s">
+        <v>209</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="J20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="K20" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="L20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="O20" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -3725,56 +4026,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="X20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="Y20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>33342</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>136180</v>
+      </c>
+      <c r="C21" t="s">
+        <v>218</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="J21" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="K21" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="L21" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -3796,56 +4101,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="X21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="Y21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>33342</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>136181</v>
+      </c>
+      <c r="C22" t="s">
+        <v>226</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="J22" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="K22" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="L22" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="O22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P22" t="n">
         <v>2</v>
@@ -3867,56 +4176,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="X22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="Y22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>33342</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>136182</v>
+      </c>
+      <c r="C23" t="s">
+        <v>236</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="J23" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="K23" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="L23" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="O23" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P23" t="n">
         <v>4</v>
@@ -3938,56 +4251,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="X23" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="Y23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>33342</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>136183</v>
+      </c>
+      <c r="C24" t="s">
+        <v>245</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="J24" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="K24" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="L24" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="n">
         <v>1</v>
@@ -4009,56 +4326,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="X24" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="Y24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>33342</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>136184</v>
+      </c>
+      <c r="C25" t="s">
+        <v>254</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
+        <v>256</v>
+      </c>
+      <c r="J25" t="s">
+        <v>257</v>
+      </c>
+      <c r="K25" t="s">
+        <v>258</v>
+      </c>
+      <c r="L25" t="s">
+        <v>259</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
         <v>232</v>
       </c>
-      <c r="J25" t="s">
-        <v>233</v>
-      </c>
-      <c r="K25" t="s">
-        <v>234</v>
-      </c>
-      <c r="L25" t="s">
-        <v>235</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="s">
-        <v>211</v>
-      </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -4074,56 +4395,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="X25" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="Y25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>33342</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>136185</v>
+      </c>
+      <c r="C26" t="s">
+        <v>263</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="J26" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="K26" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="L26" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="O26" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P26" t="n">
         <v>3</v>
@@ -4145,38 +4470,42 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="X26" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="Y26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>33342</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>136186</v>
+      </c>
+      <c r="C27" t="s">
+        <v>272</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="J27" t="s"/>
       <c r="K27" t="s"/>
@@ -4193,51 +4522,52 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
-      <c r="Y27" t="s"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>33342</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>136187</v>
+      </c>
+      <c r="C28" t="s">
+        <v>275</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="J28" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="K28" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="L28" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="O28" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P28" t="n">
         <v>3</v>
@@ -4259,56 +4589,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="X28" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="Y28" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>33342</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>38660</v>
+      </c>
+      <c r="C29" t="s">
+        <v>284</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="J29" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="K29" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="L29" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4320,56 +4654,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="X29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="Y29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>33342</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>136188</v>
+      </c>
+      <c r="C30" t="s">
+        <v>294</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="J30" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="K30" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="L30" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="O30" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4383,50 +4721,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>33342</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>16687</v>
+      </c>
+      <c r="C31" t="s">
+        <v>301</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="J31" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="K31" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="L31" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4444,50 +4786,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>33342</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>13561</v>
+      </c>
+      <c r="C32" t="s">
+        <v>308</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="J32" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="K32" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="L32" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="O32" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -4505,56 +4851,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="X32" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="Y32" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>33342</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>136189</v>
+      </c>
+      <c r="C33" t="s">
+        <v>317</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="J33" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="K33" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="L33" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="M33" t="n">
         <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4566,56 +4916,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="X33" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="Y33" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>33342</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>136190</v>
+      </c>
+      <c r="C34" t="s">
+        <v>327</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="J34" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="K34" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="L34" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="O34" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -4633,56 +4987,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="X34" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="Y34" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>33342</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>136191</v>
+      </c>
+      <c r="C35" t="s">
+        <v>337</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="J35" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="K35" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="L35" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="O35" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4694,56 +5052,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="X35" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="Y35" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>33342</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>136192</v>
+      </c>
+      <c r="C36" t="s">
+        <v>347</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="J36" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="K36" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="L36" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="O36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4759,56 +5121,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="X36" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="Y36" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>33342</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>63564</v>
+      </c>
+      <c r="C37" t="s">
+        <v>357</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="J37" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="K37" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="L37" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="O37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P37" t="n">
         <v>1</v>
@@ -4828,50 +5194,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>33342</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>136193</v>
+      </c>
+      <c r="C38" t="s">
+        <v>364</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="J38" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="K38" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="L38" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="M38" t="n">
         <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="O38" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4883,56 +5253,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="X38" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="Y38" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>33342</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>136194</v>
+      </c>
+      <c r="C39" t="s">
+        <v>374</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="J39" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="K39" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="L39" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="M39" t="n">
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="O39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4950,56 +5324,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="X39" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="Y39" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>33342</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>136195</v>
+      </c>
+      <c r="C40" t="s">
+        <v>384</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="J40" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="K40" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="L40" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="O40" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
@@ -5015,56 +5393,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="X40" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="Y40" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>33342</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>49097</v>
+      </c>
+      <c r="C41" t="s">
+        <v>394</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="J41" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="K41" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="L41" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="O41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5076,56 +5458,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="X41" t="s">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="Y41" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>33342</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>2435</v>
+      </c>
+      <c r="C42" t="s">
+        <v>404</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
       <c r="J42" t="s">
-        <v>366</v>
+        <v>407</v>
       </c>
       <c r="K42" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="L42" t="s">
-        <v>368</v>
+        <v>409</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5141,56 +5527,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
       <c r="X42" t="s">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="Y42" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>33342</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>136196</v>
+      </c>
+      <c r="C43" t="s">
+        <v>414</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="J43" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="K43" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="L43" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="M43" t="n">
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="O43" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="n">
@@ -5206,56 +5596,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="X43" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="Y43" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>33342</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>7173</v>
+      </c>
+      <c r="C44" t="s">
+        <v>424</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="J44" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="K44" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="L44" t="s">
-        <v>386</v>
+        <v>429</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>387</v>
+        <v>430</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -5275,50 +5669,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>388</v>
+        <v>431</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>33342</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>136197</v>
+      </c>
+      <c r="C45" t="s">
+        <v>432</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="J45" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="K45" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="L45" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>393</v>
+        <v>437</v>
       </c>
       <c r="O45" t="s">
-        <v>394</v>
+        <v>438</v>
       </c>
       <c r="P45" t="n">
         <v>3</v>
@@ -5336,50 +5734,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>33342</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>136198</v>
+      </c>
+      <c r="C46" t="s">
+        <v>440</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
       <c r="J46" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
       <c r="K46" t="s">
-        <v>399</v>
+        <v>444</v>
       </c>
       <c r="L46" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="M46" t="n">
         <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>401</v>
+        <v>446</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="n">
@@ -5399,50 +5801,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>402</v>
+        <v>447</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>33342</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>136199</v>
+      </c>
+      <c r="C47" t="s">
+        <v>448</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>403</v>
+        <v>449</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>404</v>
+        <v>450</v>
       </c>
       <c r="J47" t="s">
-        <v>405</v>
+        <v>451</v>
       </c>
       <c r="K47" t="s">
-        <v>406</v>
+        <v>452</v>
       </c>
       <c r="L47" t="s">
-        <v>407</v>
+        <v>453</v>
       </c>
       <c r="M47" t="n">
         <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>408</v>
+        <v>454</v>
       </c>
       <c r="O47" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5460,50 +5866,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>407</v>
+        <v>453</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>33342</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>136200</v>
+      </c>
+      <c r="C48" t="s">
+        <v>455</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>410</v>
+        <v>457</v>
       </c>
       <c r="J48" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
       <c r="K48" t="s">
-        <v>412</v>
+        <v>459</v>
       </c>
       <c r="L48" t="s">
-        <v>413</v>
+        <v>460</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>408</v>
+        <v>454</v>
       </c>
       <c r="O48" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5523,50 +5933,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>413</v>
+        <v>460</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>33342</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>1380</v>
+      </c>
+      <c r="C49" t="s">
+        <v>461</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>414</v>
+        <v>462</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>415</v>
+        <v>463</v>
       </c>
       <c r="J49" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="K49" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
       <c r="L49" t="s">
-        <v>418</v>
+        <v>466</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>387</v>
+        <v>430</v>
       </c>
       <c r="O49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P49" t="n">
         <v>3</v>
@@ -5590,50 +6004,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>419</v>
+        <v>467</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>33342</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>136201</v>
+      </c>
+      <c r="C50" t="s">
+        <v>468</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
       <c r="J50" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="K50" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
       <c r="L50" t="s">
-        <v>424</v>
+        <v>473</v>
       </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>387</v>
+        <v>430</v>
       </c>
       <c r="O50" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P50" t="n">
         <v>1</v>
@@ -5657,50 +6075,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>424</v>
+        <v>473</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>33342</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>136202</v>
+      </c>
+      <c r="C51" t="s">
+        <v>474</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="J51" t="s">
-        <v>427</v>
+        <v>477</v>
       </c>
       <c r="K51" t="s">
-        <v>428</v>
+        <v>478</v>
       </c>
       <c r="L51" t="s">
-        <v>429</v>
+        <v>479</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>430</v>
+        <v>480</v>
       </c>
       <c r="O51" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P51" t="n">
         <v>1</v>
@@ -5718,41 +6140,45 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>431</v>
+        <v>481</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>33342</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>136203</v>
+      </c>
+      <c r="C52" t="s">
+        <v>482</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>432</v>
+        <v>483</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>433</v>
+        <v>484</v>
       </c>
       <c r="J52" t="s">
-        <v>434</v>
+        <v>485</v>
       </c>
       <c r="K52" t="s">
-        <v>435</v>
+        <v>486</v>
       </c>
       <c r="L52" t="s">
-        <v>436</v>
+        <v>487</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
@@ -5781,50 +6207,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>436</v>
+        <v>487</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>33342</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>136204</v>
+      </c>
+      <c r="C53" t="s">
+        <v>488</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>437</v>
+        <v>489</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="J53" t="s">
-        <v>439</v>
+        <v>491</v>
       </c>
       <c r="K53" t="s">
-        <v>440</v>
+        <v>492</v>
       </c>
       <c r="L53" t="s">
-        <v>441</v>
+        <v>493</v>
       </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>442</v>
+        <v>494</v>
       </c>
       <c r="O53" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -5846,41 +6276,45 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>443</v>
+        <v>495</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>33342</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>136205</v>
+      </c>
+      <c r="C54" t="s">
+        <v>496</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>444</v>
+        <v>497</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>445</v>
+        <v>498</v>
       </c>
       <c r="J54" t="s">
-        <v>446</v>
+        <v>499</v>
       </c>
       <c r="K54" t="s">
-        <v>447</v>
+        <v>500</v>
       </c>
       <c r="L54" t="s">
-        <v>448</v>
+        <v>501</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
@@ -5909,41 +6343,45 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>449</v>
+        <v>502</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>33342</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>136206</v>
+      </c>
+      <c r="C55" t="s">
+        <v>503</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>451</v>
+        <v>505</v>
       </c>
       <c r="J55" t="s">
-        <v>452</v>
+        <v>506</v>
       </c>
       <c r="K55" t="s">
-        <v>453</v>
+        <v>507</v>
       </c>
       <c r="L55" t="s">
-        <v>454</v>
+        <v>508</v>
       </c>
       <c r="M55" t="n">
         <v>1</v>
@@ -5972,50 +6410,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>454</v>
+        <v>508</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>33342</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>136207</v>
+      </c>
+      <c r="C56" t="s">
+        <v>509</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>456</v>
+        <v>511</v>
       </c>
       <c r="J56" t="s">
-        <v>457</v>
+        <v>512</v>
       </c>
       <c r="K56" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="L56" t="s">
-        <v>459</v>
+        <v>514</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>460</v>
+        <v>515</v>
       </c>
       <c r="O56" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -6037,56 +6479,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>461</v>
+        <v>516</v>
       </c>
       <c r="X56" t="s">
-        <v>462</v>
+        <v>517</v>
       </c>
       <c r="Y56" t="s">
-        <v>463</v>
+        <v>518</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>33342</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>136208</v>
+      </c>
+      <c r="C57" t="s">
+        <v>519</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>464</v>
+        <v>520</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>465</v>
+        <v>521</v>
       </c>
       <c r="J57" t="s">
-        <v>466</v>
+        <v>522</v>
       </c>
       <c r="K57" t="s">
-        <v>467</v>
+        <v>523</v>
       </c>
       <c r="L57" t="s">
-        <v>468</v>
+        <v>524</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>469</v>
+        <v>525</v>
       </c>
       <c r="O57" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P57" t="n">
         <v>1</v>
@@ -6110,50 +6556,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>470</v>
+        <v>526</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>33342</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>136209</v>
+      </c>
+      <c r="C58" t="s">
+        <v>527</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>471</v>
+        <v>528</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
       <c r="J58" t="s">
-        <v>473</v>
+        <v>530</v>
       </c>
       <c r="K58" t="s">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="L58" t="s">
-        <v>475</v>
+        <v>532</v>
       </c>
       <c r="M58" t="n">
         <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>476</v>
+        <v>533</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>3</v>
@@ -6175,56 +6625,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>477</v>
+        <v>534</v>
       </c>
       <c r="X58" t="s">
-        <v>478</v>
+        <v>535</v>
       </c>
       <c r="Y58" t="s">
-        <v>479</v>
+        <v>536</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>33342</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>136196</v>
+      </c>
+      <c r="C59" t="s">
+        <v>432</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>480</v>
+        <v>537</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>481</v>
+        <v>538</v>
       </c>
       <c r="J59" t="s">
-        <v>482</v>
+        <v>539</v>
       </c>
       <c r="K59" t="s">
-        <v>483</v>
+        <v>540</v>
       </c>
       <c r="L59" t="s">
-        <v>484</v>
+        <v>541</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>485</v>
+        <v>542</v>
       </c>
       <c r="O59" t="s">
-        <v>394</v>
+        <v>438</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6246,56 +6700,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>486</v>
+        <v>543</v>
       </c>
       <c r="X59" t="s">
-        <v>487</v>
+        <v>544</v>
       </c>
       <c r="Y59" t="s">
-        <v>488</v>
+        <v>545</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>33342</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>3848</v>
+      </c>
+      <c r="C60" t="s">
+        <v>546</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>489</v>
+        <v>547</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>490</v>
+        <v>548</v>
       </c>
       <c r="J60" t="s">
-        <v>491</v>
+        <v>549</v>
       </c>
       <c r="K60" t="s">
-        <v>492</v>
+        <v>550</v>
       </c>
       <c r="L60" t="s">
-        <v>493</v>
+        <v>551</v>
       </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>494</v>
+        <v>552</v>
       </c>
       <c r="O60" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P60" t="n">
         <v>1</v>
@@ -6317,56 +6775,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>495</v>
+        <v>553</v>
       </c>
       <c r="X60" t="s">
-        <v>496</v>
+        <v>554</v>
       </c>
       <c r="Y60" t="s">
-        <v>497</v>
+        <v>555</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>33342</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>136210</v>
+      </c>
+      <c r="C61" t="s">
+        <v>556</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>498</v>
+        <v>557</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>499</v>
+        <v>558</v>
       </c>
       <c r="J61" t="s">
-        <v>500</v>
+        <v>559</v>
       </c>
       <c r="K61" t="s">
-        <v>501</v>
+        <v>560</v>
       </c>
       <c r="L61" t="s">
-        <v>502</v>
+        <v>561</v>
       </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>494</v>
+        <v>552</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>1</v>
@@ -6388,56 +6850,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>503</v>
+        <v>562</v>
       </c>
       <c r="X61" t="s">
-        <v>504</v>
+        <v>563</v>
       </c>
       <c r="Y61" t="s">
-        <v>505</v>
+        <v>564</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>33342</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>136211</v>
+      </c>
+      <c r="C62" t="s">
+        <v>565</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>506</v>
+        <v>566</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>507</v>
+        <v>567</v>
       </c>
       <c r="J62" t="s">
-        <v>508</v>
+        <v>568</v>
       </c>
       <c r="K62" t="s">
-        <v>509</v>
+        <v>569</v>
       </c>
       <c r="L62" t="s">
-        <v>510</v>
+        <v>570</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>511</v>
+        <v>571</v>
       </c>
       <c r="O62" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6459,56 +6925,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>512</v>
+        <v>572</v>
       </c>
       <c r="X62" t="s">
-        <v>513</v>
+        <v>573</v>
       </c>
       <c r="Y62" t="s">
-        <v>514</v>
+        <v>574</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>33342</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>23734</v>
+      </c>
+      <c r="C63" t="s">
+        <v>575</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>515</v>
+        <v>576</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>516</v>
+        <v>577</v>
       </c>
       <c r="J63" t="s">
-        <v>517</v>
+        <v>578</v>
       </c>
       <c r="K63" t="s">
-        <v>518</v>
+        <v>579</v>
       </c>
       <c r="L63" t="s">
-        <v>519</v>
+        <v>580</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>511</v>
+        <v>571</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6530,56 +7000,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>520</v>
+        <v>581</v>
       </c>
       <c r="X63" t="s">
-        <v>521</v>
+        <v>582</v>
       </c>
       <c r="Y63" t="s">
-        <v>522</v>
+        <v>583</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>33342</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>136212</v>
+      </c>
+      <c r="C64" t="s">
+        <v>584</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>523</v>
+        <v>585</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>524</v>
+        <v>586</v>
       </c>
       <c r="J64" t="s">
-        <v>525</v>
+        <v>587</v>
       </c>
       <c r="K64" t="s">
-        <v>526</v>
+        <v>588</v>
       </c>
       <c r="L64" t="s">
-        <v>527</v>
+        <v>589</v>
       </c>
       <c r="M64" t="n">
         <v>2</v>
       </c>
       <c r="N64" t="s">
-        <v>528</v>
+        <v>590</v>
       </c>
       <c r="O64" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P64" t="n">
         <v>2</v>
@@ -6601,47 +7075,51 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>529</v>
+        <v>591</v>
       </c>
       <c r="X64" t="s">
-        <v>530</v>
+        <v>592</v>
       </c>
       <c r="Y64" t="s">
-        <v>531</v>
+        <v>593</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>33342</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>136213</v>
+      </c>
+      <c r="C65" t="s">
+        <v>594</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>532</v>
+        <v>595</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>533</v>
+        <v>596</v>
       </c>
       <c r="J65" t="s">
-        <v>534</v>
+        <v>597</v>
       </c>
       <c r="K65" t="s">
-        <v>535</v>
+        <v>598</v>
       </c>
       <c r="L65" t="s">
-        <v>536</v>
+        <v>599</v>
       </c>
       <c r="M65" t="n">
         <v>1</v>
@@ -6668,56 +7146,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>537</v>
+        <v>600</v>
       </c>
       <c r="X65" t="s">
-        <v>538</v>
+        <v>601</v>
       </c>
       <c r="Y65" t="s">
-        <v>539</v>
+        <v>602</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>33342</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>136196</v>
+      </c>
+      <c r="C66" t="s">
+        <v>432</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>540</v>
+        <v>603</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>541</v>
+        <v>604</v>
       </c>
       <c r="J66" t="s">
-        <v>542</v>
+        <v>605</v>
       </c>
       <c r="K66" t="s">
-        <v>543</v>
+        <v>606</v>
       </c>
       <c r="L66" t="s">
-        <v>544</v>
+        <v>607</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>545</v>
+        <v>608</v>
       </c>
       <c r="O66" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6739,56 +7221,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>546</v>
+        <v>609</v>
       </c>
       <c r="X66" t="s">
-        <v>547</v>
+        <v>610</v>
       </c>
       <c r="Y66" t="s">
-        <v>548</v>
+        <v>611</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>33342</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>136214</v>
+      </c>
+      <c r="C67" t="s">
+        <v>612</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>549</v>
+        <v>613</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>550</v>
+        <v>614</v>
       </c>
       <c r="J67" t="s">
-        <v>551</v>
+        <v>615</v>
       </c>
       <c r="K67" t="s">
-        <v>552</v>
+        <v>616</v>
       </c>
       <c r="L67" t="s">
-        <v>553</v>
+        <v>617</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>554</v>
+        <v>618</v>
       </c>
       <c r="O67" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P67" t="n">
         <v>3</v>
@@ -6810,56 +7296,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>555</v>
+        <v>619</v>
       </c>
       <c r="X67" t="s">
-        <v>556</v>
+        <v>620</v>
       </c>
       <c r="Y67" t="s">
-        <v>557</v>
+        <v>621</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>33342</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>136215</v>
+      </c>
+      <c r="C68" t="s">
+        <v>622</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>558</v>
+        <v>623</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>559</v>
+        <v>624</v>
       </c>
       <c r="J68" t="s">
-        <v>560</v>
+        <v>625</v>
       </c>
       <c r="K68" t="s">
-        <v>561</v>
+        <v>626</v>
       </c>
       <c r="L68" t="s">
-        <v>562</v>
+        <v>627</v>
       </c>
       <c r="M68" t="n">
         <v>3</v>
       </c>
       <c r="N68" t="s">
-        <v>554</v>
+        <v>618</v>
       </c>
       <c r="O68" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P68" t="n">
         <v>4</v>
@@ -6881,56 +7371,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>563</v>
+        <v>628</v>
       </c>
       <c r="X68" t="s">
-        <v>564</v>
+        <v>629</v>
       </c>
       <c r="Y68" t="s">
-        <v>565</v>
+        <v>630</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>33342</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>58</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>566</v>
+        <v>631</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>567</v>
+        <v>632</v>
       </c>
       <c r="J69" t="s">
-        <v>568</v>
+        <v>633</v>
       </c>
       <c r="K69" t="s">
-        <v>569</v>
+        <v>634</v>
       </c>
       <c r="L69" t="s">
-        <v>570</v>
+        <v>635</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>571</v>
+        <v>636</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6952,47 +7446,51 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>572</v>
+        <v>637</v>
       </c>
       <c r="X69" t="s">
-        <v>573</v>
+        <v>638</v>
       </c>
       <c r="Y69" t="s">
-        <v>574</v>
+        <v>639</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>33342</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>136216</v>
+      </c>
+      <c r="C70" t="s">
+        <v>640</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>575</v>
+        <v>641</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>576</v>
+        <v>642</v>
       </c>
       <c r="J70" t="s">
-        <v>577</v>
+        <v>643</v>
       </c>
       <c r="K70" t="s">
-        <v>578</v>
+        <v>644</v>
       </c>
       <c r="L70" t="s">
-        <v>579</v>
+        <v>645</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
@@ -7019,56 +7517,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>572</v>
+        <v>637</v>
       </c>
       <c r="X70" t="s">
-        <v>573</v>
+        <v>638</v>
       </c>
       <c r="Y70" t="s">
-        <v>580</v>
+        <v>646</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>33342</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>48336</v>
+      </c>
+      <c r="C71" t="s">
+        <v>647</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>581</v>
+        <v>648</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>582</v>
+        <v>649</v>
       </c>
       <c r="J71" t="s">
-        <v>583</v>
+        <v>650</v>
       </c>
       <c r="K71" t="s">
-        <v>584</v>
+        <v>651</v>
       </c>
       <c r="L71" t="s">
-        <v>585</v>
+        <v>652</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>586</v>
+        <v>653</v>
       </c>
       <c r="O71" t="s">
-        <v>394</v>
+        <v>438</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7090,56 +7592,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>572</v>
+        <v>637</v>
       </c>
       <c r="X71" t="s">
-        <v>573</v>
+        <v>638</v>
       </c>
       <c r="Y71" t="s">
-        <v>587</v>
+        <v>654</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>33342</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>18816</v>
+      </c>
+      <c r="C72" t="s">
+        <v>655</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>588</v>
+        <v>656</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>589</v>
+        <v>657</v>
       </c>
       <c r="J72" t="s">
+        <v>658</v>
+      </c>
+      <c r="K72" t="s">
+        <v>659</v>
+      </c>
+      <c r="L72" t="s">
+        <v>660</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s">
         <v>590</v>
       </c>
-      <c r="K72" t="s">
-        <v>591</v>
-      </c>
-      <c r="L72" t="s">
-        <v>592</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="s">
-        <v>528</v>
-      </c>
       <c r="O72" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P72" t="n">
         <v>2</v>
@@ -7161,56 +7667,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>593</v>
+        <v>661</v>
       </c>
       <c r="X72" t="s">
-        <v>594</v>
+        <v>662</v>
       </c>
       <c r="Y72" t="s">
-        <v>595</v>
+        <v>663</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>33342</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>136217</v>
+      </c>
+      <c r="C73" t="s">
+        <v>664</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>596</v>
+        <v>665</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>597</v>
+        <v>666</v>
       </c>
       <c r="J73" t="s">
-        <v>598</v>
+        <v>667</v>
       </c>
       <c r="K73" t="s">
-        <v>599</v>
+        <v>668</v>
       </c>
       <c r="L73" t="s">
-        <v>600</v>
+        <v>669</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>601</v>
+        <v>670</v>
       </c>
       <c r="O73" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7234,41 +7744,45 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>600</v>
+        <v>669</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>33342</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>136218</v>
+      </c>
+      <c r="C74" t="s">
+        <v>671</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>602</v>
+        <v>672</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>603</v>
+        <v>673</v>
       </c>
       <c r="J74" t="s">
-        <v>604</v>
+        <v>674</v>
       </c>
       <c r="K74" t="s">
-        <v>605</v>
+        <v>675</v>
       </c>
       <c r="L74" t="s">
-        <v>606</v>
+        <v>676</v>
       </c>
       <c r="M74" t="n">
         <v>3</v>
@@ -7297,50 +7811,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>606</v>
+        <v>676</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>33342</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>136219</v>
+      </c>
+      <c r="C75" t="s">
+        <v>677</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>607</v>
+        <v>678</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>608</v>
+        <v>679</v>
       </c>
       <c r="J75" t="s">
-        <v>609</v>
+        <v>680</v>
       </c>
       <c r="K75" t="s">
-        <v>610</v>
+        <v>681</v>
       </c>
       <c r="L75" t="s">
-        <v>611</v>
+        <v>682</v>
       </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
       <c r="N75" t="s">
-        <v>612</v>
+        <v>683</v>
       </c>
       <c r="O75" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P75" t="n">
         <v>1</v>
@@ -7360,50 +7878,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>613</v>
+        <v>684</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>33342</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>136220</v>
+      </c>
+      <c r="C76" t="s">
+        <v>685</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>614</v>
+        <v>686</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>615</v>
+        <v>687</v>
       </c>
       <c r="J76" t="s">
-        <v>616</v>
+        <v>688</v>
       </c>
       <c r="K76" t="s">
-        <v>617</v>
+        <v>689</v>
       </c>
       <c r="L76" t="s">
-        <v>618</v>
+        <v>690</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>619</v>
+        <v>691</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7427,50 +7949,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>618</v>
+        <v>690</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>33342</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>136221</v>
+      </c>
+      <c r="C77" t="s">
+        <v>692</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>620</v>
+        <v>693</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>621</v>
+        <v>694</v>
       </c>
       <c r="J77" t="s">
-        <v>622</v>
+        <v>695</v>
       </c>
       <c r="K77" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="L77" t="s">
-        <v>623</v>
+        <v>696</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>624</v>
+        <v>697</v>
       </c>
       <c r="O77" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7494,50 +8020,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>623</v>
+        <v>696</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>33342</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>136222</v>
+      </c>
+      <c r="C78" t="s">
+        <v>698</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>625</v>
+        <v>699</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>626</v>
+        <v>700</v>
       </c>
       <c r="J78" t="s">
-        <v>627</v>
+        <v>701</v>
       </c>
       <c r="K78" t="s">
-        <v>628</v>
+        <v>702</v>
       </c>
       <c r="L78" t="s">
-        <v>629</v>
+        <v>703</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>630</v>
+        <v>704</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="s"/>
       <c r="Q78" t="s"/>
@@ -7551,50 +8081,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>629</v>
+        <v>703</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>33342</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>136223</v>
+      </c>
+      <c r="C79" t="s">
+        <v>705</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>631</v>
+        <v>706</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>632</v>
+        <v>707</v>
       </c>
       <c r="J79" t="s">
-        <v>633</v>
+        <v>708</v>
       </c>
       <c r="K79" t="s">
-        <v>634</v>
+        <v>709</v>
       </c>
       <c r="L79" t="s">
-        <v>635</v>
+        <v>710</v>
       </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
       <c r="N79" t="s">
-        <v>636</v>
+        <v>711</v>
       </c>
       <c r="O79" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P79" t="n">
         <v>1</v>
@@ -7618,50 +8152,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>637</v>
+        <v>712</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>33342</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>136224</v>
+      </c>
+      <c r="C80" t="s">
+        <v>713</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>638</v>
+        <v>714</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>639</v>
+        <v>715</v>
       </c>
       <c r="J80" t="s">
-        <v>640</v>
+        <v>716</v>
       </c>
       <c r="K80" t="s">
-        <v>641</v>
+        <v>717</v>
       </c>
       <c r="L80" t="s">
-        <v>642</v>
+        <v>718</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>643</v>
+        <v>719</v>
       </c>
       <c r="O80" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -7685,7 +8223,7 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>644</v>
+        <v>720</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_228.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_228.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="680">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,132 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Jennifer M</t>
-  </si>
-  <si>
-    <t>05/29/2018</t>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r599870901-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>56538</t>
+  </si>
+  <si>
+    <t>109032</t>
+  </si>
+  <si>
+    <t>599870901</t>
+  </si>
+  <si>
+    <t>07/26/2018</t>
+  </si>
+  <si>
+    <t>Sleep in your car !!!!</t>
+  </si>
+  <si>
+    <t>I have been traveling my entire adult life and this is the worst hotel I have ever stayed in.  Room was filthy.  Carpet had gum stuck on it in several places, stained, food under the couch, worn out furniture, etc......just nasty !!!  Checked in the afternoon and the process was difficult with a new clerk that was struggling. Came in late after an evening out to find that workers had come in and replaced both mattresses (forgot to mention we booked a king) and had thrown the stripped bedding, sheets, pillows, blankets over the dresser and left the beds unmade.  Called the front desk and there was no answer.  ‘Breakfast” consists of coffee, bags of oatmeal and snack bars.There is a Doubletree and a Hyatt blocks away.  Pay the extra !!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Richardson, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>I have been traveling my entire adult life and this is the worst hotel I have ever stayed in.  Room was filthy.  Carpet had gum stuck on it in several places, stained, food under the couch, worn out furniture, etc......just nasty !!!  Checked in the afternoon and the process was difficult with a new clerk that was struggling. Came in late after an evening out to find that workers had come in and replaced both mattresses (forgot to mention we booked a king) and had thrown the stripped bedding, sheets, pillows, blankets over the dresser and left the beds unmade.  Called the front desk and there was no answer.  ‘Breakfast” consists of coffee, bags of oatmeal and snack bars.There is a Doubletree and a Hyatt blocks away.  Pay the extra !!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r541193893-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>541193893</t>
+  </si>
+  <si>
+    <t>11/15/2017</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>I want to thank the whole staff at extended stay America in Richardson Texas.Special thanks to Antonio,mirrend,kristal,.They have provided exceptional service to me the peaceful and quietness,  politeness rooms are very clean .The maintenance man and housekeepers are very excellent at keeping everything in perfect condition.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Richardson, responded to this reviewResponded November 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2017</t>
+  </si>
+  <si>
+    <t>I want to thank the whole staff at extended stay America in Richardson Texas.Special thanks to Antonio,mirrend,kristal,.They have provided exceptional service to me the peaceful and quietness,  politeness rooms are very clean .The maintenance man and housekeepers are very excellent at keeping everything in perfect condition.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r598592225-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>598592225</t>
+  </si>
+  <si>
+    <t>07/22/2018</t>
+  </si>
+  <si>
+    <t>Don't stay here, you will regret</t>
+  </si>
+  <si>
+    <t>So much to say.  No housekeeping unless stay 8+ days, and then only once a week.  Otherwise must bring towels to front desk to exchange.  No kitchenware/supplies in unit.  Must personally ask for and pick up at front desk.  Understaffed, poor condition.  Doors to enter don't always work.  Breakfast - only coffee and granola  bars.  I would suggest you stay someplace else.  We had booked for a week and left after one night.  Only positive, REALLY nice pool and courtyard.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Richardson, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>So much to say.  No housekeeping unless stay 8+ days, and then only once a week.  Otherwise must bring towels to front desk to exchange.  No kitchenware/supplies in unit.  Must personally ask for and pick up at front desk.  Understaffed, poor condition.  Doors to enter don't always work.  Breakfast - only coffee and granola  bars.  I would suggest you stay someplace else.  We had booked for a week and left after one night.  Only positive, REALLY nice pool and courtyard.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r591969544-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>591969544</t>
+  </si>
+  <si>
+    <t>06/30/2018</t>
+  </si>
+  <si>
+    <t>Worst service</t>
+  </si>
+  <si>
+    <t>We arrived at 3:00pm on a Saturday with our out-of-town guests wanting to help them check in. To our surprise, there were 2 other guests waiting already with no sign of any staff around. One woman told us that she had been informed upon arrival, “you’ll have to wait, someone is ahead of you.” Then the staff left with no other explanation. After 5 minutes of confusion from everyone in the lobby, another staff member came in and leisurely walked in and out of the desk area without acknowledging anyone. Only after another 10 minutes had passed did the staff member even ask if any of us had checked in yet. She was slow to act, and her face and voice conveyed, “I really hate this job and don’t want to be here.” It was such an unwelcoming and unpleasant experience, and very embarrassing for us as Americans with guests coming from out of the country. Service needs all the improvement possible.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Richardson, responded to this reviewResponded July 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2018</t>
+  </si>
+  <si>
+    <t>We arrived at 3:00pm on a Saturday with our out-of-town guests wanting to help them check in. To our surprise, there were 2 other guests waiting already with no sign of any staff around. One woman told us that she had been informed upon arrival, “you’ll have to wait, someone is ahead of you.” Then the staff left with no other explanation. After 5 minutes of confusion from everyone in the lobby, another staff member came in and leisurely walked in and out of the desk area without acknowledging anyone. Only after another 10 minutes had passed did the staff member even ask if any of us had checked in yet. She was slow to act, and her face and voice conveyed, “I really hate this job and don’t want to be here.” It was such an unwelcoming and unpleasant experience, and very embarrassing for us as Americans with guests coming from out of the country. Service needs all the improvement possible.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r569017028-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
-    <t>56538</t>
-  </si>
-  <si>
-    <t>109032</t>
-  </si>
-  <si>
     <t>569017028</t>
   </si>
   <si>
@@ -192,42 +303,6 @@
     <t>If your main concern is cost this may be a decent option. But if you want a quality experience this is not for you. First, I had to wait 15 minutes at front desk to check in. I do not consider this the fault of the front desk person as he was helping another guest but a management issue as he was obviously understaffed. He was very friendly and once he was back checking in didn't take that long. The pool was dirty looking so i wouldn't use it. The room was hot and the overall feel of the hallway was like the Bates Motel. The hotel seemed overall clean so no complaints about that. Again the issues with the hotel are all management and owners/corporation. The need for update is HUGE. Everything feels like it is stuck in the 1980s. The kitchenette was fine but there were no dishes nor was there even an in-room coffee maker. The lack of coffee/tea station even a cheap 1 cup system is ridiculous in this day and age. I have stayed at rough hotel/motels that had this amenity. Now as to the "breakfast," it was a small mini muffin, coffee and granola bars. Im assuming that they do not put much out even with that limited choice as they were down to two muffins when I went down at 730 am. The front desk staff was friendly so as far as employees...If your main concern is cost this may be a decent option. But if you want a quality experience this is not for you. First, I had to wait 15 minutes at front desk to check in. I do not consider this the fault of the front desk person as he was helping another guest but a management issue as he was obviously understaffed. He was very friendly and once he was back checking in didn't take that long. The pool was dirty looking so i wouldn't use it. The room was hot and the overall feel of the hallway was like the Bates Motel. The hotel seemed overall clean so no complaints about that. Again the issues with the hotel are all management and owners/corporation. The need for update is HUGE. Everything feels like it is stuck in the 1980s. The kitchenette was fine but there were no dishes nor was there even an in-room coffee maker. The lack of coffee/tea station even a cheap 1 cup system is ridiculous in this day and age. I have stayed at rough hotel/motels that had this amenity. Now as to the "breakfast," it was a small mini muffin, coffee and granola bars. Im assuming that they do not put much out even with that limited choice as they were down to two muffins when I went down at 730 am. The front desk staff was friendly so as far as employees go I had no issues there but the I will never stay at another Stay America if this is the example of the type of properties they own particularly as it should be a fairly profitable area with the closeness to UT Dallas, Galleria and downtown Dallas area.More</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r541193893-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
-  </si>
-  <si>
-    <t>541193893</t>
-  </si>
-  <si>
-    <t>11/15/2017</t>
-  </si>
-  <si>
-    <t>Mr.</t>
-  </si>
-  <si>
-    <t>I want to thank the whole staff at extended stay America in Richardson Texas.Special thanks to Antonio,mirrend,kristal,.They have provided exceptional service to me the peaceful and quietness,  politeness rooms are very clean .The maintenance man and housekeepers are very excellent at keeping everything in perfect condition.MoreShow less</t>
-  </si>
-  <si>
-    <t>November 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Richardson, responded to this reviewResponded November 16, 2017</t>
-  </si>
-  <si>
-    <t>Responded November 16, 2017</t>
-  </si>
-  <si>
-    <t>I want to thank the whole staff at extended stay America in Richardson Texas.Special thanks to Antonio,mirrend,kristal,.They have provided exceptional service to me the peaceful and quietness,  politeness rooms are very clean .The maintenance man and housekeepers are very excellent at keeping everything in perfect condition.More</t>
-  </si>
-  <si>
-    <t>preets445</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r563281520-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -246,9 +321,6 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Dallas - Richardson, responded to this reviewResponded February 28, 2018</t>
   </si>
   <si>
@@ -258,9 +330,6 @@
     <t>This is a nice place to stay. All things were in proper order and internet was working too. It is very convenient to reach out to this place too. The staff is friendly. I recommend this hotel for everyone.More</t>
   </si>
   <si>
-    <t>wandac684</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r559912614-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -285,9 +354,6 @@
     <t>The room was clean.  Bed was very comfortable.  Check in staff was great.  Only negative is there was no one there at check out to provide a receipt.  The location is great.  Price was great.  Highly recommended this location.More</t>
   </si>
   <si>
-    <t>R1042PTgaryd</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r553490564-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -315,9 +381,6 @@
     <t>NO shampoo in shower Phone not working-plug pulled out and broken Fleas in bed from previous occupants or pets No coffee maker in room No dishes in kitchen Dirty room overall and had to request another Requested king bed but booked into room with 2 full size bedsMore</t>
   </si>
   <si>
-    <t>susaneK2155NW</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r551672754-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -333,9 +396,6 @@
     <t>The staff was very friendly from checking in to checking out. It was very easy to check in. I would definitely stay in the hotel again. Very accommodating, it was like a studio apt. I felt at home and was happy with all the room I had to move around. The kitchen area was very nice and the bathroom area was away from the sleeping area.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Dallas - Richardson, responded to this reviewResponded January 9, 2018</t>
   </si>
   <si>
@@ -345,19 +405,31 @@
     <t>The staff was very friendly from checking in to checking out. It was very easy to check in. I would definitely stay in the hotel again. Very accommodating, it was like a studio apt. I felt at home and was happy with all the room I had to move around. The kitchen area was very nice and the bathroom area was away from the sleeping area.More</t>
   </si>
   <si>
-    <t>MarianneMiller</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r551241131-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
     <t>551241131</t>
   </si>
   <si>
-    <t>January 3, 2018</t>
-  </si>
-  <si>
-    <t>WILLIAM G</t>
+    <t>01/03/2018</t>
+  </si>
+  <si>
+    <t>Convenient and Comfortable on a budget</t>
+  </si>
+  <si>
+    <t>Stayed here during a family medical situation and the hotel was very accommodating.  The rooms are recently updated and the hotel is clean.  Staff is very friendly and helpful, and they provide the necessities for use in the kitchenette, etc.  They did not provide daily room service, or a full breakfast, but with the kitchenette available, we had what we needed.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Richardson, responded to this reviewResponded January 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2018</t>
+  </si>
+  <si>
+    <t>Stayed here during a family medical situation and the hotel was very accommodating.  The rooms are recently updated and the hotel is clean.  Staff is very friendly and helpful, and they provide the necessities for use in the kitchenette, etc.  They did not provide daily room service, or a full breakfast, but with the kitchenette available, we had what we needed.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r550200034-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
@@ -375,9 +447,6 @@
     <t>We recently stayed five nights in Richardson, TX Extended Stay.  We have stayed there many times.  It used to be a very nice place to stay with fully equipped kitchen.  Now you have to request what you want.  My first request was 1 dishrag, 1 dish towel, 1 toaster, 1 paring knife (all rec'd) and 2 cups, 2 bowls and silverware (NOT rec'd).  They supplied 2 dinner plates, 2 glasses and 1 butter knife.  My second request (you have to pick this stuff up at the front desk) 2 cups, 2 tsp. (rec'd) and 2 tablespoons (not rec'd)Time to take a shower and there were no wash cloths.   I was surprised when I was told they would be at the front desk when I wanted to pick them up.  I believed they should have been delivered since wash cloths should have been in the room when we checked in.  I was told "WE DO NOT HAVE ROOM SERVICE".  I do not believe supplying the first wash cloths (the towels were there) was room service, only the replacements.  THIS WAS A VERY DEGRADING EXPERIENCE.p.s.:  remember to pack your own tablespoonsMoreShow less</t>
   </si>
   <si>
-    <t>December 2017</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Dallas - Richardson, responded to this reviewResponded December 31, 2017</t>
   </si>
   <si>
@@ -387,9 +456,6 @@
     <t>We recently stayed five nights in Richardson, TX Extended Stay.  We have stayed there many times.  It used to be a very nice place to stay with fully equipped kitchen.  Now you have to request what you want.  My first request was 1 dishrag, 1 dish towel, 1 toaster, 1 paring knife (all rec'd) and 2 cups, 2 bowls and silverware (NOT rec'd).  They supplied 2 dinner plates, 2 glasses and 1 butter knife.  My second request (you have to pick this stuff up at the front desk) 2 cups, 2 tsp. (rec'd) and 2 tablespoons (not rec'd)Time to take a shower and there were no wash cloths.   I was surprised when I was told they would be at the front desk when I wanted to pick them up.  I believed they should have been delivered since wash cloths should have been in the room when we checked in.  I was told "WE DO NOT HAVE ROOM SERVICE".  I do not believe supplying the first wash cloths (the towels were there) was room service, only the replacements.  THIS WAS A VERY DEGRADING EXPERIENCE.p.s.:  remember to pack your own tablespoonsMore</t>
   </si>
   <si>
-    <t>lamarcuss2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r548766606-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -414,9 +480,6 @@
     <t>Needs Hotel Rescue NOW!! It's use to be one of the nicer EXTENDED STAY AMERICA but now is horrid. I was checked in to a dirty room with odor then into a room with no ac. If they cared about the hotel as much as they did about knocking on doors at 11 it might have a chance. More</t>
   </si>
   <si>
-    <t>Charles A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r546397242-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -441,9 +504,6 @@
     <t>Despite the  friendliness of the front desk reception,  The rooms are filthy.  Obvious lack of managerial intervention.  I stayed with my pet that was very entertained by picking all the debris from under the beds.  More</t>
   </si>
   <si>
-    <t>jerry k</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r541213861-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -459,9 +519,6 @@
     <t>If you want to feel like your home away from home then you chose the right place to go. Antonio the GM at the Richardson, TX location by far knows how to make you feel welcome the second you walk in. You can tell how well he is liked and respected by his staff.  Our room is comfortable and spacious.  Do not agree with negative remarks of other reviewers. With my wifes ill health and travel with a service dog we have not heard one "no" or "i don't know" from this property.  Keep up the good work. More</t>
   </si>
   <si>
-    <t>Barry M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r531505065-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -489,9 +546,6 @@
     <t>I arrived on a Saturday afternoon and was given a room near the entrance to hotel reception. I could not believe the state of the room. The bathroom was filthy. There was algae growing under all of the  handles over the bath tub. The soap holder had left over soap from previous guests. The basin had left over soap and the drain was so rusted you couldn't see the silver of the original drain fixture. The kitchen - The fridge, wall next to the stove and the counter had  the remnants of left over food on all of them. The microwave also had left over food under the plate and on the wall of the microwave. The toilet blocked  up and when I went to the reception to get someone to come sort out the toilet and my other issues. I explained how dirty the room was and the issue with the toilet. I was offered a plunger to clean the toilet myself. I asked for someone else to look into it. They stated the 1st time they could look at any of my issues was Monday morning. Lets just say, I left 1st thing Monday morning.More</t>
   </si>
   <si>
-    <t>Jose J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r510732347-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -519,9 +573,6 @@
     <t>Very clean, and family friendly hotel. In a very nice location, the pool was very relaxing. Friendly and knowledgeable staff. Would happily stay here again. I recommend  this location. Close to uptown Dallas, plenty to do in this area.More</t>
   </si>
   <si>
-    <t>13bedbugz</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r508767789-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -546,9 +597,6 @@
     <t>As most of you know I stay at Extended Stay America a lot all over the place I love the one on Frankford well I decided to actually visit the one in Richardson.. when I arrived at the hotel it was $20 higher than it had been quoted and they said they only had one room left yet there was many listed online. When they notice that my service dog who travels with me everywhere was a pit bull they became even harder to deal with I was sitting in the lobby waiting for my husband to get there with the other bit of the money and my dog was playing with some visiting people. The manager and her dog walked out in the hall my dog ran to them not aggressively the ran to them. The manager then proceeded to scream at me to get out of her hotel and off of her property I told her I just got out of the hospital I had PTSD and I needed her to call me a cab. She proceeded to scream and threaten me with cops and animal control and everything else. I had 4 bags my dog two days out of the hospital and miles to walk. I was hurting so bad that I stopped periodically to cry and sit on the ground. Hooch is a big part of my travel. Because if a hotel will treat an animal...As most of you know I stay at Extended Stay America a lot all over the place I love the one on Frankford well I decided to actually visit the one in Richardson.. when I arrived at the hotel it was $20 higher than it had been quoted and they said they only had one room left yet there was many listed online. When they notice that my service dog who travels with me everywhere was a pit bull they became even harder to deal with I was sitting in the lobby waiting for my husband to get there with the other bit of the money and my dog was playing with some visiting people. The manager and her dog walked out in the hall my dog ran to them not aggressively the ran to them. The manager then proceeded to scream at me to get out of her hotel and off of her property I told her I just got out of the hospital I had PTSD and I needed her to call me a cab. She proceeded to scream and threaten me with cops and animal control and everything else. I had 4 bags my dog two days out of the hospital and miles to walk. I was hurting so bad that I stopped periodically to cry and sit on the ground. Hooch is a big part of my travel. Because if a hotel will treat an animal bad they will treat their guest bad.  The experience set my healing back aweek. Animal Control came up to me about a block down the road. The Animal control officer realized that he had adopted Hooch out to me. And Hooch had been certified through them. He told me that she had said that I sicked my dog on her I would never endanger my dog. I had met the general manager earlier on this summer at the Frankford location and he sincerely seem to care about his stores so I tried to contact him immediately and never heard back from him so I felt that it was important that I post this review so you would be aware that this woman does not like pit bull dogs even if they are sweet as can be I don't think she even likes her own.More</t>
   </si>
   <si>
-    <t>811garrettk</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r508914339-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -573,9 +621,6 @@
     <t>Overall the value for my stay was very good. The hotel was very clean. I would have given a better rating but there was a terrible smell in the room that appeared to have been from a residual cooking odor. I did not report it because it was a hassle being that I was only staying one night but someone should have noticed the smell and not put the room back in service until it could be taken care of. Staff was very friendly. There is no place to print boarding passes or other business documents so I would not recommend this to a business traveler.More</t>
   </si>
   <si>
-    <t>jeff1070</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r508740425-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -591,9 +636,6 @@
     <t>When my A/C went out at my house I needed a place to stay seeing that it was July in Texas! Glad I chose this place. Nice, clean room with kitchen!  Friendly staff greets you when you arrive and they even called my room about 15 mins in to make sure everything was to my satisfaction in my room! More</t>
   </si>
   <si>
-    <t>767kshitijv</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r507979329-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -618,9 +660,6 @@
     <t>Please dont book this hotel. Its not worth the tariff. Receptionist will keep you waiting for 10-15 mins for checkin. Cockroaches in room.  Always runs out of breakfast. not at all value for money.  Better search for other hotels.More</t>
   </si>
   <si>
-    <t>Dj B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r507602037-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -645,9 +684,6 @@
     <t>Fantastic area, affordable, clean, safe, and great managers. So much around to do and not that far from dt dallas. Well maintained and great vibes.Definitely will continue to use extended stay America and recommend to anyone.More</t>
   </si>
   <si>
-    <t>ericsclinkscale</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r506931766-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -672,9 +708,6 @@
     <t>Everything was great the management was great and they did everything to help with any problems I had. It was pretty clean and I would reccomend this hotel to anybody whether it's family or business. I appreciate itMore</t>
   </si>
   <si>
-    <t>323dustyg</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r506798241-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -696,9 +729,6 @@
     <t>Great stay never stayed at a extended Stay type place before so it was a fun experience. Everything was clean and easily accessible plus here were a few restaurants within walking distance. Wouldn't mind staying again.More</t>
   </si>
   <si>
-    <t>J3467GSsarahf</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r502503213-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -726,9 +756,6 @@
     <t>This hotel is not very nice or clean. The room had ants all over the kitchen, the laundromat does not work, and the breakfast is minimal. The staff is not very nice. Terri is the best employee they have. She was very nice. The management was not nice at all. The pool is nice. More</t>
   </si>
   <si>
-    <t>Chantelle J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r501644971-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -753,9 +780,6 @@
     <t>Very clean facility. The only thing is that there were no clean dishes in rooms, you have to ask for them if u want them. No ice ma hine in building so there should have been an ice tray in your freezer...and there was not!! I ran just so happened to talk with another patron whom seen me searching. She had an ice tray in her room..it just wasnt filled...so bring your own ice...lol..More</t>
   </si>
   <si>
-    <t>O9878ZFjanv</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r498441881-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -780,9 +804,6 @@
     <t>Clerk tried to double charge me at check in and then argue with me about it. AC was not working in room. Absolutely no (none) grab-n-go breakfast as advertised, unless you count coffee and expired oatmeal "breakfast". Overall decrepit rundown look.More</t>
   </si>
   <si>
-    <t>Karent P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r496026931-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -807,9 +828,6 @@
     <t>To start off the room did not have any trashcans, and it smelled humid in the room.The linen did not smell clean, and there was roach traps everywhere in the room.The continental Breakfast consisted of coffee and muffins, which in my understanding that is not a continental breakfast. When I actually decided to get Breakfast they barely had any coffee,no sugar,  and there was no muffins.I stayed two days, and we didn't get our room cleaned, or get any new towels. Since we didn't get the room cleaned,I had to ask why and they told me that they only do cleaning service if you stay 7 nights and they only do it once a week.This would explain why they have roaches. During our stay we found dead roaches in the roach traps, which is really gross.I had never had such a bad experience. I will never stay here again.More</t>
   </si>
   <si>
-    <t>sandravO7089DE</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r494260047-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -834,16 +852,22 @@
     <t>Was there 2 weeks they nrver had breakfast all they Was coffee and tea got lucky once with hot cocoa and a donut room service never got it after 6 days i called ask why i hadnt got my sheets change they said theyed do it that day got back from work and still nothing after 9 day asked again i was so un satisfied. More</t>
   </si>
   <si>
-    <t>jz222</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r494102195-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
     <t>494102195</t>
   </si>
   <si>
-    <t>584oscarh</t>
+    <t>06/18/2017</t>
+  </si>
+  <si>
+    <t>Would not recommend</t>
+  </si>
+  <si>
+    <t>Disgusting bugs in room, bathroom and on drapes.  Loud barking dogs.  No elevator, so if you are on 2nd floor, you have to carry your belongings up steps.  We had a plumbing issue, maintenance person did not clean up after himself and water puddles were throughout room after the repair.  Would not recommend.  The check-in person was very nice, she was the only good thing about the stay.  The outside door nearest our room did not work.MoreShow less</t>
+  </si>
+  <si>
+    <t>Disgusting bugs in room, bathroom and on drapes.  Loud barking dogs.  No elevator, so if you are on 2nd floor, you have to carry your belongings up steps.  We had a plumbing issue, maintenance person did not clean up after himself and water puddles were throughout room after the repair.  Would not recommend.  The check-in person was very nice, she was the only good thing about the stay.  The outside door nearest our room did not work.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r492911853-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
@@ -870,9 +894,6 @@
     <t>the place is at a very good location, many places around to go to lunch and dinner.  Service poor to at average, perhaps is the comparison with the service of other south locations.  The bed is not the best to rest.More</t>
   </si>
   <si>
-    <t>Erica O</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r479623219-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -900,9 +921,6 @@
     <t>Horrible!!! Do not stay there!!!! Stayed 2 nights because we had a water leak under our house. We arrived and our room was so filthy! I called the front desk and told her that our room was dirty she said that she would have them clean it the next day. When we go to the room there was about if hair on the beds in the shower, scum build up in the bath tub, towels had stains,remote never worked, we would have to turn off the tv so the volume would go down. The ac/heater unit was held together with duck tape. The website said it had breakfast... if you consider a packaged  muffin and coffee breakfast WOW! We left early the next morning and didn't return until 9pm to a STILL dirty room! Housekeeping never touched our room. So disappointedMore</t>
   </si>
   <si>
-    <t>Wayland E</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r458745934-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -921,9 +939,6 @@
     <t>February 2017</t>
   </si>
   <si>
-    <t>Alex B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r441161675-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -942,9 +957,6 @@
     <t>November 2016</t>
   </si>
   <si>
-    <t>Kathleen J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r439828453-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -969,9 +981,6 @@
     <t>What distinguishes this property from other ESAs is a large and attractive lobby, several mini-room areas with tables, sofa, chair, fake fireplace, etc. so that you have a space besides your room to relax in.  Unlike some Extended Stays we've been to, the towels were in the bathroom as they should be, and the front desk staff was outstanding [it was Thanksgiving and an employee had not showed up so the manager of several hotels was filling in.] Also, the bar of soap worked [at other Extended Stays it doesn't lather and feels like a small piece of plastic, which I've dug into and scraped with fingernails to try to get something soapy going on, and given up and used our own.]  The room had a lounge chair, and plenty of outlets on the bar/desk area for multiple electronic items. However, there was only an outlet on one side of the bed, which makes it difficult for folks with CPAP machines.  We have grown accustomed to having to make very specific requests for kitchen items -- individually ask for fork, knife, cup, spoon, glass, etc., instead of just being given a set of items on request, so we were glad that at least we got a small box of items [still only one plate for two of us] rather than piecemeal.  Usually you can get whatever kitchen items if you ask at the front desk, except for a corkscrew.  Breakfast...What distinguishes this property from other ESAs is a large and attractive lobby, several mini-room areas with tables, sofa, chair, fake fireplace, etc. so that you have a space besides your room to relax in.  Unlike some Extended Stays we've been to, the towels were in the bathroom as they should be, and the front desk staff was outstanding [it was Thanksgiving and an employee had not showed up so the manager of several hotels was filling in.] Also, the bar of soap worked [at other Extended Stays it doesn't lather and feels like a small piece of plastic, which I've dug into and scraped with fingernails to try to get something soapy going on, and given up and used our own.]  The room had a lounge chair, and plenty of outlets on the bar/desk area for multiple electronic items. However, there was only an outlet on one side of the bed, which makes it difficult for folks with CPAP machines.  We have grown accustomed to having to make very specific requests for kitchen items -- individually ask for fork, knife, cup, spoon, glass, etc., instead of just being given a set of items on request, so we were glad that at least we got a small box of items [still only one plate for two of us] rather than piecemeal.  Usually you can get whatever kitchen items if you ask at the front desk, except for a corkscrew.  Breakfast is minimal at Extended Stays, but if you really want a breakfast with protein, you can cook in your room, at least.  But in the end, for the bargain price we got with an express deal, it was highly satisfactory and pleasing.  [No elevator or cart, so if you're older and heavy like we are, ask for a downstairs room.]  The swimming pool looked appealing and attractive, although we didn't use it because the weather is cool.More</t>
   </si>
   <si>
-    <t>MysticYears</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r399334082-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -999,9 +1008,6 @@
     <t>The two issues that gave this such a poor review: 1) their "breakfast included" consisted of pre-packaged small muffins, these tiny bland breakfast bars or instant oatmeal in packages.  All kid sized. Surely, you say there would be juice, milk, toast.... nope. We ended up going out for breakfast. 2) the rooms are designed with no AC outlet near the bed. We had a room with 2 queen beds and there were no outlets near either bed. Across on the other side of the room, several options but nothing to plug you phone into next to the bed for an alarm or convenience. Oh, and the alarm clock that they do have in the room...  is on the wall opposite from the beds!!! What is this placing thinking !More</t>
   </si>
   <si>
-    <t>donderio</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r371173750-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1029,9 +1035,6 @@
     <t>After seeing some of the reviews on here and experiencing most likely the best customer service i've seen in a long time i decided to leave a review in their defense. I don't know if there have been improvements made since those but we were treated like royalty. The rooms were clean w/ all new equipment. Amy the receptionist was so nice and accomodating (i don't care how much she gets paid, pay her MORE!!) You can't pay enough for quality people in this industry. After a small wait, because the guy in front of me liked to talk, she quickly changed form from talkative listening mode to the quickest reservation i had seen ;) After a long day of TRAFFIC i just wanted to get to my room and relax. When i told her i had purchased some salmon and wine, she quickly gathered the necessary cooking utensils, plates etc. and was at my room before i even got there. Like i said, i was quite impressed since you don't get this type of service and luxury for this price anywhere!! Thanks Amy!!More</t>
   </si>
   <si>
-    <t>Jenabcd</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r352221715-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1059,9 +1062,6 @@
     <t>Got to our room.  The bathroom light didn't work,  which happens, and they fixed it.  It's  called Extended Stay.  Not a plate, fork, cup, coffee machine (what hotel doesn't offer coffee machine or cups?), no ice machine, nothing!  My husband did ask for some sort of coffee machine and cup,  and received one.  They said it's normally an extra option. Huh? Anyway, it has the frig, microwave, sink and cupboard, but nothing to go with it. It felt very old, and a bit dingy. The tv's are modern,  but VERY small.  I do not recommend. More</t>
   </si>
   <si>
-    <t>Gaurav G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r349539967-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1089,9 +1089,6 @@
     <t>I recently visited the hotel and stayed around 4 days, check in was average, the lady at front desk was filling for the night shift, has less idea of the property, but still managed to do what I required. cleanliness was good, things are their own places. Free WIFI, morning go to breakfast (apples, oranges, oat bars, coffee, muffins etc) I briefly described the breakfast menu because lot of people choosing it for complimentary should know it is just that and not heavy omelette, or egg kind of breakfast. Room condition was good, but has very thin walls, you can easily listen people coughing or watching TV the next door. You may need to ask for extra utensils to cook (it has burners), towels were okay, refrigerator was old but worked. I asked for moisturizers and shampoos and they were out of them ( little displeased there).I had to go to walgreens to get some travel     amenities. Wendy is the adjacent food point, and few others restaurants with in 5 miles.I liked Adam (I guess the manager) he was soft spoken and has greetings for folks coming in and out.I wish you all the best for your stay.More</t>
   </si>
   <si>
-    <t>rob s</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r347424694-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1110,9 +1107,6 @@
     <t>found blood in the bathtub, black mold in the tub caulking, black mold on the air vents, yellow stains on the pillowcases, disgusting tile and caulk on the bathroom floors, stains on the electrical outlets, non-functional phones, shattered safety locks on the front door providing no security, heavy cigarette smoke coming into the room through the ventilation, absolutely filthy windows, stove and carpets,  no maid service.  Management denies the problems saying the rooms have been updated and I just got a non-updated room.  Check some of the other reviews identifying syringes in the parking lot and complaints very similar to these.  Management justifies all of them.  Avoid this hotel at all costs.More</t>
   </si>
   <si>
-    <t>Samantha  H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r340033052-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1140,9 +1134,6 @@
     <t>The room was nice only bad thing was when we arrived the toilet looked like it hadn't been cleaned in a year. And somehow got more clean the longer we used it. We also had the do not disturb sign on the door and housekeeping and maintenance still tried to barge their way in. For no apparent reason.  We had never called the front desk and asked for maintenance. Cockroaches everywhere.  No oven. More</t>
   </si>
   <si>
-    <t>Janet O</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r331489505-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1170,9 +1161,6 @@
     <t>Although recently renovated this hotel already was showing huge signs of wear and tear.  The desk person was pleasant and the room okay as far as rooms go, although a towel had a large blood streak across it.  But the bed was comfortable enough.  Words of warning...no ice available AT ALL, no elevators, and no utensils-glasses-etc in room (you have to ask for a "kit"), keep in mind that this is an extended stay and people do "live" here.  When we arrived the hotel smelled of cooking fish, as it turned out our room was right next door to the chef whose door was propped open with his garbage bags.  Luckily the window opened some.More</t>
   </si>
   <si>
-    <t>Ahmed Y</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r302187612-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1186,7 +1174,7 @@
   </si>
   <si>
     <t>Simply, this is the worst place I have ever been to. I stayed there for 2.5 months with the extended stay plus program. The problem with this problem is that you reserve for &gt; 2 months. So, once you have the check-in, you will have to stay the whole period because you pay in monthly installments. This is the reason why I had to stay there despite all the problems below: (Note: I think I tried ~ 20-30 places, so when I say that this is really the worst, I think I'm not unfair about that)
-1. Customer service: I have never expected that the customer service can be as bad as this. Note that I'm not taking about hospitality, it is another level that we are very far away from. I'm taking about the level of making your simple requests. They deal with you as if you are begging from them, even the very simple request.  For example, one time one agent called "Jennifer" refused to change the towels for me because her shift will be done in 1 hour, and I had to wait for 2 hours to get the towels from the next shift, even though my baby really needed a new towel quickly. She didn't even understand my situation, and once I talked with her in a serious way, She just kept saying I will call the police for you. I talked with her manager, but...Simply, this is the worst place I have ever been to. I stayed there for 2.5 months with the extended stay plus program. The problem with this problem is that you reserve for &gt; 2 months. So, once you have the check-in, you will have to stay the whole period because you pay in monthly installments. This is the reason why I had to stay there despite all the problems below: (Note: I think I tried ~ 20-30 places, so when I say that this is really the worst, I think I'm not unfair about that)1. Customer service: I have never expected that the customer service can be as bad as this. Note that I'm not taking about hospitality, it is another level that we are very far away from. I'm taking about the level of making your simple requests. They deal with you as if you are begging from them, even the very simple request.  For example, one time one agent called "Jennifer" refused to change the towels for me because her shift will be done in 1 hour, and I had to wait for 2 hours to get the towels from the next shift, even though my baby really needed a new towel quickly. She didn't even understand my situation, and once I talked with her in a serious way, She just kept saying I will call the police for you. I talked with her manager, but I knew later on that he didn't do anything, and she continued to deal with me the very bad way.2. Is it clean? I went to several places before ranging from Sheraton to a one-star motel. No one is like this terrible experience. In this place, ants are everywhere, rooms are very smelly, and towels are not clear (some of them are yellow while they were originally white). For the ants, no solution, I told them several times about this, wait for several days for someone to respond to this, so that finally he uses an inefficient treatment, that just keeps the ants away for 1-2 days, and they are back, and so on. Imagine that you stays in this place for 2.5 months and they are not able to solve this problem. I even tried to change the room, and the problem remains the same. They finally told me that you will likely find the same problem in all the rooms. So, they know the problem but can't fix it, very weird!3. No intention for improvement: Called the managers several times complaining about the service and the ants. He answers politely with promises, but with no real actions. I finally gave up even complaining and decided to spend this time by one way or another. In conclusion, I sincerely advise everyone not to repeat this...MoreShow less</t>
+1. Customer service: I have never expected that the customer service can be as bad as this. Note that I'm not taking about hospitality, it is another level that we are very far away from. I'm taking about the level of making your simple requests. They deal with you as if you are begging from them, even the very simple request.  For example, one time one agent called "Jennifer" refused to change the towels for me because her shift will be done in 1 hour, and I had to wait for 2 hours to get the towels from the next shift, even though my baby really needed a new towel quickly. She didn't even understand my situation, and once I talked with her in a serious way, She just kept saying I will call the police for you. I talked with her manager, but...Simply, this is the worst place I have ever been to. I stayed there for 2.5 months with the extended stay plus program. The problem with this problem is that you reserve for &gt; 2 months. So, once you have the check-in, you will have to stay the whole period because you pay in monthly installments. This is the reason why I had to stay there despite all the problems below: (Note: I think I tried ~ 20-30 places, so when I say that this is really the worst, I think I'm not unfair about that)1. Customer service: I have never expected that the customer service can be as bad as this. Note that I'm not taking about hospitality, it is another level that we are very far away from. I'm taking about the level of making your simple requests. They deal with you as if you are begging from them, even the very simple request.  For example, one time one agent called "Jennifer" refused to change the towels for me because her shift will be done in 1 hour, and I had to wait for 2 hours to get the towels from the next shift, even though my baby really needed a new towel quickly. She didn't even understand my situation, and once I talked with her in a serious way, She just kept saying I will call the police for you. I talked with her manager, but I knew later on that he didn't do anything, and she continued to deal with me the very bad way.2. Is it clean? I went to several places before ranging from Sheraton to a one-star motel. No one is like this terrible experience. In this place, ants are everywhere, rooms are very smelly, and towels are not clear (some of them are yellow while they were originally white). For the ants, no solution, I told them several times about this, wait for several days for someone to respond to this, so that finally he uses an inefficient treatment, that just keeps the ants away for 1-2 days, and they are back, and so on. Imagine that you stays in this place for 2.5 months and they are not able to solve this problem. I even tried to change the room, and the problem remains the same. They finally told me that you will likely find the same problem in all the rooms. So, they know the problem but can't fix it, very weird!3. No intention for improvement: Called the managers several times complaining about the service and the ants. He answers politely with promises, but with no real actions. I finally gave up even complaining and decided to spend this time by one way or another. In conclusion, I sincerely advise everyone not to repeat this experience.MoreShow less</t>
   </si>
   <si>
     <t>July 2015</t>
@@ -1199,10 +1187,7 @@
   </si>
   <si>
     <t>Simply, this is the worst place I have ever been to. I stayed there for 2.5 months with the extended stay plus program. The problem with this problem is that you reserve for &gt; 2 months. So, once you have the check-in, you will have to stay the whole period because you pay in monthly installments. This is the reason why I had to stay there despite all the problems below: (Note: I think I tried ~ 20-30 places, so when I say that this is really the worst, I think I'm not unfair about that)
-1. Customer service: I have never expected that the customer service can be as bad as this. Note that I'm not taking about hospitality, it is another level that we are very far away from. I'm taking about the level of making your simple requests. They deal with you as if you are begging from them, even the very simple request.  For example, one time one agent called "Jennifer" refused to change the towels for me because her shift will be done in 1 hour, and I had to wait for 2 hours to get the towels from the next shift, even though my baby really needed a new towel quickly. She didn't even understand my situation, and once I talked with her in a serious way, She just kept saying I will call the police for you. I talked with her manager, but...Simply, this is the worst place I have ever been to. I stayed there for 2.5 months with the extended stay plus program. The problem with this problem is that you reserve for &gt; 2 months. So, once you have the check-in, you will have to stay the whole period because you pay in monthly installments. This is the reason why I had to stay there despite all the problems below: (Note: I think I tried ~ 20-30 places, so when I say that this is really the worst, I think I'm not unfair about that)1. Customer service: I have never expected that the customer service can be as bad as this. Note that I'm not taking about hospitality, it is another level that we are very far away from. I'm taking about the level of making your simple requests. They deal with you as if you are begging from them, even the very simple request.  For example, one time one agent called "Jennifer" refused to change the towels for me because her shift will be done in 1 hour, and I had to wait for 2 hours to get the towels from the next shift, even though my baby really needed a new towel quickly. She didn't even understand my situation, and once I talked with her in a serious way, She just kept saying I will call the police for you. I talked with her manager, but I knew later on that he didn't do anything, and she continued to deal with me the very bad way.2. Is it clean? I went to several places before ranging from Sheraton to a one-star motel. No one is like this terrible experience. In this place, ants are everywhere, rooms are very smelly, and towels are not clear (some of them are yellow while they were originally white). For the ants, no solution, I told them several times about this, wait for several days for someone to respond to this, so that finally he uses an inefficient treatment, that just keeps the ants away for 1-2 days, and they are back, and so on. Imagine that you stays in this place for 2.5 months and they are not able to solve this problem. I even tried to change the room, and the problem remains the same. They finally told me that you will likely find the same problem in all the rooms. So, they know the problem but can't fix it, very weird!3. No intention for improvement: Called the managers several times complaining about the service and the ants. He answers politely with promises, but with no real actions. I finally gave up even complaining and decided to spend this time by one way or another. In conclusion, I sincerely advise everyone not to repeat this...More</t>
-  </si>
-  <si>
-    <t>BrightEyes1221</t>
+1. Customer service: I have never expected that the customer service can be as bad as this. Note that I'm not taking about hospitality, it is another level that we are very far away from. I'm taking about the level of making your simple requests. They deal with you as if you are begging from them, even the very simple request.  For example, one time one agent called "Jennifer" refused to change the towels for me because her shift will be done in 1 hour, and I had to wait for 2 hours to get the towels from the next shift, even though my baby really needed a new towel quickly. She didn't even understand my situation, and once I talked with her in a serious way, She just kept saying I will call the police for you. I talked with her manager, but...Simply, this is the worst place I have ever been to. I stayed there for 2.5 months with the extended stay plus program. The problem with this problem is that you reserve for &gt; 2 months. So, once you have the check-in, you will have to stay the whole period because you pay in monthly installments. This is the reason why I had to stay there despite all the problems below: (Note: I think I tried ~ 20-30 places, so when I say that this is really the worst, I think I'm not unfair about that)1. Customer service: I have never expected that the customer service can be as bad as this. Note that I'm not taking about hospitality, it is another level that we are very far away from. I'm taking about the level of making your simple requests. They deal with you as if you are begging from them, even the very simple request.  For example, one time one agent called "Jennifer" refused to change the towels for me because her shift will be done in 1 hour, and I had to wait for 2 hours to get the towels from the next shift, even though my baby really needed a new towel quickly. She didn't even understand my situation, and once I talked with her in a serious way, She just kept saying I will call the police for you. I talked with her manager, but I knew later on that he didn't do anything, and she continued to deal with me the very bad way.2. Is it clean? I went to several places before ranging from Sheraton to a one-star motel. No one is like this terrible experience. In this place, ants are everywhere, rooms are very smelly, and towels are not clear (some of them are yellow while they were originally white). For the ants, no solution, I told them several times about this, wait for several days for someone to respond to this, so that finally he uses an inefficient treatment, that just keeps the ants away for 1-2 days, and they are back, and so on. Imagine that you stays in this place for 2.5 months and they are not able to solve this problem. I even tried to change the room, and the problem remains the same. They finally told me that you will likely find the same problem in all the rooms. So, they know the problem but can't fix it, very weird!3. No intention for improvement: Called the managers several times complaining about the service and the ants. He answers politely with promises, but with no real actions. I finally gave up even complaining and decided to spend this time by one way or another. In conclusion, I sincerely advise everyone not to repeat this experience.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r281358140-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
@@ -1232,9 +1217,6 @@
     <t>Very clean and close to highway. Pleasant stay i booked this room for frowns asks they enjoyed the breakfast and amenities. It was a great rate and includes fridge asks microwave. I will definitely stay againMore</t>
   </si>
   <si>
-    <t>John W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r252677067-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1262,9 +1244,6 @@
     <t>the good part... newly renovated rooms, fresh paint, new carpets. they advertise pet friendly, but outside there is little grass, and NO trash cans to put poop-bags in. The prices for pets is OUTRAGEOUS... $25 per pet per day. I walked the dog around the perimeter... saw a screw lying on the pavement on one side (like flat tires???) and a box cutter razor on the other. When we checked in we were directed to an entry door that was closed (for reno). the 'kitchen' sink was hooked up backwards hot/right cold/left. Very clumsy check in... Reserved two rooms, had to check in each one separately (might be because they tried extra hard to get the first one ready upon arrival... which we very much appreciated) Breakfast bar is sparce, no salt, no pepper, no decaf. First day toilet stopped up, took two calls to get it fixed. Pot party down the hall made traversing the hall ... interesting. Smelled like good stuff... ? But I was not amused.... Can't control stupid young guests, but hey, walk the hall, right? Also, had to plead for extra washcloths ("I'm only supposed to give you exchanges for what you turn in").  Staff tried hard, but were apparently hamstrung by bad system. Nice kitchenette in room, but if you want dishes etc, you have to ask. Internet is free, but if you want decent speed, you have to pay extra... in general, it...the good part... newly renovated rooms, fresh paint, new carpets. they advertise pet friendly, but outside there is little grass, and NO trash cans to put poop-bags in. The prices for pets is OUTRAGEOUS... $25 per pet per day. I walked the dog around the perimeter... saw a screw lying on the pavement on one side (like flat tires???) and a box cutter razor on the other. When we checked in we were directed to an entry door that was closed (for reno). the 'kitchen' sink was hooked up backwards hot/right cold/left. Very clumsy check in... Reserved two rooms, had to check in each one separately (might be because they tried extra hard to get the first one ready upon arrival... which we very much appreciated) Breakfast bar is sparce, no salt, no pepper, no decaf. First day toilet stopped up, took two calls to get it fixed. Pot party down the hall made traversing the hall ... interesting. Smelled like good stuff... ? But I was not amused.... Can't control stupid young guests, but hey, walk the hall, right? Also, had to plead for extra washcloths ("I'm only supposed to give you exchanges for what you turn in").  Staff tried hard, but were apparently hamstrung by bad system. Nice kitchenette in room, but if you want dishes etc, you have to ask. Internet is free, but if you want decent speed, you have to pay extra... in general, it was like an inn owned by an airline whose CEO is a congressman.More</t>
   </si>
   <si>
-    <t>ExplorersOfLife</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r242139010-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1292,9 +1271,6 @@
     <t>Pros:Good location in Richardson, TXCons:1) Very old rooms3) Requested for a wheelchair accessible room and even called couple of days and confirmed, but when we reached we were told that the room was sold out for the past year or so and could not accommodate us. 3) Very rude staffWe cancelled our stay and moved to another facilityMore</t>
   </si>
   <si>
-    <t>Sharon M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r234200651-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1316,9 +1292,6 @@
     <t>After booking blindly on Hotwire, I had the name and went to Tripadvisor for reviews.  Reviewed poorly with supporting photos. I contacted Extended Stay America, 901 Campbell and told them I saw the reviews and would be reviewing them and I hoped to have a positive experience.  First room had 1 bed so I switched therefore I was in 2 rooms, both were fine.  No odor and cold a/c.  Some things were dated but not much.  New bedspreads and quality pillows on a basic, but comfortable bed.  New shower curtain, clean restrooms, nice showerhead with pulsating options.  Plenty of hot water. Flat screen tv with cable.  Free wifi.  Room carpet was dated but my socks didn't pick up dirt.  Scenic view out sliding glass door.  Ali at front desk was professional and likeable.  Laundry facilities and meeting area available.  Quality flooring and decor in the front area, grounds were beautiful.  Nice cars filled the parking lot.  Wendy's fast food next door - open till 1 am.  My experience was wonderful and I would recommend Extended Stay America, Richardson.More</t>
   </si>
   <si>
-    <t>RippedOff42</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r234110391-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1340,9 +1313,6 @@
     <t>If you read all the reviews on this place you will find this is my third review. I want to start with the good. Our room was clean. Bed was comfortable. TV w/remote worked well. The Heat/AC unit worked well, shower worked well with plenty of hot water. What went wrong. NO ELEVATOR. my wife and I and some friends we had staying there had to carrie our stuff up steps to the second level, for someone with a bad knee or bad back, that's not a good thing. As we were planning on taking advantage of the Kitchen area. We had nothing, Plates, silverware, coffee pot or coffe cups or drinking glasses. When my wife contacted the front desk, His reply was I will have some ready in about fifteen minutes. COME AND GET THEM.  "REALLY"  AND THEN BRING BACK THE CONTAINER THEY GAVE YOU TO CARRY THEM UP AND DOWN THE STAIRS AGAIN.  Come on Adam (Manager) you guys can do better than that. It's the OU/TEXAS weekend. should have been better staffed and make sure each room has everthing needed as advertised on your website. Overall it worked well for us and our trip, close to the Train stations that took us to the Game, My friend left several items in their room, let's if the staff reports to the managment and what becomes of that, Yet to be determine!!!! The big question is will we stay...If you read all the reviews on this place you will find this is my third review. I want to start with the good. Our room was clean. Bed was comfortable. TV w/remote worked well. The Heat/AC unit worked well, shower worked well with plenty of hot water. What went wrong. NO ELEVATOR. my wife and I and some friends we had staying there had to carrie our stuff up steps to the second level, for someone with a bad knee or bad back, that's not a good thing. As we were planning on taking advantage of the Kitchen area. We had nothing, Plates, silverware, coffee pot or coffe cups or drinking glasses. When my wife contacted the front desk, His reply was I will have some ready in about fifteen minutes. COME AND GET THEM.  "REALLY"  AND THEN BRING BACK THE CONTAINER THEY GAVE YOU TO CARRY THEM UP AND DOWN THE STAIRS AGAIN.  Come on Adam (Manager) you guys can do better than that. It's the OU/TEXAS weekend. should have been better staffed and make sure each room has everthing needed as advertised on your website. Overall it worked well for us and our trip, close to the Train stations that took us to the Game, My friend left several items in their room, let's if the staff reports to the managment and what becomes of that, Yet to be determine!!!! The big question is will we stay here again. Maybe, as I feel it is my duty to report on the Bad as well as the Good. Know this, It's not a bad place, with a little work it could be a very good place to spend the weekend.More</t>
   </si>
   <si>
-    <t>Jkompa</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r230190518-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1364,9 +1334,6 @@
     <t>Spent 5 weeks at this hotel after relocating from Tennessee while waiting to move into our new home in Plano.  After checking in, I spent about 4 hours cleaning the entire room with disinfectant because it was so gross.  The dirt and grime build up on the walls, light switches, counters, and door frames was awful.  Mold in the shower and around the tub.  Remnants of food and grease splatter around the cook top and on the back splash.  I was so ticked off.  The kitchen sink began leaking the 2nd day of our stay causing water to leak into the cabinet underneath.  It took them 3 weeks to finally replace the faucet.  The hallways and lobby smell like sewer gas.  It was disgusting.  I decided to stay the entire 5 weeks despite these problems because I spent so much time cleaned the frigging room myself and I was worried that if I went somewhere else I might have to do the same thing there.  Very disappointed.More</t>
   </si>
   <si>
-    <t>anya75482</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r219903145-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1385,9 +1352,6 @@
     <t>July 2014</t>
   </si>
   <si>
-    <t>Sandeep K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r217840283-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1403,9 +1367,6 @@
     <t>I checked in on July 22nd after a hectic flight and work around 9:45 PM and the person in reception gave me a key of the room. I was holding 3 bags with me. I checked in my room and wanted to take shower. To my surprise I found there was no shower head. Again the staff member came he moved me in to other room. I don't have words to explain about this.,...I strongly recommend "NO" to this property</t>
   </si>
   <si>
-    <t>J S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r210187350-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1424,9 +1385,6 @@
     <t>I checked in on November 7th 2012 and aat the time of writing this June 13 2014 i'm still there. I get my room cleaned every monday, It's always great (Thanks Juanita).  The people there treat me like family. The breakfast is pretty unimaginative Instant oatmeal, muffins, coffee, tea, apple, orange and breakfast bars.  When I first got there they had bagels and cream cheese, which I miss.  However I can take the shuttle most any day to work. And there's lots of good dining nearby.  I've never had a problem with any staff member, occasionally I'll get ants or a palmetto bug in my room and the outside door slams horribly when it's windy, the fire alarms are really annoying when they go off, laundry is overpriced but convenient.  Ice machine is always on the fritz and the tiny gym is pretty lame.  I'd prefer if the pool were open more often but there's a bunch of regulations in richardson preventing it from being open after it rains. And pool season is only from memorial day to labor day, kinda lame when summer in texas lasts until november.  Oh well I'm not displeased generally.More</t>
   </si>
   <si>
-    <t>Candice G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r209005462-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1440,9 +1398,6 @@
   </si>
   <si>
     <t>The staff is not friendly and the hotel rooms are less than satisfactory. I was placed in a room that had been smoked in without the agent even confirming that is what I wanted.  The carpet was stained heavily and there is no business center. Again I say, don't just don't.</t>
-  </si>
-  <si>
-    <t>PantherCityGirl</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r208266851-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
@@ -1461,7 +1416,7 @@
  The bad:  
 Common area:  lobby was fine, but the first floor halls smell terrible; like cigarette smoke and fish, and the area near the exit door we used had a trash can that smelled of rotten garbage.
  Teen room, first floor double:  Smoke detectors were both disconnected and/or stuffed with paper towels.  Carpet appeared dirty with black gummy substance in spots.  .  The room had a musty odor.  Obvious grimy spots on walls.  Sink did not appear to be clean.  Went back to front desk, told by clerk that no other doubles were available, and had to argue with unenthusiastic desk clerk that it was not acceptable to put anyone in a room with non functioning smoke detectors.  I came up with the solution to give the  kids my room, which appeared better, and give me a room with a king bed.  There was no apology from the front desk. 
-Now for my king room:  overpoweringly strong food smell that lasted all night (window was open when I arrived, as someone was trying to air out the room), smoke detector was disconnected, circuit breaker in bathroom tripped every time anything was plugged in, leaving the toilet area and sink area in complete darkness, carpet appeared dirty, and had gummy spots, sink appeared dirty, hairs on bathroom floor....Was provided with 2 double rooms here when staying in town for a high school event;  one for teenagers and one for me.  The bad:  Common area:  lobby was fine, but the first floor halls smell terrible; like cigarette smoke and fish, and the area near the exit door we used had a trash can that smelled of rotten garbage. Teen room, first floor double:  Smoke detectors were both disconnected and/or stuffed with paper towels.  Carpet appeared dirty with black gummy substance in spots.  .  The room had a musty odor.  Obvious grimy spots on walls.  Sink did not appear to be clean.  Went back to front desk, told by clerk that no other doubles were available, and had to argue with unenthusiastic desk clerk that it was not acceptable to put anyone in a room with non functioning smoke detectors.  I came up with the solution to give the  kids my room, which appeared better, and give me a room with a king bed.  There was no apology from the front desk. Now for my king room:  overpoweringly strong food smell that lasted all night (window was open when I arrived, as someone was trying to air out the room), smoke detector was disconnected, circuit breaker in bathroom tripped every time anything was plugged in, leaving the toilet area and sink area in complete darkness, carpet appeared dirty, and had gummy spots, sink appeared dirty, hairs on bathroom floor.  The white bathtub was grey on the bottom and appeared unclean, with much hair, drain area was dirty, bathtub walls did not appear clean;  I ended up using the shower in the kids' room.  Walls had what appeared to be old food on them in the kitchen area.  The sheets were stained under the pillows and had hair on them in the area under the pillows.  There was a small roach like bug in the kitchen after the bathroom light breaker was tripped, so I left a light on all night hoping more wouldn't show up.  Wallpaper was peeling in bathroom.    Fingerprints all over both doors.  I asked for another room and was told there were none available, again no apology.  The front desk person at check in:  unenthusiastic, unhelpful, never apologized or even pretended to be  concerned.  The only thing she did for me was to tell me where to go to get another towel when we were short one.  The good:  the mattress and pillows appeared in good shape, the a/c worked, there were towels, tp, new bar soap, and kleenex.  Fridge and microwave appeared clean.   It was relatively quiet in the hallways and I did not hear much...MoreShow less</t>
+Now for my king room:  overpoweringly strong food smell that lasted all night (window was open when I arrived, as someone was trying to air out the room), smoke detector was disconnected, circuit breaker in bathroom tripped every time anything was plugged in, leaving the toilet area and sink area in complete darkness, carpet appeared dirty, and had gummy spots, sink appeared dirty, hairs on bathroom floor....Was provided with 2 double rooms here when staying in town for a high school event;  one for teenagers and one for me.  The bad:  Common area:  lobby was fine, but the first floor halls smell terrible; like cigarette smoke and fish, and the area near the exit door we used had a trash can that smelled of rotten garbage. Teen room, first floor double:  Smoke detectors were both disconnected and/or stuffed with paper towels.  Carpet appeared dirty with black gummy substance in spots.  .  The room had a musty odor.  Obvious grimy spots on walls.  Sink did not appear to be clean.  Went back to front desk, told by clerk that no other doubles were available, and had to argue with unenthusiastic desk clerk that it was not acceptable to put anyone in a room with non functioning smoke detectors.  I came up with the solution to give the  kids my room, which appeared better, and give me a room with a king bed.  There was no apology from the front desk. Now for my king room:  overpoweringly strong food smell that lasted all night (window was open when I arrived, as someone was trying to air out the room), smoke detector was disconnected, circuit breaker in bathroom tripped every time anything was plugged in, leaving the toilet area and sink area in complete darkness, carpet appeared dirty, and had gummy spots, sink appeared dirty, hairs on bathroom floor.  The white bathtub was grey on the bottom and appeared unclean, with much hair, drain area was dirty, bathtub walls did not appear clean;  I ended up using the shower in the kids' room.  Walls had what appeared to be old food on them in the kitchen area.  The sheets were stained under the pillows and had hair on them in the area under the pillows.  There was a small roach like bug in the kitchen after the bathroom light breaker was tripped, so I left a light on all night hoping more wouldn't show up.  Wallpaper was peeling in bathroom.    Fingerprints all over both doors.  I asked for another room and was told there were none available, again no apology.  The front desk person at check in:  unenthusiastic, unhelpful, never apologized or even pretended to be  concerned.  The only thing she did for me was to tell me where to go to get another towel when we were short one.  The good:  the mattress and pillows appeared in good shape, the a/c worked, there were towels, tp, new bar soap, and kleenex.  Fridge and microwave appeared clean.   It was relatively quiet in the hallways and I did not hear much noise in the hotel after 10.  They have free wi-fi. There is a flat screen TV.  The drawers of the dresser appeared clean enough, but I did not put anything in them.  They have a free breakfast area in the lobby in the morning but there is no way I would ever eat at this place after seeing how little effort is made to clean  the rooms.  I never saw anyone who appeared to be a cleaning person during the time that I was there.  One staff member attempted to help with the circuit breaker and the disconnected smoke detector. I guess if you have low standards, or were just desperate, or don't mind rolling the dice that you might get a passable room  this would be an OK place to stay.  Personally, I had a terrible night and would have left in the middle of it if my teenagers hadn't been settled in.    The smell of my room alone made it quite difficult to get comfortable.   The lack of working smoke detectors and the hotel desk staff's complete indifference really sealed the deal.  I did not  pay for these rooms and I cannot say that they were worth it; I would pay for my own room somewhere else if this were the only choice I was offered.MoreShow less</t>
   </si>
   <si>
     <t>May 2014</t>
@@ -1471,10 +1426,7 @@
  The bad:  
 Common area:  lobby was fine, but the first floor halls smell terrible; like cigarette smoke and fish, and the area near the exit door we used had a trash can that smelled of rotten garbage.
  Teen room, first floor double:  Smoke detectors were both disconnected and/or stuffed with paper towels.  Carpet appeared dirty with black gummy substance in spots.  .  The room had a musty odor.  Obvious grimy spots on walls.  Sink did not appear to be clean.  Went back to front desk, told by clerk that no other doubles were available, and had to argue with unenthusiastic desk clerk that it was not acceptable to put anyone in a room with non functioning smoke detectors.  I came up with the solution to give the  kids my room, which appeared better, and give me a room with a king bed.  There was no apology from the front desk. 
-Now for my king room:  overpoweringly strong food smell that lasted all night (window was open when I arrived, as someone was trying to air out the room), smoke detector was disconnected, circuit breaker in bathroom tripped every time anything was plugged in, leaving the toilet area and sink area in complete darkness, carpet appeared dirty, and had gummy spots, sink appeared dirty, hairs on bathroom floor....Was provided with 2 double rooms here when staying in town for a high school event;  one for teenagers and one for me.  The bad:  Common area:  lobby was fine, but the first floor halls smell terrible; like cigarette smoke and fish, and the area near the exit door we used had a trash can that smelled of rotten garbage. Teen room, first floor double:  Smoke detectors were both disconnected and/or stuffed with paper towels.  Carpet appeared dirty with black gummy substance in spots.  .  The room had a musty odor.  Obvious grimy spots on walls.  Sink did not appear to be clean.  Went back to front desk, told by clerk that no other doubles were available, and had to argue with unenthusiastic desk clerk that it was not acceptable to put anyone in a room with non functioning smoke detectors.  I came up with the solution to give the  kids my room, which appeared better, and give me a room with a king bed.  There was no apology from the front desk. Now for my king room:  overpoweringly strong food smell that lasted all night (window was open when I arrived, as someone was trying to air out the room), smoke detector was disconnected, circuit breaker in bathroom tripped every time anything was plugged in, leaving the toilet area and sink area in complete darkness, carpet appeared dirty, and had gummy spots, sink appeared dirty, hairs on bathroom floor.  The white bathtub was grey on the bottom and appeared unclean, with much hair, drain area was dirty, bathtub walls did not appear clean;  I ended up using the shower in the kids' room.  Walls had what appeared to be old food on them in the kitchen area.  The sheets were stained under the pillows and had hair on them in the area under the pillows.  There was a small roach like bug in the kitchen after the bathroom light breaker was tripped, so I left a light on all night hoping more wouldn't show up.  Wallpaper was peeling in bathroom.    Fingerprints all over both doors.  I asked for another room and was told there were none available, again no apology.  The front desk person at check in:  unenthusiastic, unhelpful, never apologized or even pretended to be  concerned.  The only thing she did for me was to tell me where to go to get another towel when we were short one.  The good:  the mattress and pillows appeared in good shape, the a/c worked, there were towels, tp, new bar soap, and kleenex.  Fridge and microwave appeared clean.   It was relatively quiet in the hallways and I did not hear much...More</t>
-  </si>
-  <si>
-    <t>courtneymarie16578</t>
+Now for my king room:  overpoweringly strong food smell that lasted all night (window was open when I arrived, as someone was trying to air out the room), smoke detector was disconnected, circuit breaker in bathroom tripped every time anything was plugged in, leaving the toilet area and sink area in complete darkness, carpet appeared dirty, and had gummy spots, sink appeared dirty, hairs on bathroom floor....Was provided with 2 double rooms here when staying in town for a high school event;  one for teenagers and one for me.  The bad:  Common area:  lobby was fine, but the first floor halls smell terrible; like cigarette smoke and fish, and the area near the exit door we used had a trash can that smelled of rotten garbage. Teen room, first floor double:  Smoke detectors were both disconnected and/or stuffed with paper towels.  Carpet appeared dirty with black gummy substance in spots.  .  The room had a musty odor.  Obvious grimy spots on walls.  Sink did not appear to be clean.  Went back to front desk, told by clerk that no other doubles were available, and had to argue with unenthusiastic desk clerk that it was not acceptable to put anyone in a room with non functioning smoke detectors.  I came up with the solution to give the  kids my room, which appeared better, and give me a room with a king bed.  There was no apology from the front desk. Now for my king room:  overpoweringly strong food smell that lasted all night (window was open when I arrived, as someone was trying to air out the room), smoke detector was disconnected, circuit breaker in bathroom tripped every time anything was plugged in, leaving the toilet area and sink area in complete darkness, carpet appeared dirty, and had gummy spots, sink appeared dirty, hairs on bathroom floor.  The white bathtub was grey on the bottom and appeared unclean, with much hair, drain area was dirty, bathtub walls did not appear clean;  I ended up using the shower in the kids' room.  Walls had what appeared to be old food on them in the kitchen area.  The sheets were stained under the pillows and had hair on them in the area under the pillows.  There was a small roach like bug in the kitchen after the bathroom light breaker was tripped, so I left a light on all night hoping more wouldn't show up.  Wallpaper was peeling in bathroom.    Fingerprints all over both doors.  I asked for another room and was told there were none available, again no apology.  The front desk person at check in:  unenthusiastic, unhelpful, never apologized or even pretended to be  concerned.  The only thing she did for me was to tell me where to go to get another towel when we were short one.  The good:  the mattress and pillows appeared in good shape, the a/c worked, there were towels, tp, new bar soap, and kleenex.  Fridge and microwave appeared clean.   It was relatively quiet in the hallways and I did not hear much noise in the hotel after 10.  They have free wi-fi. There is a flat screen TV.  The drawers of the dresser appeared clean enough, but I did not put anything in them.  They have a free breakfast area in the lobby in the morning but there is no way I would ever eat at this place after seeing how little effort is made to clean  the rooms.  I never saw anyone who appeared to be a cleaning person during the time that I was there.  One staff member attempted to help with the circuit breaker and the disconnected smoke detector. I guess if you have low standards, or were just desperate, or don't mind rolling the dice that you might get a passable room  this would be an OK place to stay.  Personally, I had a terrible night and would have left in the middle of it if my teenagers hadn't been settled in.    The smell of my room alone made it quite difficult to get comfortable.   The lack of working smoke detectors and the hotel desk staff's complete indifference really sealed the deal.  I did not  pay for these rooms and I cannot say that they were worth it; I would pay for my own room somewhere else if this were the only choice I was offered.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r205341916-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
@@ -1490,9 +1442,6 @@
   </si>
   <si>
     <t xml:space="preserve">My fiance and I stayed here for 3 nights. Overall the experience was pleasant. The rooms were very accommodating and comfortable and the location is very convenient. I would definitely stay here again. Also, be sure to check online for a promo code. I got $50 off my stay. </t>
-  </si>
-  <si>
-    <t>JetGypsy_11</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r203667810-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
@@ -1510,7 +1459,7 @@
     <t>I have stayed at some of the best in the world and some of the worst and this is a new low for me.
 From 600 thread count sheets over goose down feather beads to foam on concrete and fresh cut flowers to dusty and moldy plastic flowers I have had the privilege to experience it all but when I am trying to save a few bucks for my company I expect at least CLEAN and safe. This place isn't clean by a long shot. 
 When I checked in, I was denied the Texas Instruments Cooperate I was entitled to as a TI Contractor and Vendor so I was getting a little upset when I checked in but found my travel  chi.  Then a guy that had checked in ahead of me came back and complained that his room was filthy and made the "friendly" guy at the count go with him to take a look.   I got to wait an extra ten minutes while Friendly Guy and the disgruntled customer went to look at the dirty room.  After they came back the disgruntled guy was assigned a double bed room for he and his wife because they had no more "clean" kings left.  After I got to watch that transaction for another five minutes, I got the key to my prepaid, non-refundable, king accommodation and was on my way.
-When I opened the door to my fresh, "clean," room...I have stayed at some of the best in the world and some of the worst and this is a new low for me.From 600 thread count sheets over goose down feather beads to foam on concrete and fresh cut flowers to dusty and moldy plastic flowers I have had the privilege to experience it all but when I am trying to save a few bucks for my company I expect at least CLEAN and safe. This place isn't clean by a long shot. When I checked in, I was denied the Texas Instruments Cooperate I was entitled to as a TI Contractor and Vendor so I was getting a little upset when I checked in but found my travel  chi.  Then a guy that had checked in ahead of me came back and complained that his room was filthy and made the "friendly" guy at the count go with him to take a look.   I got to wait an extra ten minutes while Friendly Guy and the disgruntled customer went to look at the dirty room.  After they came back the disgruntled guy was assigned a double bed room for he and his wife because they had no more "clean" kings left.  After I got to watch that transaction for another five minutes, I got the key to my prepaid, non-refundable, king accommodation and was on my way.When I opened the door to my fresh, "clean," room the first thing that hit me was the smell of axel grease but since I had been on the road for 13 hours I figured it was something I brought in from my day's travel.  Well, much to my surprise, there where four large, greasy, black hand prints on the walls of the room which made the smell make more sense.  The room was furnished with an arm chair with a crusty white film of who knows what, that freaked me out and then I noticed some of the same residue on the carpet bellow the chair.  Someone spilled some kind of creamy white goo on the chair and floor that the housekeepers thought should be left in place along with the handprints, maybe to lend authenticity, for future guests to add to their experience. After watching how the previous customer was treated by Friendly Guy at the front desk was treated, I figured it was best to suck it up and deal with it.  Hell, I can take any thing for 4 nights!Much to my surprise, I was sharing the room with bed bugs.  I have read and seen on TV reports of the increase in bed bug infestations but having not had an issue in over 500 nights in hotels in the last 15 years.  This was a new treat in deed!!!  I would have taken pictures if I had not been so disgusted.   When I got home this evening, I took my...MoreShow less</t>
+When I opened the door to my fresh, "clean," room...I have stayed at some of the best in the world and some of the worst and this is a new low for me.From 600 thread count sheets over goose down feather beads to foam on concrete and fresh cut flowers to dusty and moldy plastic flowers I have had the privilege to experience it all but when I am trying to save a few bucks for my company I expect at least CLEAN and safe. This place isn't clean by a long shot. When I checked in, I was denied the Texas Instruments Cooperate I was entitled to as a TI Contractor and Vendor so I was getting a little upset when I checked in but found my travel  chi.  Then a guy that had checked in ahead of me came back and complained that his room was filthy and made the "friendly" guy at the count go with him to take a look.   I got to wait an extra ten minutes while Friendly Guy and the disgruntled customer went to look at the dirty room.  After they came back the disgruntled guy was assigned a double bed room for he and his wife because they had no more "clean" kings left.  After I got to watch that transaction for another five minutes, I got the key to my prepaid, non-refundable, king accommodation and was on my way.When I opened the door to my fresh, "clean," room the first thing that hit me was the smell of axel grease but since I had been on the road for 13 hours I figured it was something I brought in from my day's travel.  Well, much to my surprise, there where four large, greasy, black hand prints on the walls of the room which made the smell make more sense.  The room was furnished with an arm chair with a crusty white film of who knows what, that freaked me out and then I noticed some of the same residue on the carpet bellow the chair.  Someone spilled some kind of creamy white goo on the chair and floor that the housekeepers thought should be left in place along with the handprints, maybe to lend authenticity, for future guests to add to their experience. After watching how the previous customer was treated by Friendly Guy at the front desk was treated, I figured it was best to suck it up and deal with it.  Hell, I can take any thing for 4 nights!Much to my surprise, I was sharing the room with bed bugs.  I have read and seen on TV reports of the increase in bed bug infestations but having not had an issue in over 500 nights in hotels in the last 15 years.  This was a new treat in deed!!!  I would have taken pictures if I had not been so disgusted.   When I got home this evening, I took my suitecase out of the car and left it in the drive way so I can fumigate it and it's contents before it comes in the house.  For me, a 30 minute shower with lots of soap, hot water, soap, hot water etc., etc..I will say that I have stayed at this property 4 other times and have put up one of my employees her for 3 month stays twice with no issue but it seems that things have changed at the Extended Stay America on Campbell Road in Richardson, TX.I will negotiate a corporate rate somewhere else in the area and there are lots of options.   This place is off my list until it burns to the ground and is rebuilt as another brand.MoreShow less</t>
   </si>
   <si>
     <t>April 2014</t>
@@ -1519,10 +1468,7 @@
     <t>I have stayed at some of the best in the world and some of the worst and this is a new low for me.
 From 600 thread count sheets over goose down feather beads to foam on concrete and fresh cut flowers to dusty and moldy plastic flowers I have had the privilege to experience it all but when I am trying to save a few bucks for my company I expect at least CLEAN and safe. This place isn't clean by a long shot. 
 When I checked in, I was denied the Texas Instruments Cooperate I was entitled to as a TI Contractor and Vendor so I was getting a little upset when I checked in but found my travel  chi.  Then a guy that had checked in ahead of me came back and complained that his room was filthy and made the "friendly" guy at the count go with him to take a look.   I got to wait an extra ten minutes while Friendly Guy and the disgruntled customer went to look at the dirty room.  After they came back the disgruntled guy was assigned a double bed room for he and his wife because they had no more "clean" kings left.  After I got to watch that transaction for another five minutes, I got the key to my prepaid, non-refundable, king accommodation and was on my way.
-When I opened the door to my fresh, "clean," room...I have stayed at some of the best in the world and some of the worst and this is a new low for me.From 600 thread count sheets over goose down feather beads to foam on concrete and fresh cut flowers to dusty and moldy plastic flowers I have had the privilege to experience it all but when I am trying to save a few bucks for my company I expect at least CLEAN and safe. This place isn't clean by a long shot. When I checked in, I was denied the Texas Instruments Cooperate I was entitled to as a TI Contractor and Vendor so I was getting a little upset when I checked in but found my travel  chi.  Then a guy that had checked in ahead of me came back and complained that his room was filthy and made the "friendly" guy at the count go with him to take a look.   I got to wait an extra ten minutes while Friendly Guy and the disgruntled customer went to look at the dirty room.  After they came back the disgruntled guy was assigned a double bed room for he and his wife because they had no more "clean" kings left.  After I got to watch that transaction for another five minutes, I got the key to my prepaid, non-refundable, king accommodation and was on my way.When I opened the door to my fresh, "clean," room the first thing that hit me was the smell of axel grease but since I had been on the road for 13 hours I figured it was something I brought in from my day's travel.  Well, much to my surprise, there where four large, greasy, black hand prints on the walls of the room which made the smell make more sense.  The room was furnished with an arm chair with a crusty white film of who knows what, that freaked me out and then I noticed some of the same residue on the carpet bellow the chair.  Someone spilled some kind of creamy white goo on the chair and floor that the housekeepers thought should be left in place along with the handprints, maybe to lend authenticity, for future guests to add to their experience. After watching how the previous customer was treated by Friendly Guy at the front desk was treated, I figured it was best to suck it up and deal with it.  Hell, I can take any thing for 4 nights!Much to my surprise, I was sharing the room with bed bugs.  I have read and seen on TV reports of the increase in bed bug infestations but having not had an issue in over 500 nights in hotels in the last 15 years.  This was a new treat in deed!!!  I would have taken pictures if I had not been so disgusted.   When I got home this evening, I took my...More</t>
-  </si>
-  <si>
-    <t>bablock</t>
+When I opened the door to my fresh, "clean," room...I have stayed at some of the best in the world and some of the worst and this is a new low for me.From 600 thread count sheets over goose down feather beads to foam on concrete and fresh cut flowers to dusty and moldy plastic flowers I have had the privilege to experience it all but when I am trying to save a few bucks for my company I expect at least CLEAN and safe. This place isn't clean by a long shot. When I checked in, I was denied the Texas Instruments Cooperate I was entitled to as a TI Contractor and Vendor so I was getting a little upset when I checked in but found my travel  chi.  Then a guy that had checked in ahead of me came back and complained that his room was filthy and made the "friendly" guy at the count go with him to take a look.   I got to wait an extra ten minutes while Friendly Guy and the disgruntled customer went to look at the dirty room.  After they came back the disgruntled guy was assigned a double bed room for he and his wife because they had no more "clean" kings left.  After I got to watch that transaction for another five minutes, I got the key to my prepaid, non-refundable, king accommodation and was on my way.When I opened the door to my fresh, "clean," room the first thing that hit me was the smell of axel grease but since I had been on the road for 13 hours I figured it was something I brought in from my day's travel.  Well, much to my surprise, there where four large, greasy, black hand prints on the walls of the room which made the smell make more sense.  The room was furnished with an arm chair with a crusty white film of who knows what, that freaked me out and then I noticed some of the same residue on the carpet bellow the chair.  Someone spilled some kind of creamy white goo on the chair and floor that the housekeepers thought should be left in place along with the handprints, maybe to lend authenticity, for future guests to add to their experience. After watching how the previous customer was treated by Friendly Guy at the front desk was treated, I figured it was best to suck it up and deal with it.  Hell, I can take any thing for 4 nights!Much to my surprise, I was sharing the room with bed bugs.  I have read and seen on TV reports of the increase in bed bug infestations but having not had an issue in over 500 nights in hotels in the last 15 years.  This was a new treat in deed!!!  I would have taken pictures if I had not been so disgusted.   When I got home this evening, I took my suitecase out of the car and left it in the drive way so I can fumigate it and it's contents before it comes in the house.  For me, a 30 minute shower with lots of soap, hot water, soap, hot water etc., etc..I will say that I have stayed at this property 4 other times and have put up one of my employees her for 3 month stays twice with no issue but it seems that things have changed at the Extended Stay America on Campbell Road in Richardson, TX.I will negotiate a corporate rate somewhere else in the area and there are lots of options.   This place is off my list until it burns to the ground and is rebuilt as another brand.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r202648686-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
@@ -1543,9 +1489,6 @@
     <t>After a 14 hour drive from Bloomington IL to this hotel, I was very exhausted.  I was traveling alone for job interviews and basketball games. The way I booked the room was in 2 different reservations because I added time to my stay. I get there, and the guy was giving me a bit of attitude about that. I was in no mood for that. So he gave me a room, I get in, theres stains all over the bedsheets... go back to the front, and ask for another room... he initially offered to just send for clean sheets... i then explained the 14+ hour drive. He had no problems giving me a new room, and was friendly after that. My new room was WONDERFUL! It was huge, mostly clean (old but decent) and the bed was comfy! The next day, the day staff,Ms Miriam was awesome! She gave me information on the downtown dallas train system, so I was able to enjoy a day in downtown. Next, Ms Amy was extra helpful giving me information about all the great places to go and all thethings to do!  and she was right about everything! Because of Ms Miriam and Ms Amy, I was able to see and do so much more than I could have imagined as they knew so much about the area! Im so glad after the first 25 minutes, my stay was great! I hated to leave...After a 14 hour drive from Bloomington IL to this hotel, I was very exhausted.  I was traveling alone for job interviews and basketball games. The way I booked the room was in 2 different reservations because I added time to my stay. I get there, and the guy was giving me a bit of attitude about that. I was in no mood for that. So he gave me a room, I get in, theres stains all over the bedsheets... go back to the front, and ask for another room... he initially offered to just send for clean sheets... i then explained the 14+ hour drive. He had no problems giving me a new room, and was friendly after that. My new room was WONDERFUL! It was huge, mostly clean (old but decent) and the bed was comfy! The next day, the day staff,Ms Miriam was awesome! She gave me information on the downtown dallas train system, so I was able to enjoy a day in downtown. Next, Ms Amy was extra helpful giving me information about all the great places to go and all thethings to do!  and she was right about everything! Because of Ms Miriam and Ms Amy, I was able to see and do so much more than I could have imagined as they knew so much about the area! Im so glad after the first 25 minutes, my stay was great! I hated to leave and complete the rest of my trip. I would happily stay here again. More</t>
   </si>
   <si>
-    <t>missladyjay9174</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r199772045-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1561,9 +1504,6 @@
     <t>Stayed at the extended stay Richardson on campbell because if the location. It is very convenient for me. Stayed 2nights, couldn't sleep kept feeling itchy and I felt a bump on my elbow, turned on the lights and find BED BUGS! YESSS SAY IT AIN'T SO! I was terrified truly, have bumps and itchy patches on my arm, side, knee, and leg. Don't stay here these creatures can travel and trust me you don't want to bring these disgusting creatures home with you. Im still freaking out..</t>
   </si>
   <si>
-    <t>Thom J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r197280152-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1591,9 +1531,6 @@
     <t>I needed 1 1/2 months of lodging while I was looking for an apartment after moving to Dallas. I wanted to balance quality and price. I did online research and settled on the Extended Stay chain. I chose to pay more for the Campbell Rd location though I could have stayed at other locations for less.  The reviews on the others appeared miserable.  When I arrived, the hotel's appearance was better than the photos.  The amenities were acceptable and comfortable. I often saw the cleaning staff and the common areas were always clean. There were a few nights where there were noise issues, but the staff took care of them when I called.  If I stayed only those nights, my review would not be positive. But since I stayed 1 1/2 months, I know those incidents are rare.  I saw some furniture/mattresses that were being discarded which leads me to conclude they update furniture when necessary.  I didn't feel rushed to find an apartment as I would have felt comfortable extending my stay.  If you plan on staying for more than 30 days, it's definitely worth the money!More</t>
   </si>
   <si>
-    <t>ChrisB12182013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r188133973-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1615,9 +1552,6 @@
     <t>I have stayed at Best Western a few times, La Quinta Inn a few times, Staybridge Suites 1 time and now here. This is by far the worst hotel I've ever seen. Bed was uncomfortable and felt like a huge piece of cardboard was under your body when you sat on it. There's no dishwasher or way to wash dishes by hand either, just a dish holder after rinsing them off after using them. Breakfast would be better if there was actually juice not just coffee and hot water. Needs more variety of foods for an on-the-go breakfast. When turning on the light switch for the bathroom and for the sink/mirror area just outside of the bathroom sometimes would automatically shut off both presenting an electrical issue. Also noticed the stove top light built into the microwave above it didn't work at all. Also noticed a rather large crack on the counter top directly next to the stove top, which would worry me about even using the stove at fear of a fire or something else going wrong. The 32" TV input didn't work very well at all, and would only keep saying "No Aux Input Available" each time you press input. Telephone in room didn't even have clear reception to the front desk, and front desk employees were rude when asked for help. Maid's didn't clean rooms in the mornings promptly, is almost 10 AM now and not even...I have stayed at Best Western a few times, La Quinta Inn a few times, Staybridge Suites 1 time and now here. This is by far the worst hotel I've ever seen. Bed was uncomfortable and felt like a huge piece of cardboard was under your body when you sat on it. There's no dishwasher or way to wash dishes by hand either, just a dish holder after rinsing them off after using them. Breakfast would be better if there was actually juice not just coffee and hot water. Needs more variety of foods for an on-the-go breakfast. When turning on the light switch for the bathroom and for the sink/mirror area just outside of the bathroom sometimes would automatically shut off both presenting an electrical issue. Also noticed the stove top light built into the microwave above it didn't work at all. Also noticed a rather large crack on the counter top directly next to the stove top, which would worry me about even using the stove at fear of a fire or something else going wrong. The 32" TV input didn't work very well at all, and would only keep saying "No Aux Input Available" each time you press input. Telephone in room didn't even have clear reception to the front desk, and front desk employees were rude when asked for help. Maid's didn't clean rooms in the mornings promptly, is almost 10 AM now and not even had it cleaned. Bathtub handle is broken to turn on the water. Towel holder for the sink outside of the bathroom was about to fall off the wall as it wasn't anchored properly. Very few dishes to use, only 2 utensils for forks, spoons, knives, 1 big spoon, 1 spatula, 1 cooking spoon, 2 bowls, 2 small plates, 2 large plates, 2 glasses, 2 pans. Going down the halls saw dirty carpet which didn't look like it had been cleaned in a while as well as dirty walls and old glue on wall corners showing poor keep up within the hotel itself. There is a toaster and coffee maker, but most about this hotel is not worth it.More</t>
   </si>
   <si>
-    <t>lizzzy03</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r185972815-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1672,9 +1606,6 @@
     <t>Last year I wrote a review, (Know what your getting). after my review was posted I got an e-mail from the manager, asking me to give them a second chance. I contacted Adam and was given a good rate for my OU/Texas weekend. Our room was real nice, King size bed, Plenty of Hot Water, Real good AC, with a nice TV w/remote. We did not cook in the room, but it was outfitted with everything needed to do so. I have read some of the negative reviews listed below, So I set out to find the issues listed. Another couple traveling with us was staying in another part of the property. all was well with them. From our room I could see a rain gutter damaged that would allow rain to fall on the patio of that room, that might cause water damage to the room below. Did not inspect that room. The only complaint about our room was the patio door was hard to slide. I'll take that every time as my only issue. Close to the DART rail system. Nice resturants in the area. the property was clean and well kept, The pool area looked really nice. Will stay there again next year. good luck, hoped this helped.More</t>
   </si>
   <si>
-    <t>Mark P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r156087772-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1702,9 +1633,6 @@
     <t>The housekeeping was poor; used soap was left in the shower and my bed had long black hair in it.  My hair is a half-inch of gray! The maintenance is sad with the hall door not locking, the glass door not sliding, and even the smoke detector disconnected.  When the room next door had a leak discovered at 9pm by the property staff, it flooded my room until I stopped the leak at 5am.  I lost a night of sleep and a day of work and the hotel manager didn't even comment.The staff signed for a package for me and never bothered to tell me it had arrived.  I found out more than 24 hours later when my wife told me that the hotel had signed for my medication.The 'free internet' runs at less that 80k.  Yes, 80K.  No large emails, no remote desktop or vpn access, not even Netflix.  This is nearly dial-up speed so I (and others from the wireless scan) have to use our cell-phone data share to work.More</t>
   </si>
   <si>
-    <t>MICHAEL P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r154370936-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1729,9 +1657,6 @@
     <t>The staff was pleasant but the room was uninhabitable.  One night after we had been there for about three weeks, it rained rather heavily and the next morning we noticed that the carpet in front of the patio door was wet.  Upon further inspection, we noticed substantial wood rot that created a hole in the subfloor and a lot of black mold.  We hadn't noticed the hole before because a large chair was positioned in front of the patio door.  We checked out that morning and notified the staff. Myself, my wife, and our two kids (5 and 2) all had cold symptoms while staying there and we originally thought we were passing around a cold.  But no, it was the black mold.  Staying here made is sick for three weeks.  These photos have been passed along to the state health department so I hope someone comes to inspect this place and shut it down. According to management, they are referring this to their risk management department but I still have not been contacted yet.  Don't waste your money on this place.  It has cost me both time and money as well as the health of my family.  I will be suing if risk management does not cough  up a reasonable solution.More</t>
   </si>
   <si>
-    <t>juan G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r151107192-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1759,9 +1684,6 @@
     <t>awesome weekend we had.we love the service with the manager and his staff, awesome people, the room was clean, dont forget the coffee n bagels to start your day. the price was good too. we know for sure we are coming back to stay here.More</t>
   </si>
   <si>
-    <t>Erika D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r151028586-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1786,9 +1708,6 @@
     <t>all the staff at this location are so prossional and friendly  the rooms very clean my favorite hotel me and my family got about 10 rooms for our family Reunion we love it so much our next reunion will be at this one locationMore</t>
   </si>
   <si>
-    <t>Ravindra K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r146800362-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1816,9 +1735,6 @@
     <t>This hotel looks traditional, not good service, they just have bagels, coffee and apples in breakfast. No Dinner, shuttle service is only three times in morning. Only weekly service. The staff is very rude and bad, they don't have good speaking sense, not supportive and friendly. They don't extend stay for people staying over a month or so and ask to vacate room with very short notice. Highly unsatisfied about staff's behavior.More</t>
   </si>
   <si>
-    <t>Marco A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r145195938-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1870,9 +1786,6 @@
     <t>OU/Texas weekend, Booked at an Homestead just off Coit Rd, recieved a call the hours before leaveing for Dallas, they had overbooked and was moving us to Richardson. The Richardson property was nice, rooms were (Ok to Good). Hot water, firm beds, AC worked good, TV with remote was good. The kitchen area was just OK, The overbooking caused my wife and I to have to sleep in seperate beds. Shoot, we just got married in May the Honeymoon is still on. The Price was VERY RIGHT and yes we are larger than average people, the regular size bed was perfect for one, not two!!!!!!!!   would I stay at the property again. YES, but we will be making sure I Know what Iam getting.More</t>
   </si>
   <si>
-    <t>GuyTraveler324</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r141634696-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1898,9 +1811,6 @@
   </si>
   <si>
     <t>I got this place on Priceline.  Free internet is a plus.  The free "breakfast"  is a few bagels, apples and oranges. Not great. It's nice to stay here on one hand because you are out of the crazy Dallas traffic.  It is set way off Campbell road, however.  I drove past it the first time because it's so far off the road.  Overall, it's okay especially if you get a discounted rate.More</t>
-  </si>
-  <si>
-    <t>nprescot</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r140393267-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
@@ -1918,7 +1828,7 @@
     <t>'you can check out but ever leave.' - as a Brit who stays here about a week a month due to work commitments, there is a certain ring to this phrase.  And yes, because we' in Texas and not Weston Super Mare, everything is bigger that what you would expect in the UK, but it's not an automatic conduit for it being better.  
 My bed is bigger than what you would expect in a UK hotel.  It's a double bed that can sleep three people - not bad.  The fridge for 2 people is huge, but the noise of the cooling fan in the engine must have been taken out of a Chevvy Escalade, it's very powerful and keeps you up all night.  Sometimes I feel that I am not in a room but in a submarine with the loud amibent noise.
 Also, having been on a number of 'tours of duty' no 2 rooms are ever the same, some have bugs in them, some have falling down wallpaper and some have cupboards that don't shut properly - again this leaves you with the only unique feeling that the Homestead has amongst the dreary and drab corridors that await you once you check in.
-The Kitchens are woefully under equipped.  Everytime, I am deep down in the cooking utensils aisle at Walmart assessing the knives and kitchen kit because with the current kitchen kit, I challenge anyone to make a...'you can check out but ever leave.' - as a Brit who stays here about a week a month due to work commitments, there is a certain ring to this phrase.  And yes, because we' in Texas and not Weston Super Mare, everything is bigger that what you would expect in the UK, but it's not an automatic conduit for it being better.  My bed is bigger than what you would expect in a UK hotel.  It's a double bed that can sleep three people - not bad.  The fridge for 2 people is huge, but the noise of the cooling fan in the engine must have been taken out of a Chevvy Escalade, it's very powerful and keeps you up all night.  Sometimes I feel that I am not in a room but in a submarine with the loud amibent noise.Also, having been on a number of 'tours of duty' no 2 rooms are ever the same, some have bugs in them, some have falling down wallpaper and some have cupboards that don't shut properly - again this leaves you with the only unique feeling that the Homestead has amongst the dreary and drab corridors that await you once you check in.The Kitchens are woefully under equipped.  Everytime, I am deep down in the cooking utensils aisle at Walmart assessing the knives and kitchen kit because with the current kitchen kit, I challenge anyone to make a meal that doesn't involve using the knife to pierce the plastic of a ready made meal so that the mircowave can blitz it into a hot meal.Also, the breakfasts are perhaps the biggest moan of the whole experience.  'great coffee' is not described as such just because it is hot, wet and black.  It is tastleless and meagre to say the least and also the bagels are positively anameic.  I tend to desert the breakfast room at all costs and east approprately at Benny's Bagels across the road.There is, however, one friendly member of staff that is always chatty who is hispanic and always asks lots of nice questions about Europe...the others seems to be discarded extras from the Men in Black 3 film set.  Gettting a straight answer or even a geniune smiley face from them can require some tactful diplomacy.  So in summary, if you want to be dry, safe and have a bed that isn't some haybale straw this is a perfect place.  If you think that you can live here in student style accomdation in a domestic bliss, then this is not the place for you.  It serves a purpose but what could be made better is actually equipping the kitchen with something more than a can opener and actually provide a breakfast in the morning that doesn't...MoreShow less</t>
+The Kitchens are woefully under equipped.  Everytime, I am deep down in the cooking utensils aisle at Walmart assessing the knives and kitchen kit because with the current kitchen kit, I challenge anyone to make a...'you can check out but ever leave.' - as a Brit who stays here about a week a month due to work commitments, there is a certain ring to this phrase.  And yes, because we' in Texas and not Weston Super Mare, everything is bigger that what you would expect in the UK, but it's not an automatic conduit for it being better.  My bed is bigger than what you would expect in a UK hotel.  It's a double bed that can sleep three people - not bad.  The fridge for 2 people is huge, but the noise of the cooling fan in the engine must have been taken out of a Chevvy Escalade, it's very powerful and keeps you up all night.  Sometimes I feel that I am not in a room but in a submarine with the loud amibent noise.Also, having been on a number of 'tours of duty' no 2 rooms are ever the same, some have bugs in them, some have falling down wallpaper and some have cupboards that don't shut properly - again this leaves you with the only unique feeling that the Homestead has amongst the dreary and drab corridors that await you once you check in.The Kitchens are woefully under equipped.  Everytime, I am deep down in the cooking utensils aisle at Walmart assessing the knives and kitchen kit because with the current kitchen kit, I challenge anyone to make a meal that doesn't involve using the knife to pierce the plastic of a ready made meal so that the mircowave can blitz it into a hot meal.Also, the breakfasts are perhaps the biggest moan of the whole experience.  'great coffee' is not described as such just because it is hot, wet and black.  It is tastleless and meagre to say the least and also the bagels are positively anameic.  I tend to desert the breakfast room at all costs and east approprately at Benny's Bagels across the road.There is, however, one friendly member of staff that is always chatty who is hispanic and always asks lots of nice questions about Europe...the others seems to be discarded extras from the Men in Black 3 film set.  Gettting a straight answer or even a geniune smiley face from them can require some tactful diplomacy.  So in summary, if you want to be dry, safe and have a bed that isn't some haybale straw this is a perfect place.  If you think that you can live here in student style accomdation in a domestic bliss, then this is not the place for you.  It serves a purpose but what could be made better is actually equipping the kitchen with something more than a can opener and actually provide a breakfast in the morning that doesn't require you to be reaching for the tramadolMoreShow less</t>
   </si>
   <si>
     <t>Manager_11525, General Manager at Extended Stay America - Dallas - Richardson, responded to this reviewResponded September 18, 2012</t>
@@ -1930,7 +1840,7 @@
     <t>'you can check out but ever leave.' - as a Brit who stays here about a week a month due to work commitments, there is a certain ring to this phrase.  And yes, because we' in Texas and not Weston Super Mare, everything is bigger that what you would expect in the UK, but it's not an automatic conduit for it being better.  
 My bed is bigger than what you would expect in a UK hotel.  It's a double bed that can sleep three people - not bad.  The fridge for 2 people is huge, but the noise of the cooling fan in the engine must have been taken out of a Chevvy Escalade, it's very powerful and keeps you up all night.  Sometimes I feel that I am not in a room but in a submarine with the loud amibent noise.
 Also, having been on a number of 'tours of duty' no 2 rooms are ever the same, some have bugs in them, some have falling down wallpaper and some have cupboards that don't shut properly - again this leaves you with the only unique feeling that the Homestead has amongst the dreary and drab corridors that await you once you check in.
-The Kitchens are woefully under equipped.  Everytime, I am deep down in the cooking utensils aisle at Walmart assessing the knives and kitchen kit because with the current kitchen kit, I challenge anyone to make a...'you can check out but ever leave.' - as a Brit who stays here about a week a month due to work commitments, there is a certain ring to this phrase.  And yes, because we' in Texas and not Weston Super Mare, everything is bigger that what you would expect in the UK, but it's not an automatic conduit for it being better.  My bed is bigger than what you would expect in a UK hotel.  It's a double bed that can sleep three people - not bad.  The fridge for 2 people is huge, but the noise of the cooling fan in the engine must have been taken out of a Chevvy Escalade, it's very powerful and keeps you up all night.  Sometimes I feel that I am not in a room but in a submarine with the loud amibent noise.Also, having been on a number of 'tours of duty' no 2 rooms are ever the same, some have bugs in them, some have falling down wallpaper and some have cupboards that don't shut properly - again this leaves you with the only unique feeling that the Homestead has amongst the dreary and drab corridors that await you once you check in.The Kitchens are woefully under equipped.  Everytime, I am deep down in the cooking utensils aisle at Walmart assessing the knives and kitchen kit because with the current kitchen kit, I challenge anyone to make a meal that doesn't involve using the knife to pierce the plastic of a ready made meal so that the mircowave can blitz it into a hot meal.Also, the breakfasts are perhaps the biggest moan of the whole experience.  'great coffee' is not described as such just because it is hot, wet and black.  It is tastleless and meagre to say the least and also the bagels are positively anameic.  I tend to desert the breakfast room at all costs and east approprately at Benny's Bagels across the road.There is, however, one friendly member of staff that is always chatty who is hispanic and always asks lots of nice questions about Europe...the others seems to be discarded extras from the Men in Black 3 film set.  Gettting a straight answer or even a geniune smiley face from them can require some tactful diplomacy.  So in summary, if you want to be dry, safe and have a bed that isn't some haybale straw this is a perfect place.  If you think that you can live here in student style accomdation in a domestic bliss, then this is not the place for you.  It serves a purpose but what could be made better is actually equipping the kitchen with something more than a can opener and actually provide a breakfast in the morning that doesn't...More</t>
+The Kitchens are woefully under equipped.  Everytime, I am deep down in the cooking utensils aisle at Walmart assessing the knives and kitchen kit because with the current kitchen kit, I challenge anyone to make a...'you can check out but ever leave.' - as a Brit who stays here about a week a month due to work commitments, there is a certain ring to this phrase.  And yes, because we' in Texas and not Weston Super Mare, everything is bigger that what you would expect in the UK, but it's not an automatic conduit for it being better.  My bed is bigger than what you would expect in a UK hotel.  It's a double bed that can sleep three people - not bad.  The fridge for 2 people is huge, but the noise of the cooling fan in the engine must have been taken out of a Chevvy Escalade, it's very powerful and keeps you up all night.  Sometimes I feel that I am not in a room but in a submarine with the loud amibent noise.Also, having been on a number of 'tours of duty' no 2 rooms are ever the same, some have bugs in them, some have falling down wallpaper and some have cupboards that don't shut properly - again this leaves you with the only unique feeling that the Homestead has amongst the dreary and drab corridors that await you once you check in.The Kitchens are woefully under equipped.  Everytime, I am deep down in the cooking utensils aisle at Walmart assessing the knives and kitchen kit because with the current kitchen kit, I challenge anyone to make a meal that doesn't involve using the knife to pierce the plastic of a ready made meal so that the mircowave can blitz it into a hot meal.Also, the breakfasts are perhaps the biggest moan of the whole experience.  'great coffee' is not described as such just because it is hot, wet and black.  It is tastleless and meagre to say the least and also the bagels are positively anameic.  I tend to desert the breakfast room at all costs and east approprately at Benny's Bagels across the road.There is, however, one friendly member of staff that is always chatty who is hispanic and always asks lots of nice questions about Europe...the others seems to be discarded extras from the Men in Black 3 film set.  Gettting a straight answer or even a geniune smiley face from them can require some tactful diplomacy.  So in summary, if you want to be dry, safe and have a bed that isn't some haybale straw this is a perfect place.  If you think that you can live here in student style accomdation in a domestic bliss, then this is not the place for you.  It serves a purpose but what could be made better is actually equipping the kitchen with something more than a can opener and actually provide a breakfast in the morning that doesn't require you to be reaching for the tramadolMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r132918663-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
@@ -1960,9 +1870,6 @@
     <t>We needed a place to stay on the spur of the moment. Our air had gone out at home and we needed a place close to home.  It was nice and clean, and very reasonable!More</t>
   </si>
   <si>
-    <t>Ashleykayyy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r132061092-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1981,9 +1888,6 @@
     <t>I was hesitant at first because I selected a 2-3 star hotel and i got it at a GREAT rate! But when I arrived I was pleasantly suprised to find that it was actually very spacious and nice. Had everything you could possibly need right there with you or in a very convenient trip up the road. I will defitinly be visiting this location again.More</t>
   </si>
   <si>
-    <t>Chase P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r131074502-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2005,9 +1909,6 @@
     <t>I booked this hotel on Priceline for a very cheap price, and the check-in/out were very painless.  The rooms were decent enough (clean, no frills), which was to be expected.  Don't expect a five-star hotel, but for a low-price, one night stay, it was perfect.More</t>
   </si>
   <si>
-    <t>Maria P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r124433321-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2032,9 +1933,6 @@
     <t>this is the worse Hotel ever, the people that works in the front desk are very rude and unhelpful, with exception of a Hispanic lady, the rest of them are very unprofessional, is like walking into a bad neighborhood, the rooms are old but OK, carpet is old, the mini kitchen is clean and good, but, really the services is very,very, very bad.More</t>
   </si>
   <si>
-    <t>nixforfun</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r121781942-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2053,9 +1951,6 @@
     <t>April 2011</t>
   </si>
   <si>
-    <t>ainge1983</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r120909429-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2071,9 +1966,6 @@
     <t xml:space="preserve">Decent suite with mini kitchen, stove and pots and pans. Not real fancy but great price. Decent neighborhood, close to garland ISD special events center. </t>
   </si>
   <si>
-    <t>cameroneit</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r113071311-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2095,9 +1987,6 @@
     <t>I was supposed to stay her for 21 nights for work.  I made it through 6 before I couldn't take it anymore.  On day 2 I found 2 bugs, day 3 one giant 1.5" long bug, and day 5 I found 3 more dead bugs.  This place is just gross.  I took off my shoes and walked through the place...the carpet is disgusting.  It is in dire need of a steam clean at a minimum.  The kitchenette is a joke, located in a walkway between the bathroom and the bed room areas.   When  I asked the front desk to spray my room for bugs, they didn't seem surprised at all.  Then when I asked them to not spray my clothes in the dresser they seemed to think that was a big request.  I told them not to bother spraying since I was leaving anyway.  Again, they didn't seem surprised.  The bed also was very very hard and you could feel the springs.  As I was packing up my car, another person was leaving early too due to the smell and cleanliness.I would never stay here again.  The only positive was the pool.  There are plenty of other places to stay and the extra money you pay for the other places is so worth it.More</t>
   </si>
   <si>
-    <t>theresajrs</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r107133301-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2116,9 +2005,6 @@
     <t>March 2011</t>
   </si>
   <si>
-    <t>s3consulting</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r80836408-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2134,9 +2020,6 @@
     <t>September 2010</t>
   </si>
   <si>
-    <t>SeaWorld-Visitor</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r50386601-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2155,9 +2038,6 @@
     <t>November 2009</t>
   </si>
   <si>
-    <t>empireofdirt</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r26419242-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2177,9 +2057,6 @@
   </si>
   <si>
     <t>The people who interact with guests here are cheerful and helpful -- first rate.  They are the only good thing about this hotel.First -- the door to the outside that was nearest my room would only open with a double-push (push, then wait, then push again) to disengage the electronic lock.  In a fire people would die trying to get out a door like this.  It's illegal and dangerous.Second -- the truck next to mine was broken into (smashed window) the night I was there.  Thank goodness it wasn't mine -- but it could have been.Third -- room was filthy.  Animal crackers under the bed and ground into the rug, speckles of some grease on every horizontal surface, shower head growing algae, etc.  Lightbulbs out that hadn't been replaced.  Just poor upkeep.  And you wouldn't guess it from the reception area of the hotel, which is recently renovated and upscale.Fourth -- I usually love these places because of the kitchenette.  You know, a great place to mix up some mac n' cheese, right?  Well, the people next door to me decided to make fried chicken for dinner!  Ugh, the smell!  The whole wing of the hotel smelled like grease and fried chicken (which I don't happen to like...  ) still the next morning.More</t>
-  </si>
-  <si>
-    <t>LISA C</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109032-r14224174-Extended_Stay_America_Dallas_Richardson-Richardson_Texas.html</t>
@@ -2705,122 +2582,104 @@
       <c r="A2" t="n">
         <v>33342</v>
       </c>
-      <c r="B2" t="n">
-        <v>1363</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
         <v>54</v>
       </c>
-      <c r="P2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2</v>
-      </c>
-      <c r="R2" t="n">
-        <v>4</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3</v>
-      </c>
-      <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>4</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>55</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>56</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>33342</v>
       </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>61</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>62</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>63</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" t="s">
-        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2832,285 +2691,255 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
         <v>66</v>
-      </c>
-      <c r="X3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>33342</v>
       </c>
-      <c r="B4" t="n">
-        <v>136166</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
         <v>70</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>71</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
         <v>72</v>
       </c>
-      <c r="K4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L4" t="s">
-        <v>74</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>75</v>
-      </c>
-      <c r="O4" t="s">
-        <v>76</v>
-      </c>
       <c r="P4" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s"/>
       <c r="R4" t="n">
-        <v>5</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>33342</v>
       </c>
-      <c r="B5" t="n">
-        <v>136167</v>
-      </c>
-      <c r="C5" t="s">
-        <v>80</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
         <v>81</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
         <v>82</v>
       </c>
-      <c r="J5" t="s">
+      <c r="X5" t="s">
         <v>83</v>
       </c>
-      <c r="K5" t="s">
+      <c r="Y5" t="s">
         <v>84</v>
-      </c>
-      <c r="L5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>75</v>
-      </c>
-      <c r="O5" t="s">
-        <v>76</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
-      <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>4</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="s">
-        <v>86</v>
-      </c>
-      <c r="X5" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>33342</v>
       </c>
-      <c r="B6" t="n">
-        <v>136168</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
         <v>89</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
         <v>90</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="O6" t="s">
         <v>91</v>
       </c>
-      <c r="J6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K6" t="s">
-        <v>93</v>
-      </c>
-      <c r="L6" t="s">
-        <v>94</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>95</v>
-      </c>
-      <c r="O6" t="s">
-        <v>76</v>
-      </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
         <v>3</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="X6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="Y6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>33342</v>
       </c>
-      <c r="B7" t="n">
-        <v>136169</v>
-      </c>
-      <c r="C7" t="s">
-        <v>99</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>100</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L7" t="s">
-        <v>104</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>95</v>
-      </c>
       <c r="O7" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -3132,114 +2961,139 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="X7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="Y7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>33342</v>
       </c>
-      <c r="B8" t="n">
-        <v>136170</v>
-      </c>
-      <c r="C8" t="s">
-        <v>109</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" t="s">
+        <v>108</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8" t="s">
         <v>110</v>
       </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="Y8" t="s">
         <v>111</v>
-      </c>
-      <c r="J8" t="s">
-        <v>112</v>
-      </c>
-      <c r="K8" t="s"/>
-      <c r="L8" t="s"/>
-      <c r="M8" t="s"/>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
-      <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
-      <c r="V8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>33342</v>
       </c>
-      <c r="B9" t="n">
-        <v>136171</v>
-      </c>
-      <c r="C9" t="s">
-        <v>113</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" t="s">
         <v>114</v>
       </c>
-      <c r="G9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>115</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>116</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
         <v>117</v>
       </c>
-      <c r="L9" t="s">
-        <v>118</v>
-      </c>
-      <c r="M9" t="n">
-        <v>2</v>
-      </c>
-      <c r="N9" t="s">
-        <v>119</v>
-      </c>
       <c r="O9" t="s">
-        <v>54</v>
-      </c>
-      <c r="P9" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
       <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
         <v>3</v>
       </c>
-      <c r="R9" t="s"/>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
@@ -3249,280 +3103,270 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
+        <v>118</v>
+      </c>
+      <c r="X9" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y9" t="s">
         <v>120</v>
-      </c>
-      <c r="X9" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>33342</v>
       </c>
-      <c r="B10" t="n">
-        <v>136172</v>
-      </c>
-      <c r="C10" t="s">
-        <v>123</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" t="s">
         <v>124</v>
       </c>
-      <c r="G10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="L10" t="s">
         <v>125</v>
       </c>
-      <c r="J10" t="s">
-        <v>126</v>
-      </c>
-      <c r="K10" t="s">
-        <v>127</v>
-      </c>
-      <c r="L10" t="s">
-        <v>128</v>
-      </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O10" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="X10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Y10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>33342</v>
       </c>
-      <c r="B11" t="n">
-        <v>10198</v>
-      </c>
-      <c r="C11" t="s">
-        <v>132</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" t="s">
         <v>133</v>
       </c>
-      <c r="G11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
         <v>134</v>
       </c>
-      <c r="J11" t="s">
-        <v>135</v>
-      </c>
-      <c r="K11" t="s">
-        <v>136</v>
-      </c>
-      <c r="L11" t="s">
-        <v>137</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>119</v>
-      </c>
       <c r="O11" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="X11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Y11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>33342</v>
       </c>
-      <c r="B12" t="n">
-        <v>136173</v>
-      </c>
-      <c r="C12" t="s">
-        <v>141</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" t="s">
+        <v>141</v>
+      </c>
+      <c r="L12" t="s">
         <v>142</v>
       </c>
-      <c r="G12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>134</v>
+      </c>
+      <c r="O12" t="s">
+        <v>91</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
         <v>143</v>
       </c>
-      <c r="J12" t="s">
-        <v>61</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="X12" t="s">
         <v>144</v>
       </c>
-      <c r="L12" t="s">
+      <c r="Y12" t="s">
         <v>145</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>64</v>
-      </c>
-      <c r="O12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
-      <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="s">
-        <v>66</v>
-      </c>
-      <c r="X12" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>33342</v>
       </c>
-      <c r="B13" t="n">
-        <v>12996</v>
-      </c>
-      <c r="C13" t="s">
-        <v>147</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J13" t="s">
         <v>148</v>
       </c>
-      <c r="G13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>149</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>150</v>
       </c>
-      <c r="K13" t="s">
-        <v>151</v>
-      </c>
-      <c r="L13" t="s">
-        <v>152</v>
-      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="O13" t="s">
-        <v>76</v>
-      </c>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
       <c r="R13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -3535,125 +3379,127 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="X13" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Y13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>33342</v>
       </c>
-      <c r="B14" t="n">
-        <v>136174</v>
-      </c>
-      <c r="C14" t="s">
-        <v>157</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>155</v>
+      </c>
+      <c r="J14" t="s">
+        <v>156</v>
+      </c>
+      <c r="K14" t="s">
+        <v>157</v>
+      </c>
+      <c r="L14" t="s">
         <v>158</v>
       </c>
-      <c r="G14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>134</v>
+      </c>
+      <c r="O14" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
         <v>159</v>
       </c>
-      <c r="J14" t="s">
+      <c r="X14" t="s">
         <v>160</v>
       </c>
-      <c r="K14" t="s">
+      <c r="Y14" t="s">
         <v>161</v>
-      </c>
-      <c r="L14" t="s">
-        <v>162</v>
-      </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>163</v>
-      </c>
-      <c r="O14" t="s">
-        <v>54</v>
-      </c>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
-      <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="s">
-        <v>164</v>
-      </c>
-      <c r="X14" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>33342</v>
       </c>
-      <c r="B15" t="n">
-        <v>119689</v>
-      </c>
-      <c r="C15" t="s">
-        <v>167</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="J15" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
       <c r="K15" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="L15" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c r="O15" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3665,126 +3511,114 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>173</v>
+        <v>64</v>
       </c>
       <c r="X15" t="s">
-        <v>174</v>
+        <v>65</v>
       </c>
       <c r="Y15" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>33342</v>
       </c>
-      <c r="B16" t="n">
-        <v>136175</v>
-      </c>
-      <c r="C16" t="s">
-        <v>176</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="J16" t="s">
+        <v>169</v>
+      </c>
+      <c r="K16" t="s">
         <v>170</v>
       </c>
-      <c r="K16" t="s">
-        <v>179</v>
-      </c>
       <c r="L16" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="O16" t="s">
-        <v>54</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>4</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
       <c r="R16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="X16" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="Y16" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>33342</v>
       </c>
-      <c r="B17" t="n">
-        <v>136176</v>
-      </c>
-      <c r="C17" t="s">
-        <v>185</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="J17" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="K17" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
@@ -3793,24 +3627,14 @@
         <v>181</v>
       </c>
       <c r="O17" t="s">
-        <v>65</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
@@ -3821,203 +3645,195 @@
         <v>183</v>
       </c>
       <c r="Y17" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>33342</v>
       </c>
-      <c r="B18" t="n">
-        <v>136177</v>
-      </c>
-      <c r="C18" t="s">
-        <v>191</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>185</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>186</v>
+      </c>
+      <c r="J18" t="s">
+        <v>187</v>
+      </c>
+      <c r="K18" t="s">
+        <v>188</v>
+      </c>
+      <c r="L18" t="s">
+        <v>189</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>181</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>190</v>
+      </c>
+      <c r="X18" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y18" t="s">
         <v>192</v>
-      </c>
-      <c r="G18" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" t="s">
-        <v>48</v>
-      </c>
-      <c r="I18" t="s">
-        <v>193</v>
-      </c>
-      <c r="J18" t="s">
-        <v>194</v>
-      </c>
-      <c r="K18" t="s">
-        <v>195</v>
-      </c>
-      <c r="L18" t="s">
-        <v>196</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="s">
-        <v>163</v>
-      </c>
-      <c r="O18" t="s">
-        <v>76</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
-      <c r="R18" t="n">
-        <v>3</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2</v>
-      </c>
-      <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>1</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="s">
-        <v>197</v>
-      </c>
-      <c r="X18" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>33342</v>
       </c>
-      <c r="B19" t="n">
-        <v>136178</v>
-      </c>
-      <c r="C19" t="s">
-        <v>200</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="J19" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="K19" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="O19" t="s">
-        <v>76</v>
-      </c>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="X19" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="Y19" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>33342</v>
       </c>
-      <c r="B20" t="n">
-        <v>136179</v>
-      </c>
-      <c r="C20" t="s">
-        <v>209</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="J20" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="K20" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="O20" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
       <c r="R20" t="n">
         <v>5</v>
       </c>
-      <c r="S20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
         <v>5</v>
@@ -4026,885 +3842,878 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="X20" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="Y20" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>33342</v>
       </c>
-      <c r="B21" t="n">
-        <v>136180</v>
-      </c>
-      <c r="C21" t="s">
-        <v>218</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="J21" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N21" t="s">
         <v>181</v>
       </c>
       <c r="O21" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="P21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="X21" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="Y21" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>33342</v>
       </c>
-      <c r="B22" t="n">
-        <v>136181</v>
-      </c>
-      <c r="C22" t="s">
-        <v>226</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="J22" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="K22" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>232</v>
+        <v>181</v>
       </c>
       <c r="O22" t="s">
-        <v>76</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>2</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="X22" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="Y22" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>33342</v>
       </c>
-      <c r="B23" t="n">
-        <v>136182</v>
-      </c>
-      <c r="C23" t="s">
-        <v>236</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="J23" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="K23" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="L23" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="O23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P23" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q23" t="s"/>
       <c r="R23" t="n">
-        <v>4</v>
-      </c>
-      <c r="S23" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="X23" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="Y23" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>33342</v>
       </c>
-      <c r="B24" t="n">
-        <v>136183</v>
-      </c>
-      <c r="C24" t="s">
-        <v>245</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="J24" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="K24" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="L24" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="O24" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="X24" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="Y24" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>33342</v>
       </c>
-      <c r="B25" t="n">
-        <v>136184</v>
-      </c>
-      <c r="C25" t="s">
-        <v>254</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="J25" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="K25" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="L25" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="O25" t="s">
-        <v>54</v>
-      </c>
-      <c r="P25" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2</v>
+      </c>
       <c r="Q25" t="n">
-        <v>1</v>
-      </c>
-      <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="X25" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="Y25" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>33342</v>
       </c>
-      <c r="B26" t="n">
-        <v>136185</v>
-      </c>
-      <c r="C26" t="s">
-        <v>263</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="J26" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="K26" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="L26" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>197</v>
+      </c>
+      <c r="O26" t="s">
+        <v>72</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
         <v>3</v>
-      </c>
-      <c r="N26" t="s">
-        <v>232</v>
-      </c>
-      <c r="O26" t="s">
-        <v>76</v>
-      </c>
-      <c r="P26" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>5</v>
-      </c>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="X26" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="Y26" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>33342</v>
       </c>
-      <c r="B27" t="n">
-        <v>136186</v>
-      </c>
-      <c r="C27" t="s">
-        <v>272</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>274</v>
-      </c>
-      <c r="J27" t="s"/>
-      <c r="K27" t="s"/>
-      <c r="L27" t="s"/>
-      <c r="M27" t="s"/>
-      <c r="N27" t="s"/>
-      <c r="O27" t="s"/>
-      <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
+        <v>255</v>
+      </c>
+      <c r="J27" t="s">
+        <v>256</v>
+      </c>
+      <c r="K27" t="s">
+        <v>257</v>
+      </c>
+      <c r="L27" t="s">
+        <v>258</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>242</v>
+      </c>
+      <c r="O27" t="s">
+        <v>91</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>259</v>
+      </c>
+      <c r="X27" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>33342</v>
       </c>
-      <c r="B28" t="n">
-        <v>136187</v>
-      </c>
-      <c r="C28" t="s">
-        <v>275</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="J28" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="K28" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="L28" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="O28" t="s">
-        <v>76</v>
-      </c>
-      <c r="P28" t="n">
-        <v>3</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="n">
-        <v>3</v>
-      </c>
-      <c r="R28" t="n">
-        <v>4</v>
-      </c>
-      <c r="S28" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="X28" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="Y28" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>33342</v>
       </c>
-      <c r="B29" t="n">
-        <v>38660</v>
-      </c>
-      <c r="C29" t="s">
-        <v>284</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="J29" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="K29" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="L29" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="O29" t="s">
-        <v>54</v>
-      </c>
-      <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
-      <c r="R29" t="s"/>
-      <c r="S29" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="X29" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="Y29" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>33342</v>
       </c>
-      <c r="B30" t="n">
-        <v>136188</v>
-      </c>
-      <c r="C30" t="s">
-        <v>294</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="J30" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="K30" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="L30" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>242</v>
+      </c>
+      <c r="O30" t="s">
+        <v>91</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
         <v>3</v>
       </c>
-      <c r="N30" t="s">
-        <v>300</v>
-      </c>
-      <c r="O30" t="s">
-        <v>76</v>
-      </c>
-      <c r="P30" t="s"/>
-      <c r="Q30" t="s"/>
-      <c r="R30" t="s"/>
-      <c r="S30" t="s"/>
-      <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>275</v>
+      </c>
+      <c r="X30" t="s">
+        <v>276</v>
+      </c>
       <c r="Y30" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>33342</v>
       </c>
-      <c r="B31" t="n">
-        <v>16687</v>
-      </c>
-      <c r="C31" t="s">
-        <v>301</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="J31" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="K31" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="L31" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="M31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>307</v>
+        <v>242</v>
       </c>
       <c r="O31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
-      <c r="R31" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
       <c r="S31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>289</v>
+      </c>
+      <c r="X31" t="s">
+        <v>290</v>
+      </c>
       <c r="Y31" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>33342</v>
       </c>
-      <c r="B32" t="n">
-        <v>13561</v>
-      </c>
-      <c r="C32" t="s">
-        <v>308</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="J32" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="K32" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="L32" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="O32" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="P32" t="s"/>
-      <c r="Q32" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>5</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="X32" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="Y32" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>33342</v>
       </c>
-      <c r="B33" t="n">
-        <v>136189</v>
-      </c>
-      <c r="C33" t="s">
-        <v>317</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="J33" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="K33" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="L33" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="M33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="O33" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4915,333 +4724,309 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
-        <v>324</v>
-      </c>
-      <c r="X33" t="s">
-        <v>325</v>
-      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>33342</v>
       </c>
-      <c r="B34" t="n">
-        <v>136190</v>
-      </c>
-      <c r="C34" t="s">
-        <v>327</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="J34" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="K34" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="L34" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="O34" t="s">
-        <v>76</v>
-      </c>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
-      <c r="S34" t="s"/>
+      <c r="S34" t="n">
+        <v>2</v>
+      </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s">
-        <v>334</v>
-      </c>
-      <c r="X34" t="s">
-        <v>335</v>
-      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>33342</v>
       </c>
-      <c r="B35" t="n">
-        <v>136191</v>
-      </c>
-      <c r="C35" t="s">
-        <v>337</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="J35" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="K35" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="L35" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="O35" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="P35" t="s"/>
-      <c r="Q35" t="s"/>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
       <c r="R35" t="s"/>
-      <c r="S35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
       <c r="T35" t="s"/>
-      <c r="U35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="X35" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="Y35" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>33342</v>
       </c>
-      <c r="B36" t="n">
-        <v>136192</v>
-      </c>
-      <c r="C36" t="s">
-        <v>347</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="J36" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="K36" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="L36" t="s">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="M36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="O36" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
-      <c r="S36" t="n">
-        <v>3</v>
-      </c>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>3</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>354</v>
+        <v>327</v>
       </c>
       <c r="X36" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="Y36" t="s">
-        <v>356</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>33342</v>
       </c>
-      <c r="B37" t="n">
-        <v>63564</v>
-      </c>
-      <c r="C37" t="s">
-        <v>357</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="J37" t="s">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="K37" t="s">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="L37" t="s">
-        <v>362</v>
+        <v>334</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="O37" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P37" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q37" t="s"/>
-      <c r="R37" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="s"/>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>336</v>
+      </c>
+      <c r="X37" t="s">
+        <v>337</v>
+      </c>
       <c r="Y37" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>33342</v>
       </c>
-      <c r="B38" t="n">
-        <v>136193</v>
-      </c>
-      <c r="C38" t="s">
-        <v>364</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
       <c r="J38" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="K38" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="L38" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="M38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
       <c r="O38" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5253,137 +5038,129 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="X38" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="Y38" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>33342</v>
       </c>
-      <c r="B39" t="n">
-        <v>136194</v>
-      </c>
-      <c r="C39" t="s">
-        <v>374</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>375</v>
+        <v>348</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>376</v>
+        <v>349</v>
       </c>
       <c r="J39" t="s">
-        <v>377</v>
+        <v>350</v>
       </c>
       <c r="K39" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="L39" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="M39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="O39" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
-      <c r="R39" t="n">
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
         <v>3</v>
-      </c>
-      <c r="S39" t="n">
-        <v>1</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="X39" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="Y39" t="s">
-        <v>383</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>33342</v>
       </c>
-      <c r="B40" t="n">
-        <v>136195</v>
-      </c>
-      <c r="C40" t="s">
-        <v>384</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="J40" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="K40" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="L40" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>390</v>
+        <v>353</v>
       </c>
       <c r="O40" t="s">
-        <v>76</v>
-      </c>
-      <c r="P40" t="s"/>
-      <c r="Q40" t="n">
-        <v>1</v>
-      </c>
-      <c r="R40" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
       <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
@@ -5392,61 +5169,53 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s">
-        <v>391</v>
-      </c>
-      <c r="X40" t="s">
-        <v>392</v>
-      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>393</v>
+        <v>362</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>33342</v>
       </c>
-      <c r="B41" t="n">
-        <v>49097</v>
-      </c>
-      <c r="C41" t="s">
-        <v>394</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="J41" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="K41" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
       <c r="L41" t="s">
-        <v>399</v>
+        <v>367</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>400</v>
+        <v>368</v>
       </c>
       <c r="O41" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5458,339 +5227,321 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>401</v>
+        <v>369</v>
       </c>
       <c r="X41" t="s">
-        <v>402</v>
+        <v>370</v>
       </c>
       <c r="Y41" t="s">
-        <v>403</v>
+        <v>371</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>33342</v>
       </c>
-      <c r="B42" t="n">
-        <v>2435</v>
-      </c>
-      <c r="C42" t="s">
-        <v>404</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="J42" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="K42" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="L42" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="O42" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
-      <c r="R42" t="s"/>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
       <c r="S42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="X42" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="Y42" t="s">
-        <v>413</v>
+        <v>380</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>33342</v>
       </c>
-      <c r="B43" t="n">
-        <v>136196</v>
-      </c>
-      <c r="C43" t="s">
-        <v>414</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>415</v>
+        <v>381</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>416</v>
+        <v>382</v>
       </c>
       <c r="J43" t="s">
-        <v>417</v>
+        <v>383</v>
       </c>
       <c r="K43" t="s">
-        <v>418</v>
+        <v>384</v>
       </c>
       <c r="L43" t="s">
-        <v>419</v>
+        <v>385</v>
       </c>
       <c r="M43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>420</v>
+        <v>386</v>
       </c>
       <c r="O43" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R43" t="s"/>
       <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>421</v>
+        <v>387</v>
       </c>
       <c r="X43" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="Y43" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>33342</v>
       </c>
-      <c r="B44" t="n">
-        <v>7173</v>
-      </c>
-      <c r="C44" t="s">
-        <v>424</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>425</v>
+        <v>390</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>426</v>
+        <v>391</v>
       </c>
       <c r="J44" t="s">
-        <v>427</v>
+        <v>392</v>
       </c>
       <c r="K44" t="s">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="L44" t="s">
-        <v>429</v>
+        <v>394</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>430</v>
+        <v>395</v>
       </c>
       <c r="O44" t="s">
-        <v>54</v>
-      </c>
-      <c r="P44" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>3</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
       <c r="R44" t="s"/>
       <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>5</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>396</v>
+      </c>
+      <c r="X44" t="s">
+        <v>397</v>
+      </c>
       <c r="Y44" t="s">
-        <v>431</v>
+        <v>398</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>33342</v>
       </c>
-      <c r="B45" t="n">
-        <v>136197</v>
-      </c>
-      <c r="C45" t="s">
-        <v>432</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>433</v>
+        <v>399</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="J45" t="s">
-        <v>427</v>
+        <v>401</v>
       </c>
       <c r="K45" t="s">
-        <v>435</v>
+        <v>402</v>
       </c>
       <c r="L45" t="s">
-        <v>436</v>
+        <v>403</v>
       </c>
       <c r="M45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>437</v>
+        <v>404</v>
       </c>
       <c r="O45" t="s">
-        <v>438</v>
-      </c>
-      <c r="P45" t="n">
-        <v>3</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
       <c r="R45" t="s"/>
-      <c r="S45" t="s"/>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>405</v>
+      </c>
+      <c r="X45" t="s">
+        <v>406</v>
+      </c>
       <c r="Y45" t="s">
-        <v>439</v>
+        <v>407</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>33342</v>
       </c>
-      <c r="B46" t="n">
-        <v>136198</v>
-      </c>
-      <c r="C46" t="s">
-        <v>440</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>441</v>
+        <v>408</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>442</v>
+        <v>409</v>
       </c>
       <c r="J46" t="s">
-        <v>443</v>
+        <v>410</v>
       </c>
       <c r="K46" t="s">
-        <v>444</v>
+        <v>411</v>
       </c>
       <c r="L46" t="s">
-        <v>445</v>
+        <v>412</v>
       </c>
       <c r="M46" t="n">
         <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>446</v>
+        <v>413</v>
       </c>
       <c r="O46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="n">
         <v>2</v>
       </c>
       <c r="R46" t="s"/>
-      <c r="S46" t="n">
-        <v>1</v>
-      </c>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
         <v>2</v>
@@ -5798,67 +5549,69 @@
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>414</v>
+      </c>
+      <c r="X46" t="s">
+        <v>415</v>
+      </c>
       <c r="Y46" t="s">
-        <v>447</v>
+        <v>416</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>33342</v>
       </c>
-      <c r="B47" t="n">
-        <v>136199</v>
-      </c>
-      <c r="C47" t="s">
-        <v>448</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>449</v>
+        <v>417</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>450</v>
+        <v>418</v>
       </c>
       <c r="J47" t="s">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="K47" t="s">
-        <v>452</v>
+        <v>420</v>
       </c>
       <c r="L47" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
       <c r="M47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>454</v>
+        <v>422</v>
       </c>
       <c r="O47" t="s">
-        <v>105</v>
-      </c>
-      <c r="P47" t="s"/>
-      <c r="Q47" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
       <c r="R47" t="s"/>
-      <c r="S47" t="n">
-        <v>2</v>
-      </c>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
@@ -5866,66 +5619,60 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>453</v>
+        <v>423</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>33342</v>
       </c>
-      <c r="B48" t="n">
-        <v>136200</v>
-      </c>
-      <c r="C48" t="s">
-        <v>455</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>456</v>
+        <v>424</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>457</v>
+        <v>425</v>
       </c>
       <c r="J48" t="s">
-        <v>458</v>
+        <v>419</v>
       </c>
       <c r="K48" t="s">
-        <v>459</v>
+        <v>426</v>
       </c>
       <c r="L48" t="s">
-        <v>460</v>
+        <v>427</v>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
       <c r="O48" t="s">
-        <v>76</v>
-      </c>
-      <c r="P48" t="s"/>
+        <v>429</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
       <c r="Q48" t="s"/>
-      <c r="R48" t="n">
-        <v>3</v>
-      </c>
-      <c r="S48" t="n">
-        <v>2</v>
-      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -5933,70 +5680,62 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>33342</v>
       </c>
-      <c r="B49" t="n">
-        <v>1380</v>
-      </c>
-      <c r="C49" t="s">
-        <v>461</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>462</v>
+        <v>431</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>463</v>
+        <v>432</v>
       </c>
       <c r="J49" t="s">
-        <v>464</v>
+        <v>433</v>
       </c>
       <c r="K49" t="s">
-        <v>465</v>
+        <v>434</v>
       </c>
       <c r="L49" t="s">
-        <v>466</v>
+        <v>435</v>
       </c>
       <c r="M49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="O49" t="s">
-        <v>65</v>
-      </c>
-      <c r="P49" t="n">
-        <v>3</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P49" t="s"/>
       <c r="Q49" t="n">
-        <v>4</v>
-      </c>
-      <c r="R49" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R49" t="s"/>
       <c r="S49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -6004,70 +5743,60 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>467</v>
+        <v>437</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>33342</v>
       </c>
-      <c r="B50" t="n">
-        <v>136201</v>
-      </c>
-      <c r="C50" t="s">
-        <v>468</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>469</v>
+        <v>438</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>470</v>
+        <v>439</v>
       </c>
       <c r="J50" t="s">
-        <v>471</v>
+        <v>440</v>
       </c>
       <c r="K50" t="s">
-        <v>472</v>
+        <v>441</v>
       </c>
       <c r="L50" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="M50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="O50" t="s">
-        <v>76</v>
-      </c>
-      <c r="P50" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>1</v>
-      </c>
-      <c r="R50" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
       <c r="S50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -6075,61 +5804,59 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>33342</v>
       </c>
-      <c r="B51" t="n">
-        <v>136202</v>
-      </c>
-      <c r="C51" t="s">
-        <v>474</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>475</v>
+        <v>444</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="J51" t="s">
-        <v>477</v>
+        <v>446</v>
       </c>
       <c r="K51" t="s">
-        <v>478</v>
+        <v>447</v>
       </c>
       <c r="L51" t="s">
-        <v>479</v>
+        <v>448</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>480</v>
+        <v>443</v>
       </c>
       <c r="O51" t="s">
-        <v>76</v>
-      </c>
-      <c r="P51" t="n">
-        <v>1</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
-      <c r="R51" t="s"/>
-      <c r="S51" t="s"/>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2</v>
+      </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
         <v>1</v>
@@ -6140,53 +5867,53 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>481</v>
+        <v>448</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>33342</v>
       </c>
-      <c r="B52" t="n">
-        <v>136203</v>
-      </c>
-      <c r="C52" t="s">
-        <v>482</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>483</v>
+        <v>449</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>484</v>
+        <v>450</v>
       </c>
       <c r="J52" t="s">
-        <v>485</v>
+        <v>451</v>
       </c>
       <c r="K52" t="s">
-        <v>486</v>
+        <v>452</v>
       </c>
       <c r="L52" t="s">
-        <v>487</v>
+        <v>453</v>
       </c>
       <c r="M52" t="n">
-        <v>4</v>
-      </c>
-      <c r="N52" t="s"/>
-      <c r="O52" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>422</v>
+      </c>
+      <c r="O52" t="s">
+        <v>63</v>
+      </c>
       <c r="P52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q52" t="n">
         <v>4</v>
@@ -6195,7 +5922,7 @@
         <v>5</v>
       </c>
       <c r="S52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
@@ -6207,61 +5934,59 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>487</v>
+        <v>454</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>33342</v>
       </c>
-      <c r="B53" t="n">
-        <v>136204</v>
-      </c>
-      <c r="C53" t="s">
-        <v>488</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>489</v>
+        <v>455</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>490</v>
+        <v>456</v>
       </c>
       <c r="J53" t="s">
-        <v>491</v>
+        <v>457</v>
       </c>
       <c r="K53" t="s">
-        <v>492</v>
+        <v>458</v>
       </c>
       <c r="L53" t="s">
-        <v>493</v>
+        <v>459</v>
       </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>494</v>
+        <v>422</v>
       </c>
       <c r="O53" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
         <v>3</v>
-      </c>
-      <c r="Q53" t="s"/>
-      <c r="R53" t="n">
-        <v>4</v>
       </c>
       <c r="S53" t="n">
         <v>1</v>
@@ -6276,66 +6001,60 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>495</v>
+        <v>459</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>33342</v>
       </c>
-      <c r="B54" t="n">
-        <v>136205</v>
-      </c>
-      <c r="C54" t="s">
-        <v>496</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>497</v>
+        <v>460</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>498</v>
+        <v>461</v>
       </c>
       <c r="J54" t="s">
-        <v>499</v>
+        <v>462</v>
       </c>
       <c r="K54" t="s">
-        <v>500</v>
+        <v>463</v>
       </c>
       <c r="L54" t="s">
-        <v>501</v>
+        <v>464</v>
       </c>
       <c r="M54" t="n">
-        <v>4</v>
-      </c>
-      <c r="N54" t="s"/>
-      <c r="O54" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>465</v>
+      </c>
+      <c r="O54" t="s">
+        <v>72</v>
+      </c>
       <c r="P54" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>5</v>
-      </c>
-      <c r="R54" t="n">
-        <v>5</v>
-      </c>
-      <c r="S54" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
@@ -6343,66 +6062,62 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>502</v>
+        <v>466</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>33342</v>
       </c>
-      <c r="B55" t="n">
-        <v>136206</v>
-      </c>
-      <c r="C55" t="s">
-        <v>503</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>504</v>
+        <v>467</v>
       </c>
       <c r="G55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>505</v>
+        <v>468</v>
       </c>
       <c r="J55" t="s">
-        <v>506</v>
+        <v>469</v>
       </c>
       <c r="K55" t="s">
-        <v>507</v>
+        <v>470</v>
       </c>
       <c r="L55" t="s">
-        <v>508</v>
+        <v>471</v>
       </c>
       <c r="M55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N55" t="s"/>
       <c r="O55" t="s"/>
       <c r="P55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
         <v>4</v>
-      </c>
-      <c r="S55" t="n">
-        <v>1</v>
       </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
@@ -6410,145 +6125,127 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>508</v>
+        <v>471</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>33342</v>
       </c>
-      <c r="B56" t="n">
-        <v>136207</v>
-      </c>
-      <c r="C56" t="s">
-        <v>509</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>510</v>
+        <v>472</v>
       </c>
       <c r="G56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>511</v>
+        <v>473</v>
       </c>
       <c r="J56" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="K56" t="s">
-        <v>513</v>
+        <v>475</v>
       </c>
       <c r="L56" t="s">
-        <v>514</v>
+        <v>476</v>
       </c>
       <c r="M56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>515</v>
+        <v>477</v>
       </c>
       <c r="O56" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="P56" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q56" t="s"/>
       <c r="R56" t="n">
         <v>4</v>
       </c>
       <c r="S56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s">
-        <v>516</v>
-      </c>
-      <c r="X56" t="s">
-        <v>517</v>
-      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>518</v>
+        <v>478</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>33342</v>
       </c>
-      <c r="B57" t="n">
-        <v>136208</v>
-      </c>
-      <c r="C57" t="s">
-        <v>519</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>520</v>
+        <v>479</v>
       </c>
       <c r="G57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>521</v>
+        <v>480</v>
       </c>
       <c r="J57" t="s">
-        <v>522</v>
+        <v>481</v>
       </c>
       <c r="K57" t="s">
-        <v>523</v>
+        <v>482</v>
       </c>
       <c r="L57" t="s">
-        <v>524</v>
+        <v>483</v>
       </c>
       <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="s">
-        <v>525</v>
-      </c>
-      <c r="O57" t="s">
-        <v>105</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
       <c r="P57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
         <v>3</v>
-      </c>
-      <c r="S57" t="n">
-        <v>1</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
@@ -6556,135 +6253,119 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>526</v>
+        <v>484</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>33342</v>
       </c>
-      <c r="B58" t="n">
-        <v>136209</v>
-      </c>
-      <c r="C58" t="s">
-        <v>527</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>528</v>
+        <v>485</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>529</v>
+        <v>486</v>
       </c>
       <c r="J58" t="s">
-        <v>530</v>
+        <v>487</v>
       </c>
       <c r="K58" t="s">
-        <v>531</v>
+        <v>488</v>
       </c>
       <c r="L58" t="s">
-        <v>532</v>
+        <v>489</v>
       </c>
       <c r="M58" t="n">
-        <v>2</v>
-      </c>
-      <c r="N58" t="s">
-        <v>533</v>
-      </c>
-      <c r="O58" t="s">
-        <v>54</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
       <c r="P58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s">
-        <v>534</v>
-      </c>
-      <c r="X58" t="s">
-        <v>535</v>
-      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>536</v>
+        <v>489</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>33342</v>
       </c>
-      <c r="B59" t="n">
-        <v>136196</v>
-      </c>
-      <c r="C59" t="s">
-        <v>432</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>537</v>
+        <v>490</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>538</v>
+        <v>491</v>
       </c>
       <c r="J59" t="s">
-        <v>539</v>
+        <v>492</v>
       </c>
       <c r="K59" t="s">
-        <v>540</v>
+        <v>493</v>
       </c>
       <c r="L59" t="s">
-        <v>541</v>
+        <v>494</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>542</v>
+        <v>495</v>
       </c>
       <c r="O59" t="s">
-        <v>438</v>
+        <v>63</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
       </c>
       <c r="Q59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R59" t="n">
         <v>4</v>
@@ -6700,147 +6381,135 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>543</v>
+        <v>496</v>
       </c>
       <c r="X59" t="s">
-        <v>544</v>
+        <v>497</v>
       </c>
       <c r="Y59" t="s">
-        <v>545</v>
+        <v>498</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>33342</v>
       </c>
-      <c r="B60" t="n">
-        <v>3848</v>
-      </c>
-      <c r="C60" t="s">
-        <v>546</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>547</v>
+        <v>499</v>
       </c>
       <c r="G60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>548</v>
+        <v>500</v>
       </c>
       <c r="J60" t="s">
-        <v>549</v>
+        <v>501</v>
       </c>
       <c r="K60" t="s">
-        <v>550</v>
+        <v>502</v>
       </c>
       <c r="L60" t="s">
-        <v>551</v>
+        <v>503</v>
       </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>552</v>
+        <v>504</v>
       </c>
       <c r="O60" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="P60" t="n">
         <v>1</v>
       </c>
       <c r="Q60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S60" t="n">
         <v>1</v>
       </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s">
-        <v>553</v>
-      </c>
-      <c r="X60" t="s">
-        <v>554</v>
-      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>555</v>
+        <v>505</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>33342</v>
       </c>
-      <c r="B61" t="n">
-        <v>136210</v>
-      </c>
-      <c r="C61" t="s">
-        <v>556</v>
-      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>557</v>
+        <v>506</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>558</v>
+        <v>507</v>
       </c>
       <c r="J61" t="s">
-        <v>559</v>
+        <v>508</v>
       </c>
       <c r="K61" t="s">
-        <v>560</v>
+        <v>509</v>
       </c>
       <c r="L61" t="s">
-        <v>561</v>
+        <v>510</v>
       </c>
       <c r="M61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N61" t="s">
-        <v>552</v>
+        <v>511</v>
       </c>
       <c r="O61" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="P61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
@@ -6850,60 +6519,56 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>562</v>
+        <v>512</v>
       </c>
       <c r="X61" t="s">
-        <v>563</v>
+        <v>513</v>
       </c>
       <c r="Y61" t="s">
-        <v>564</v>
+        <v>514</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>33342</v>
       </c>
-      <c r="B62" t="n">
-        <v>136211</v>
-      </c>
-      <c r="C62" t="s">
-        <v>565</v>
-      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>566</v>
+        <v>515</v>
       </c>
       <c r="G62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>567</v>
+        <v>516</v>
       </c>
       <c r="J62" t="s">
-        <v>568</v>
+        <v>517</v>
       </c>
       <c r="K62" t="s">
-        <v>569</v>
+        <v>518</v>
       </c>
       <c r="L62" t="s">
-        <v>570</v>
+        <v>519</v>
       </c>
       <c r="M62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>571</v>
+        <v>520</v>
       </c>
       <c r="O62" t="s">
-        <v>105</v>
+        <v>429</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6912,531 +6577,503 @@
         <v>5</v>
       </c>
       <c r="R62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>572</v>
+        <v>521</v>
       </c>
       <c r="X62" t="s">
-        <v>573</v>
+        <v>522</v>
       </c>
       <c r="Y62" t="s">
-        <v>574</v>
+        <v>523</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>33342</v>
       </c>
-      <c r="B63" t="n">
-        <v>23734</v>
-      </c>
-      <c r="C63" t="s">
-        <v>575</v>
-      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>576</v>
+        <v>524</v>
       </c>
       <c r="G63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>577</v>
+        <v>525</v>
       </c>
       <c r="J63" t="s">
-        <v>578</v>
+        <v>526</v>
       </c>
       <c r="K63" t="s">
-        <v>579</v>
+        <v>527</v>
       </c>
       <c r="L63" t="s">
-        <v>580</v>
+        <v>528</v>
       </c>
       <c r="M63" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>571</v>
+        <v>529</v>
       </c>
       <c r="O63" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="P63" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R63" t="n">
         <v>5</v>
       </c>
       <c r="S63" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>581</v>
+        <v>530</v>
       </c>
       <c r="X63" t="s">
-        <v>582</v>
+        <v>531</v>
       </c>
       <c r="Y63" t="s">
-        <v>583</v>
+        <v>532</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>33342</v>
       </c>
-      <c r="B64" t="n">
-        <v>136212</v>
-      </c>
-      <c r="C64" t="s">
-        <v>584</v>
-      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>585</v>
+        <v>533</v>
       </c>
       <c r="G64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>586</v>
+        <v>534</v>
       </c>
       <c r="J64" t="s">
-        <v>587</v>
+        <v>535</v>
       </c>
       <c r="K64" t="s">
-        <v>588</v>
+        <v>536</v>
       </c>
       <c r="L64" t="s">
-        <v>589</v>
+        <v>537</v>
       </c>
       <c r="M64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N64" t="s">
-        <v>590</v>
+        <v>529</v>
       </c>
       <c r="O64" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="P64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T64" t="s"/>
       <c r="U64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>591</v>
+        <v>538</v>
       </c>
       <c r="X64" t="s">
-        <v>592</v>
+        <v>539</v>
       </c>
       <c r="Y64" t="s">
-        <v>593</v>
+        <v>540</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>33342</v>
       </c>
-      <c r="B65" t="n">
-        <v>136213</v>
-      </c>
-      <c r="C65" t="s">
-        <v>594</v>
-      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>595</v>
+        <v>541</v>
       </c>
       <c r="G65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>596</v>
+        <v>542</v>
       </c>
       <c r="J65" t="s">
-        <v>597</v>
+        <v>543</v>
       </c>
       <c r="K65" t="s">
-        <v>598</v>
+        <v>544</v>
       </c>
       <c r="L65" t="s">
-        <v>599</v>
+        <v>545</v>
       </c>
       <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="s"/>
-      <c r="O65" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>546</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
       <c r="P65" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R65" t="n">
         <v>5</v>
       </c>
       <c r="S65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T65" t="s"/>
       <c r="U65" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V65" t="n">
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>600</v>
+        <v>547</v>
       </c>
       <c r="X65" t="s">
-        <v>601</v>
+        <v>548</v>
       </c>
       <c r="Y65" t="s">
-        <v>602</v>
+        <v>549</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>33342</v>
       </c>
-      <c r="B66" t="n">
-        <v>136196</v>
-      </c>
-      <c r="C66" t="s">
-        <v>432</v>
-      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>603</v>
+        <v>550</v>
       </c>
       <c r="G66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>604</v>
+        <v>551</v>
       </c>
       <c r="J66" t="s">
-        <v>605</v>
+        <v>552</v>
       </c>
       <c r="K66" t="s">
-        <v>606</v>
+        <v>553</v>
       </c>
       <c r="L66" t="s">
-        <v>607</v>
+        <v>554</v>
       </c>
       <c r="M66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>608</v>
+        <v>546</v>
       </c>
       <c r="O66" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
       </c>
       <c r="Q66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T66" t="s"/>
       <c r="U66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>609</v>
+        <v>555</v>
       </c>
       <c r="X66" t="s">
-        <v>610</v>
+        <v>556</v>
       </c>
       <c r="Y66" t="s">
-        <v>611</v>
+        <v>557</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>33342</v>
       </c>
-      <c r="B67" t="n">
-        <v>136214</v>
-      </c>
-      <c r="C67" t="s">
-        <v>612</v>
-      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>613</v>
+        <v>558</v>
       </c>
       <c r="G67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>614</v>
+        <v>559</v>
       </c>
       <c r="J67" t="s">
-        <v>615</v>
+        <v>560</v>
       </c>
       <c r="K67" t="s">
-        <v>616</v>
+        <v>561</v>
       </c>
       <c r="L67" t="s">
-        <v>617</v>
+        <v>562</v>
       </c>
       <c r="M67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N67" t="s">
-        <v>618</v>
+        <v>563</v>
       </c>
       <c r="O67" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="P67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q67" t="n">
         <v>3</v>
       </c>
       <c r="R67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S67" t="n">
         <v>3</v>
       </c>
       <c r="T67" t="s"/>
       <c r="U67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V67" t="n">
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>619</v>
+        <v>564</v>
       </c>
       <c r="X67" t="s">
-        <v>620</v>
+        <v>565</v>
       </c>
       <c r="Y67" t="s">
-        <v>621</v>
+        <v>566</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>33342</v>
       </c>
-      <c r="B68" t="n">
-        <v>136215</v>
-      </c>
-      <c r="C68" t="s">
-        <v>622</v>
-      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>623</v>
+        <v>567</v>
       </c>
       <c r="G68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>624</v>
+        <v>568</v>
       </c>
       <c r="J68" t="s">
-        <v>625</v>
+        <v>569</v>
       </c>
       <c r="K68" t="s">
-        <v>626</v>
+        <v>570</v>
       </c>
       <c r="L68" t="s">
-        <v>627</v>
+        <v>571</v>
       </c>
       <c r="M68" t="n">
-        <v>3</v>
-      </c>
-      <c r="N68" t="s">
-        <v>618</v>
-      </c>
-      <c r="O68" t="s">
-        <v>76</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
       <c r="P68" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q68" t="n">
         <v>2</v>
       </c>
       <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
         <v>2</v>
-      </c>
-      <c r="S68" t="n">
-        <v>3</v>
       </c>
       <c r="T68" t="s"/>
       <c r="U68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V68" t="n">
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>628</v>
+        <v>572</v>
       </c>
       <c r="X68" t="s">
-        <v>629</v>
+        <v>573</v>
       </c>
       <c r="Y68" t="s">
-        <v>630</v>
+        <v>574</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>33342</v>
       </c>
-      <c r="B69" t="n">
-        <v>7</v>
-      </c>
-      <c r="C69" t="s">
-        <v>58</v>
-      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>631</v>
+        <v>575</v>
       </c>
       <c r="G69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>632</v>
+        <v>576</v>
       </c>
       <c r="J69" t="s">
-        <v>633</v>
+        <v>577</v>
       </c>
       <c r="K69" t="s">
-        <v>634</v>
+        <v>578</v>
       </c>
       <c r="L69" t="s">
-        <v>635</v>
+        <v>579</v>
       </c>
       <c r="M69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>636</v>
+        <v>580</v>
       </c>
       <c r="O69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
       </c>
       <c r="Q69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T69" t="s"/>
       <c r="U69" t="n">
@@ -7446,425 +7083,417 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>637</v>
+        <v>581</v>
       </c>
       <c r="X69" t="s">
-        <v>638</v>
+        <v>582</v>
       </c>
       <c r="Y69" t="s">
-        <v>639</v>
+        <v>583</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>33342</v>
       </c>
-      <c r="B70" t="n">
-        <v>136216</v>
-      </c>
-      <c r="C70" t="s">
-        <v>640</v>
-      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>641</v>
+        <v>584</v>
       </c>
       <c r="G70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>642</v>
+        <v>585</v>
       </c>
       <c r="J70" t="s">
-        <v>643</v>
+        <v>586</v>
       </c>
       <c r="K70" t="s">
-        <v>644</v>
+        <v>587</v>
       </c>
       <c r="L70" t="s">
-        <v>645</v>
+        <v>588</v>
       </c>
       <c r="M70" t="n">
-        <v>5</v>
-      </c>
-      <c r="N70" t="s"/>
-      <c r="O70" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>589</v>
+      </c>
+      <c r="O70" t="s">
+        <v>63</v>
+      </c>
       <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
         <v>4</v>
       </c>
-      <c r="Q70" t="n">
-        <v>4</v>
-      </c>
-      <c r="R70" t="n">
-        <v>5</v>
-      </c>
       <c r="S70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T70" t="s"/>
       <c r="U70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V70" t="n">
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>637</v>
+        <v>590</v>
       </c>
       <c r="X70" t="s">
-        <v>638</v>
+        <v>591</v>
       </c>
       <c r="Y70" t="s">
-        <v>646</v>
+        <v>592</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>33342</v>
       </c>
-      <c r="B71" t="n">
-        <v>48336</v>
-      </c>
-      <c r="C71" t="s">
-        <v>647</v>
-      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>648</v>
+        <v>593</v>
       </c>
       <c r="G71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>649</v>
+        <v>594</v>
       </c>
       <c r="J71" t="s">
-        <v>650</v>
+        <v>595</v>
       </c>
       <c r="K71" t="s">
-        <v>651</v>
+        <v>596</v>
       </c>
       <c r="L71" t="s">
-        <v>652</v>
+        <v>597</v>
       </c>
       <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>589</v>
+      </c>
+      <c r="O71" t="s">
+        <v>72</v>
+      </c>
+      <c r="P71" t="n">
         <v>4</v>
       </c>
-      <c r="N71" t="s">
-        <v>653</v>
-      </c>
-      <c r="O71" t="s">
-        <v>438</v>
-      </c>
-      <c r="P71" t="n">
-        <v>5</v>
-      </c>
       <c r="Q71" t="n">
+        <v>2</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2</v>
+      </c>
+      <c r="S71" t="n">
         <v>3</v>
-      </c>
-      <c r="R71" t="n">
-        <v>4</v>
-      </c>
-      <c r="S71" t="n">
-        <v>4</v>
       </c>
       <c r="T71" t="s"/>
       <c r="U71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V71" t="n">
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>637</v>
+        <v>598</v>
       </c>
       <c r="X71" t="s">
-        <v>638</v>
+        <v>599</v>
       </c>
       <c r="Y71" t="s">
-        <v>654</v>
+        <v>600</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>33342</v>
       </c>
-      <c r="B72" t="n">
-        <v>18816</v>
-      </c>
-      <c r="C72" t="s">
-        <v>655</v>
-      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>656</v>
+        <v>601</v>
       </c>
       <c r="G72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>657</v>
+        <v>602</v>
       </c>
       <c r="J72" t="s">
-        <v>658</v>
+        <v>603</v>
       </c>
       <c r="K72" t="s">
-        <v>659</v>
+        <v>604</v>
       </c>
       <c r="L72" t="s">
-        <v>660</v>
+        <v>605</v>
       </c>
       <c r="M72" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="O72" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="P72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q72" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S72" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T72" t="s"/>
       <c r="U72" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V72" t="n">
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>661</v>
+        <v>607</v>
       </c>
       <c r="X72" t="s">
-        <v>662</v>
+        <v>608</v>
       </c>
       <c r="Y72" t="s">
-        <v>663</v>
+        <v>609</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>33342</v>
       </c>
-      <c r="B73" t="n">
-        <v>136217</v>
-      </c>
-      <c r="C73" t="s">
-        <v>664</v>
-      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>665</v>
+        <v>610</v>
       </c>
       <c r="G73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>666</v>
+        <v>611</v>
       </c>
       <c r="J73" t="s">
-        <v>667</v>
+        <v>612</v>
       </c>
       <c r="K73" t="s">
-        <v>668</v>
+        <v>613</v>
       </c>
       <c r="L73" t="s">
-        <v>669</v>
+        <v>614</v>
       </c>
       <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="n">
         <v>4</v>
-      </c>
-      <c r="N73" t="s">
-        <v>670</v>
-      </c>
-      <c r="O73" t="s">
-        <v>65</v>
-      </c>
-      <c r="P73" t="n">
-        <v>5</v>
       </c>
       <c r="Q73" t="n">
         <v>4</v>
       </c>
       <c r="R73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T73" t="s"/>
       <c r="U73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V73" t="n">
         <v>0</v>
       </c>
-      <c r="W73" t="s"/>
-      <c r="X73" t="s"/>
+      <c r="W73" t="s">
+        <v>607</v>
+      </c>
+      <c r="X73" t="s">
+        <v>608</v>
+      </c>
       <c r="Y73" t="s">
-        <v>669</v>
+        <v>615</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>33342</v>
       </c>
-      <c r="B74" t="n">
-        <v>136218</v>
-      </c>
-      <c r="C74" t="s">
-        <v>671</v>
-      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>672</v>
+        <v>616</v>
       </c>
       <c r="G74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>673</v>
+        <v>617</v>
       </c>
       <c r="J74" t="s">
-        <v>674</v>
+        <v>618</v>
       </c>
       <c r="K74" t="s">
-        <v>675</v>
+        <v>619</v>
       </c>
       <c r="L74" t="s">
-        <v>676</v>
+        <v>620</v>
       </c>
       <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>621</v>
+      </c>
+      <c r="O74" t="s">
+        <v>429</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
         <v>3</v>
       </c>
-      <c r="N74" t="s"/>
-      <c r="O74" t="s"/>
-      <c r="P74" t="n">
+      <c r="R74" t="n">
         <v>4</v>
       </c>
-      <c r="Q74" t="n">
+      <c r="S74" t="n">
         <v>4</v>
-      </c>
-      <c r="R74" t="n">
-        <v>3</v>
-      </c>
-      <c r="S74" t="n">
-        <v>3</v>
       </c>
       <c r="T74" t="s"/>
       <c r="U74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V74" t="n">
         <v>0</v>
       </c>
-      <c r="W74" t="s"/>
-      <c r="X74" t="s"/>
+      <c r="W74" t="s">
+        <v>607</v>
+      </c>
+      <c r="X74" t="s">
+        <v>608</v>
+      </c>
       <c r="Y74" t="s">
-        <v>676</v>
+        <v>622</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>33342</v>
       </c>
-      <c r="B75" t="n">
-        <v>136219</v>
-      </c>
-      <c r="C75" t="s">
-        <v>677</v>
-      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>678</v>
+        <v>623</v>
       </c>
       <c r="G75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>679</v>
+        <v>624</v>
       </c>
       <c r="J75" t="s">
-        <v>680</v>
+        <v>625</v>
       </c>
       <c r="K75" t="s">
-        <v>681</v>
+        <v>626</v>
       </c>
       <c r="L75" t="s">
-        <v>682</v>
+        <v>627</v>
       </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
       <c r="N75" t="s">
-        <v>683</v>
+        <v>563</v>
       </c>
       <c r="O75" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P75" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q75" t="s"/>
-      <c r="R75" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
       <c r="S75" t="n">
         <v>1</v>
       </c>
@@ -7875,73 +7504,73 @@
       <c r="V75" t="n">
         <v>0</v>
       </c>
-      <c r="W75" t="s"/>
-      <c r="X75" t="s"/>
+      <c r="W75" t="s">
+        <v>628</v>
+      </c>
+      <c r="X75" t="s">
+        <v>629</v>
+      </c>
       <c r="Y75" t="s">
-        <v>684</v>
+        <v>630</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>33342</v>
       </c>
-      <c r="B76" t="n">
-        <v>136220</v>
-      </c>
-      <c r="C76" t="s">
-        <v>685</v>
-      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>686</v>
+        <v>631</v>
       </c>
       <c r="G76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>687</v>
+        <v>632</v>
       </c>
       <c r="J76" t="s">
-        <v>688</v>
+        <v>633</v>
       </c>
       <c r="K76" t="s">
-        <v>689</v>
+        <v>634</v>
       </c>
       <c r="L76" t="s">
-        <v>690</v>
+        <v>635</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>691</v>
+        <v>636</v>
       </c>
       <c r="O76" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
       </c>
       <c r="Q76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R76" t="n">
         <v>4</v>
       </c>
       <c r="S76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T76" t="s"/>
       <c r="U76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V76" t="n">
         <v>0</v>
@@ -7949,70 +7578,62 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>690</v>
+        <v>635</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>33342</v>
       </c>
-      <c r="B77" t="n">
-        <v>136221</v>
-      </c>
-      <c r="C77" t="s">
-        <v>692</v>
-      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>693</v>
+        <v>637</v>
       </c>
       <c r="G77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>694</v>
+        <v>638</v>
       </c>
       <c r="J77" t="s">
-        <v>695</v>
+        <v>639</v>
       </c>
       <c r="K77" t="s">
-        <v>428</v>
+        <v>640</v>
       </c>
       <c r="L77" t="s">
-        <v>696</v>
+        <v>641</v>
       </c>
       <c r="M77" t="n">
-        <v>5</v>
-      </c>
-      <c r="N77" t="s">
-        <v>697</v>
-      </c>
-      <c r="O77" t="s">
-        <v>76</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s"/>
       <c r="P77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T77" t="s"/>
       <c r="U77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V77" t="n">
         <v>0</v>
@@ -8020,131 +7641,129 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>696</v>
+        <v>641</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>33342</v>
       </c>
-      <c r="B78" t="n">
-        <v>136222</v>
-      </c>
-      <c r="C78" t="s">
-        <v>698</v>
-      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>699</v>
+        <v>642</v>
       </c>
       <c r="G78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I78" t="s">
-        <v>700</v>
+        <v>643</v>
       </c>
       <c r="J78" t="s">
-        <v>701</v>
+        <v>644</v>
       </c>
       <c r="K78" t="s">
-        <v>702</v>
+        <v>645</v>
       </c>
       <c r="L78" t="s">
-        <v>703</v>
+        <v>646</v>
       </c>
       <c r="M78" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N78" t="s">
-        <v>704</v>
+        <v>647</v>
       </c>
       <c r="O78" t="s">
-        <v>54</v>
-      </c>
-      <c r="P78" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1</v>
+      </c>
       <c r="Q78" t="s"/>
       <c r="R78" t="s"/>
-      <c r="S78" t="s"/>
+      <c r="S78" t="n">
+        <v>1</v>
+      </c>
       <c r="T78" t="s"/>
-      <c r="U78" t="s"/>
+      <c r="U78" t="n">
+        <v>1</v>
+      </c>
       <c r="V78" t="n">
         <v>0</v>
       </c>
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>703</v>
+        <v>648</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>33342</v>
       </c>
-      <c r="B79" t="n">
-        <v>136223</v>
-      </c>
-      <c r="C79" t="s">
-        <v>705</v>
-      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>706</v>
+        <v>649</v>
       </c>
       <c r="G79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I79" t="s">
-        <v>707</v>
+        <v>650</v>
       </c>
       <c r="J79" t="s">
-        <v>708</v>
+        <v>651</v>
       </c>
       <c r="K79" t="s">
-        <v>709</v>
+        <v>652</v>
       </c>
       <c r="L79" t="s">
-        <v>710</v>
+        <v>653</v>
       </c>
       <c r="M79" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>711</v>
+        <v>654</v>
       </c>
       <c r="O79" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="P79" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q79" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S79" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T79" t="s"/>
       <c r="U79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V79" t="n">
         <v>0</v>
@@ -8152,60 +7771,56 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>712</v>
+        <v>653</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>33342</v>
       </c>
-      <c r="B80" t="n">
-        <v>136224</v>
-      </c>
-      <c r="C80" t="s">
-        <v>713</v>
-      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>714</v>
+        <v>655</v>
       </c>
       <c r="G80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>715</v>
+        <v>656</v>
       </c>
       <c r="J80" t="s">
-        <v>716</v>
+        <v>657</v>
       </c>
       <c r="K80" t="s">
-        <v>717</v>
+        <v>420</v>
       </c>
       <c r="L80" t="s">
-        <v>718</v>
+        <v>658</v>
       </c>
       <c r="M80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>719</v>
+        <v>659</v>
       </c>
       <c r="O80" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R80" t="n">
         <v>5</v>
@@ -8223,7 +7838,198 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>720</v>
+        <v>658</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>33342</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>660</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>661</v>
+      </c>
+      <c r="J81" t="s">
+        <v>662</v>
+      </c>
+      <c r="K81" t="s">
+        <v>663</v>
+      </c>
+      <c r="L81" t="s">
+        <v>664</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>665</v>
+      </c>
+      <c r="O81" t="s">
+        <v>91</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="s"/>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>33342</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>666</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>667</v>
+      </c>
+      <c r="J82" t="s">
+        <v>668</v>
+      </c>
+      <c r="K82" t="s">
+        <v>669</v>
+      </c>
+      <c r="L82" t="s">
+        <v>670</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>671</v>
+      </c>
+      <c r="O82" t="s">
+        <v>72</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>33342</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>673</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>674</v>
+      </c>
+      <c r="J83" t="s">
+        <v>675</v>
+      </c>
+      <c r="K83" t="s">
+        <v>676</v>
+      </c>
+      <c r="L83" t="s">
+        <v>677</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>678</v>
+      </c>
+      <c r="O83" t="s">
+        <v>72</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>679</v>
       </c>
     </row>
   </sheetData>
